--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>CIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4841700</v>
+        <v>4742100</v>
       </c>
       <c r="E8" s="3">
-        <v>5027400</v>
+        <v>4357600</v>
       </c>
       <c r="F8" s="3">
-        <v>4726100</v>
+        <v>4524700</v>
       </c>
       <c r="G8" s="3">
-        <v>3371300</v>
+        <v>4253500</v>
       </c>
       <c r="H8" s="3">
-        <v>2779200</v>
+        <v>3034200</v>
       </c>
       <c r="I8" s="3">
-        <v>2439200</v>
+        <v>2501300</v>
       </c>
       <c r="J8" s="3">
+        <v>2195300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2298600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1962000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-139800</v>
+        <v>-182900</v>
       </c>
       <c r="E15" s="3">
-        <v>-129900</v>
+        <v>-125900</v>
       </c>
       <c r="F15" s="3">
-        <v>-143700</v>
+        <v>-116900</v>
       </c>
       <c r="G15" s="3">
-        <v>-138300</v>
+        <v>-129300</v>
       </c>
       <c r="H15" s="3">
-        <v>-410100</v>
+        <v>-124500</v>
       </c>
       <c r="I15" s="3">
-        <v>-152300</v>
+        <v>-369100</v>
       </c>
       <c r="J15" s="3">
+        <v>-137100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-109600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-90500</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2854900</v>
+        <v>2589500</v>
       </c>
       <c r="E17" s="3">
-        <v>2910500</v>
+        <v>2569400</v>
       </c>
       <c r="F17" s="3">
-        <v>2635300</v>
+        <v>2619500</v>
       </c>
       <c r="G17" s="3">
-        <v>1711700</v>
+        <v>2371700</v>
       </c>
       <c r="H17" s="3">
-        <v>1202500</v>
+        <v>1540500</v>
       </c>
       <c r="I17" s="3">
-        <v>1354900</v>
+        <v>1082200</v>
       </c>
       <c r="J17" s="3">
+        <v>1219400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1240600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>951200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1986900</v>
+        <v>2152600</v>
       </c>
       <c r="E18" s="3">
-        <v>2116900</v>
+        <v>1788200</v>
       </c>
       <c r="F18" s="3">
-        <v>2090800</v>
+        <v>1905200</v>
       </c>
       <c r="G18" s="3">
-        <v>1659700</v>
+        <v>1881700</v>
       </c>
       <c r="H18" s="3">
-        <v>1576800</v>
+        <v>1493700</v>
       </c>
       <c r="I18" s="3">
-        <v>1084300</v>
+        <v>1419100</v>
       </c>
       <c r="J18" s="3">
+        <v>975900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1058000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1010800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-902100</v>
+        <v>-943700</v>
       </c>
       <c r="E20" s="3">
-        <v>-919100</v>
+        <v>-811900</v>
       </c>
       <c r="F20" s="3">
-        <v>-900300</v>
+        <v>-827200</v>
       </c>
       <c r="G20" s="3">
-        <v>-689000</v>
+        <v>-810300</v>
       </c>
       <c r="H20" s="3">
-        <v>-645400</v>
+        <v>-620100</v>
       </c>
       <c r="I20" s="3">
-        <v>-504700</v>
+        <v>-580900</v>
       </c>
       <c r="J20" s="3">
+        <v>-454200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-405600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-302700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1225100</v>
+        <v>1391800</v>
       </c>
       <c r="E21" s="3">
-        <v>1327700</v>
+        <v>1102600</v>
       </c>
       <c r="F21" s="3">
-        <v>1335400</v>
+        <v>1195000</v>
       </c>
       <c r="G21" s="3">
-        <v>1115200</v>
+        <v>1201800</v>
       </c>
       <c r="H21" s="3">
-        <v>1061900</v>
+        <v>1003600</v>
       </c>
       <c r="I21" s="3">
-        <v>811300</v>
+        <v>955700</v>
       </c>
       <c r="J21" s="3">
+        <v>730100</v>
+      </c>
+      <c r="K21" s="3">
         <v>814700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>838300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1084800</v>
+        <v>1208900</v>
       </c>
       <c r="E23" s="3">
-        <v>1197800</v>
+        <v>976300</v>
       </c>
       <c r="F23" s="3">
-        <v>1190500</v>
+        <v>1078000</v>
       </c>
       <c r="G23" s="3">
-        <v>970700</v>
+        <v>1071400</v>
       </c>
       <c r="H23" s="3">
-        <v>931400</v>
+        <v>873600</v>
       </c>
       <c r="I23" s="3">
-        <v>579700</v>
+        <v>838200</v>
       </c>
       <c r="J23" s="3">
+        <v>521700</v>
+      </c>
+      <c r="K23" s="3">
         <v>652500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>708100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>248800</v>
+        <v>341000</v>
       </c>
       <c r="E24" s="3">
-        <v>371600</v>
+        <v>223900</v>
       </c>
       <c r="F24" s="3">
-        <v>353000</v>
+        <v>334400</v>
       </c>
       <c r="G24" s="3">
-        <v>194800</v>
+        <v>317700</v>
       </c>
       <c r="H24" s="3">
-        <v>221300</v>
+        <v>175300</v>
       </c>
       <c r="I24" s="3">
-        <v>125100</v>
+        <v>199200</v>
       </c>
       <c r="J24" s="3">
+        <v>112600</v>
+      </c>
+      <c r="K24" s="3">
         <v>140100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>155300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>835900</v>
+        <v>867900</v>
       </c>
       <c r="E26" s="3">
-        <v>826300</v>
+        <v>752300</v>
       </c>
       <c r="F26" s="3">
-        <v>837400</v>
+        <v>743600</v>
       </c>
       <c r="G26" s="3">
-        <v>775900</v>
+        <v>753700</v>
       </c>
       <c r="H26" s="3">
-        <v>710100</v>
+        <v>698300</v>
       </c>
       <c r="I26" s="3">
-        <v>454500</v>
+        <v>639100</v>
       </c>
       <c r="J26" s="3">
+        <v>409100</v>
+      </c>
+      <c r="K26" s="3">
         <v>512300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>552800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>797700</v>
+        <v>841700</v>
       </c>
       <c r="E27" s="3">
-        <v>784500</v>
+        <v>717900</v>
       </c>
       <c r="F27" s="3">
-        <v>810500</v>
+        <v>706100</v>
       </c>
       <c r="G27" s="3">
-        <v>748900</v>
+        <v>729500</v>
       </c>
       <c r="H27" s="3">
-        <v>478800</v>
+        <v>674000</v>
       </c>
       <c r="I27" s="3">
-        <v>284000</v>
+        <v>430900</v>
       </c>
       <c r="J27" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K27" s="3">
         <v>286600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>194100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,27 +1358,30 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>49000</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>6800</v>
+        <v>44100</v>
       </c>
       <c r="H29" s="3">
-        <v>18900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>8800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>28700</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>902100</v>
+        <v>943700</v>
       </c>
       <c r="E32" s="3">
-        <v>919100</v>
+        <v>811900</v>
       </c>
       <c r="F32" s="3">
-        <v>900300</v>
+        <v>827200</v>
       </c>
       <c r="G32" s="3">
-        <v>689000</v>
+        <v>810300</v>
       </c>
       <c r="H32" s="3">
-        <v>645400</v>
+        <v>620100</v>
       </c>
       <c r="I32" s="3">
-        <v>504700</v>
+        <v>580900</v>
       </c>
       <c r="J32" s="3">
+        <v>454200</v>
+      </c>
+      <c r="K32" s="3">
         <v>405600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>302700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>797700</v>
+        <v>841700</v>
       </c>
       <c r="E33" s="3">
-        <v>784500</v>
+        <v>717900</v>
       </c>
       <c r="F33" s="3">
-        <v>859600</v>
+        <v>706100</v>
       </c>
       <c r="G33" s="3">
-        <v>755700</v>
+        <v>773600</v>
       </c>
       <c r="H33" s="3">
-        <v>497600</v>
+        <v>680100</v>
       </c>
       <c r="I33" s="3">
-        <v>284000</v>
+        <v>447900</v>
       </c>
       <c r="J33" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K33" s="3">
         <v>295400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>222800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>797700</v>
+        <v>841700</v>
       </c>
       <c r="E35" s="3">
-        <v>784500</v>
+        <v>717900</v>
       </c>
       <c r="F35" s="3">
-        <v>859600</v>
+        <v>706100</v>
       </c>
       <c r="G35" s="3">
-        <v>755700</v>
+        <v>773600</v>
       </c>
       <c r="H35" s="3">
-        <v>497600</v>
+        <v>680100</v>
       </c>
       <c r="I35" s="3">
-        <v>284000</v>
+        <v>447900</v>
       </c>
       <c r="J35" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K35" s="3">
         <v>295400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>222800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4749900</v>
+        <v>4929100</v>
       </c>
       <c r="E41" s="3">
-        <v>4656900</v>
+        <v>4274900</v>
       </c>
       <c r="F41" s="3">
-        <v>4865100</v>
+        <v>4191200</v>
       </c>
       <c r="G41" s="3">
-        <v>4288500</v>
+        <v>4378600</v>
       </c>
       <c r="H41" s="3">
-        <v>6716300</v>
+        <v>3859700</v>
       </c>
       <c r="I41" s="3">
-        <v>3428200</v>
+        <v>6044700</v>
       </c>
       <c r="J41" s="3">
+        <v>3085400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2143200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2250000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2597500</v>
+        <v>3117700</v>
       </c>
       <c r="E42" s="3">
-        <v>2295800</v>
+        <v>2337700</v>
       </c>
       <c r="F42" s="3">
-        <v>2735800</v>
+        <v>2066200</v>
       </c>
       <c r="G42" s="3">
-        <v>3047300</v>
+        <v>2462200</v>
       </c>
       <c r="H42" s="3">
-        <v>4921200</v>
+        <v>2742500</v>
       </c>
       <c r="I42" s="3">
-        <v>3279300</v>
+        <v>4429100</v>
       </c>
       <c r="J42" s="3">
+        <v>2951300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2353500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1624400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,29 +1840,32 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>644900</v>
+        <v>639300</v>
       </c>
       <c r="E47" s="3">
-        <v>469500</v>
+        <v>580400</v>
       </c>
       <c r="F47" s="3">
-        <v>389500</v>
+        <v>422600</v>
       </c>
       <c r="G47" s="3">
-        <v>164000</v>
+        <v>350500</v>
       </c>
       <c r="H47" s="3">
-        <v>404900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>147600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>364400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1769,69 +1873,78 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1530500</v>
+        <v>2028500</v>
       </c>
       <c r="E48" s="3">
-        <v>1435400</v>
+        <v>1377400</v>
       </c>
       <c r="F48" s="3">
-        <v>1409200</v>
+        <v>1291900</v>
       </c>
       <c r="G48" s="3">
-        <v>1424000</v>
+        <v>1268300</v>
       </c>
       <c r="H48" s="3">
-        <v>1859800</v>
+        <v>1281600</v>
       </c>
       <c r="I48" s="3">
-        <v>657500</v>
+        <v>1673800</v>
       </c>
       <c r="J48" s="3">
+        <v>591800</v>
+      </c>
+      <c r="K48" s="3">
         <v>905700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>886300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2160600</v>
+        <v>1953000</v>
       </c>
       <c r="E49" s="3">
-        <v>1989400</v>
+        <v>1944500</v>
       </c>
       <c r="F49" s="3">
-        <v>2008200</v>
+        <v>1790500</v>
       </c>
       <c r="G49" s="3">
-        <v>2127700</v>
+        <v>1807400</v>
       </c>
       <c r="H49" s="3">
-        <v>2567000</v>
+        <v>1914900</v>
       </c>
       <c r="I49" s="3">
-        <v>1076800</v>
+        <v>2310300</v>
       </c>
       <c r="J49" s="3">
+        <v>969100</v>
+      </c>
+      <c r="K49" s="3">
         <v>171400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>224400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,29 +2005,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>81400</v>
+        <v>108300</v>
       </c>
       <c r="E52" s="3">
-        <v>44600</v>
+        <v>73200</v>
       </c>
       <c r="F52" s="3">
-        <v>66900</v>
+        <v>40100</v>
       </c>
       <c r="G52" s="3">
-        <v>51100</v>
+        <v>60200</v>
       </c>
       <c r="H52" s="3">
-        <v>56300</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>46000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>50700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -1919,9 +2038,12 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66034100</v>
+        <v>63743800</v>
       </c>
       <c r="E54" s="3">
-        <v>61172500</v>
+        <v>59430700</v>
       </c>
       <c r="F54" s="3">
-        <v>58878300</v>
+        <v>55055200</v>
       </c>
       <c r="G54" s="3">
-        <v>57891900</v>
+        <v>52990500</v>
       </c>
       <c r="H54" s="3">
-        <v>44889000</v>
+        <v>52102700</v>
       </c>
       <c r="I54" s="3">
-        <v>39244900</v>
+        <v>40400100</v>
       </c>
       <c r="J54" s="3">
+        <v>35320400</v>
+      </c>
+      <c r="K54" s="3">
         <v>29374900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28202800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,58 +2137,62 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>907400</v>
+        <v>924300</v>
       </c>
       <c r="E57" s="3">
-        <v>928000</v>
+        <v>816700</v>
       </c>
       <c r="F57" s="3">
-        <v>866200</v>
+        <v>835200</v>
       </c>
       <c r="G57" s="3">
-        <v>615500</v>
+        <v>779600</v>
       </c>
       <c r="H57" s="3">
-        <v>1423600</v>
+        <v>554000</v>
       </c>
       <c r="I57" s="3">
-        <v>783300</v>
+        <v>1281300</v>
       </c>
       <c r="J57" s="3">
+        <v>705000</v>
+      </c>
+      <c r="K57" s="3">
         <v>850500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>848300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4542000</v>
+        <v>3017500</v>
       </c>
       <c r="E58" s="3">
-        <v>4006300</v>
+        <v>4087800</v>
       </c>
       <c r="F58" s="3">
-        <v>4165500</v>
+        <v>3605700</v>
       </c>
       <c r="G58" s="3">
-        <v>3708600</v>
+        <v>3748900</v>
       </c>
       <c r="H58" s="3">
-        <v>3792000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>3337700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3412800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209800</v>
+        <v>207200</v>
       </c>
       <c r="E59" s="3">
-        <v>133500</v>
+        <v>188800</v>
       </c>
       <c r="F59" s="3">
-        <v>202400</v>
+        <v>120200</v>
       </c>
       <c r="G59" s="3">
-        <v>229400</v>
+        <v>182200</v>
       </c>
       <c r="H59" s="3">
-        <v>484900</v>
+        <v>206400</v>
       </c>
       <c r="I59" s="3">
-        <v>310100</v>
+        <v>436400</v>
       </c>
       <c r="J59" s="3">
+        <v>279100</v>
+      </c>
+      <c r="K59" s="3">
         <v>103500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>92500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7315400</v>
+        <v>7137300</v>
       </c>
       <c r="E61" s="3">
-        <v>7180700</v>
+        <v>6583900</v>
       </c>
       <c r="F61" s="3">
-        <v>7869500</v>
+        <v>6462600</v>
       </c>
       <c r="G61" s="3">
-        <v>8582600</v>
+        <v>7082600</v>
       </c>
       <c r="H61" s="3">
-        <v>6098000</v>
+        <v>7724300</v>
       </c>
       <c r="I61" s="3">
-        <v>7450900</v>
+        <v>5488200</v>
       </c>
       <c r="J61" s="3">
+        <v>6705800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3617800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3402000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>630300</v>
+        <v>670000</v>
       </c>
       <c r="E62" s="3">
-        <v>666600</v>
+        <v>567300</v>
       </c>
       <c r="F62" s="3">
-        <v>625200</v>
+        <v>599900</v>
       </c>
       <c r="G62" s="3">
-        <v>435900</v>
+        <v>562700</v>
       </c>
       <c r="H62" s="3">
-        <v>317400</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>392300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>285700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>40100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58579400</v>
+        <v>56485100</v>
       </c>
       <c r="E66" s="3">
-        <v>54238600</v>
+        <v>52721500</v>
       </c>
       <c r="F66" s="3">
-        <v>52498000</v>
+        <v>48814700</v>
       </c>
       <c r="G66" s="3">
-        <v>52108000</v>
+        <v>47248200</v>
       </c>
       <c r="H66" s="3">
-        <v>39827400</v>
+        <v>46897200</v>
       </c>
       <c r="I66" s="3">
-        <v>35497000</v>
+        <v>35844700</v>
       </c>
       <c r="J66" s="3">
+        <v>31947300</v>
+      </c>
+      <c r="K66" s="3">
         <v>25892800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25235000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2406,14 +2573,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>55000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>50000</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4891900</v>
+        <v>4922800</v>
       </c>
       <c r="E72" s="3">
-        <v>4567600</v>
+        <v>4402700</v>
       </c>
       <c r="F72" s="3">
-        <v>4158500</v>
+        <v>4110800</v>
       </c>
       <c r="G72" s="3">
-        <v>3521500</v>
+        <v>3742600</v>
       </c>
       <c r="H72" s="3">
-        <v>7850100</v>
+        <v>3169300</v>
       </c>
       <c r="I72" s="3">
-        <v>3363500</v>
+        <v>7065100</v>
       </c>
       <c r="J72" s="3">
+        <v>3027200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2283500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2217600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7454700</v>
+        <v>7258700</v>
       </c>
       <c r="E76" s="3">
-        <v>6933900</v>
+        <v>6709200</v>
       </c>
       <c r="F76" s="3">
-        <v>6380300</v>
+        <v>6240500</v>
       </c>
       <c r="G76" s="3">
-        <v>5783800</v>
+        <v>5742200</v>
       </c>
       <c r="H76" s="3">
-        <v>5061600</v>
+        <v>5205500</v>
       </c>
       <c r="I76" s="3">
-        <v>3747900</v>
+        <v>4555400</v>
       </c>
       <c r="J76" s="3">
+        <v>3373100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3427100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2917800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>797700</v>
+        <v>841700</v>
       </c>
       <c r="E81" s="3">
-        <v>784500</v>
+        <v>717900</v>
       </c>
       <c r="F81" s="3">
-        <v>859600</v>
+        <v>706100</v>
       </c>
       <c r="G81" s="3">
-        <v>755700</v>
+        <v>773600</v>
       </c>
       <c r="H81" s="3">
-        <v>497600</v>
+        <v>680100</v>
       </c>
       <c r="I81" s="3">
-        <v>284000</v>
+        <v>447900</v>
       </c>
       <c r="J81" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K81" s="3">
         <v>295400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>222800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>140300</v>
+        <v>182900</v>
       </c>
       <c r="E83" s="3">
-        <v>129900</v>
+        <v>126300</v>
       </c>
       <c r="F83" s="3">
-        <v>144900</v>
+        <v>116900</v>
       </c>
       <c r="G83" s="3">
-        <v>144500</v>
+        <v>130400</v>
       </c>
       <c r="H83" s="3">
-        <v>130600</v>
+        <v>130000</v>
       </c>
       <c r="I83" s="3">
-        <v>231600</v>
+        <v>117500</v>
       </c>
       <c r="J83" s="3">
+        <v>208400</v>
+      </c>
+      <c r="K83" s="3">
         <v>162200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>130200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>312900</v>
+        <v>3325200</v>
       </c>
       <c r="E89" s="3">
-        <v>881900</v>
+        <v>281600</v>
       </c>
       <c r="F89" s="3">
-        <v>1080400</v>
+        <v>793700</v>
       </c>
       <c r="G89" s="3">
-        <v>557000</v>
+        <v>972400</v>
       </c>
       <c r="H89" s="3">
-        <v>-2000200</v>
+        <v>501300</v>
       </c>
       <c r="I89" s="3">
-        <v>1579800</v>
+        <v>-1800200</v>
       </c>
       <c r="J89" s="3">
+        <v>1421800</v>
+      </c>
+      <c r="K89" s="3">
         <v>541900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1299900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-304200</v>
+        <v>-420000</v>
       </c>
       <c r="E91" s="3">
-        <v>-339600</v>
+        <v>-273800</v>
       </c>
       <c r="F91" s="3">
-        <v>-324800</v>
+        <v>-305600</v>
       </c>
       <c r="G91" s="3">
-        <v>-288500</v>
+        <v>-292300</v>
       </c>
       <c r="H91" s="3">
-        <v>-797700</v>
+        <v>-259700</v>
       </c>
       <c r="I91" s="3">
-        <v>-552400</v>
+        <v>-717900</v>
       </c>
       <c r="J91" s="3">
+        <v>-497200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-339700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-463200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-414600</v>
+        <v>-591500</v>
       </c>
       <c r="E94" s="3">
-        <v>-572400</v>
+        <v>-373100</v>
       </c>
       <c r="F94" s="3">
-        <v>-308300</v>
+        <v>-515200</v>
       </c>
       <c r="G94" s="3">
-        <v>42600</v>
+        <v>-277500</v>
       </c>
       <c r="H94" s="3">
-        <v>280200</v>
+        <v>38300</v>
       </c>
       <c r="I94" s="3">
-        <v>-998200</v>
+        <v>252200</v>
       </c>
       <c r="J94" s="3">
+        <v>-898400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-178300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-171500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-220700</v>
+        <v>-278800</v>
       </c>
       <c r="E96" s="3">
-        <v>-337900</v>
+        <v>-198700</v>
       </c>
       <c r="F96" s="3">
-        <v>-252100</v>
+        <v>-304100</v>
       </c>
       <c r="G96" s="3">
-        <v>-235600</v>
+        <v>-226900</v>
       </c>
       <c r="H96" s="3">
-        <v>-214100</v>
+        <v>-212000</v>
       </c>
       <c r="I96" s="3">
-        <v>-189600</v>
+        <v>-192700</v>
       </c>
       <c r="J96" s="3">
+        <v>-170600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-175000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-173800</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-219800</v>
+        <v>-1420400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1086300</v>
+        <v>-197800</v>
       </c>
       <c r="F100" s="3">
-        <v>-103200</v>
+        <v>-977600</v>
       </c>
       <c r="G100" s="3">
-        <v>-69400</v>
+        <v>-92800</v>
       </c>
       <c r="H100" s="3">
-        <v>489000</v>
+        <v>-62500</v>
       </c>
       <c r="I100" s="3">
-        <v>1486500</v>
+        <v>440100</v>
       </c>
       <c r="J100" s="3">
+        <v>1337800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-150800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1946500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>491100</v>
+        <v>38600</v>
       </c>
       <c r="E101" s="3">
-        <v>88400</v>
+        <v>442000</v>
       </c>
       <c r="F101" s="3">
-        <v>-172600</v>
+        <v>79600</v>
       </c>
       <c r="G101" s="3">
-        <v>1071500</v>
+        <v>-155300</v>
       </c>
       <c r="H101" s="3">
-        <v>637200</v>
+        <v>964300</v>
       </c>
       <c r="I101" s="3">
-        <v>103800</v>
+        <v>573500</v>
       </c>
       <c r="J101" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-80800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>44300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>169500</v>
+        <v>1352000</v>
       </c>
       <c r="E102" s="3">
-        <v>-688400</v>
+        <v>152600</v>
       </c>
       <c r="F102" s="3">
-        <v>496400</v>
+        <v>-619500</v>
       </c>
       <c r="G102" s="3">
-        <v>1601600</v>
+        <v>446800</v>
       </c>
       <c r="H102" s="3">
-        <v>-593800</v>
+        <v>1441500</v>
       </c>
       <c r="I102" s="3">
-        <v>2171900</v>
+        <v>-534400</v>
       </c>
       <c r="J102" s="3">
+        <v>1954700</v>
+      </c>
+      <c r="K102" s="3">
         <v>132000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>519400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4742100</v>
+        <v>4566500</v>
       </c>
       <c r="E8" s="3">
-        <v>4357600</v>
+        <v>4196200</v>
       </c>
       <c r="F8" s="3">
-        <v>4524700</v>
+        <v>4357100</v>
       </c>
       <c r="G8" s="3">
-        <v>4253500</v>
+        <v>4095900</v>
       </c>
       <c r="H8" s="3">
-        <v>3034200</v>
+        <v>2921800</v>
       </c>
       <c r="I8" s="3">
-        <v>2501300</v>
+        <v>2408700</v>
       </c>
       <c r="J8" s="3">
-        <v>2195300</v>
+        <v>2114000</v>
       </c>
       <c r="K8" s="3">
         <v>2298600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-182900</v>
+        <v>-176100</v>
       </c>
       <c r="E15" s="3">
-        <v>-125900</v>
+        <v>-121200</v>
       </c>
       <c r="F15" s="3">
-        <v>-116900</v>
+        <v>-112600</v>
       </c>
       <c r="G15" s="3">
-        <v>-129300</v>
+        <v>-124500</v>
       </c>
       <c r="H15" s="3">
-        <v>-124500</v>
+        <v>-119900</v>
       </c>
       <c r="I15" s="3">
-        <v>-369100</v>
+        <v>-355400</v>
       </c>
       <c r="J15" s="3">
-        <v>-137100</v>
+        <v>-132000</v>
       </c>
       <c r="K15" s="3">
         <v>-109600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2589500</v>
+        <v>2493600</v>
       </c>
       <c r="E17" s="3">
-        <v>2569400</v>
+        <v>2474200</v>
       </c>
       <c r="F17" s="3">
-        <v>2619500</v>
+        <v>2522400</v>
       </c>
       <c r="G17" s="3">
-        <v>2371700</v>
+        <v>2283900</v>
       </c>
       <c r="H17" s="3">
-        <v>1540500</v>
+        <v>1483500</v>
       </c>
       <c r="I17" s="3">
-        <v>1082200</v>
+        <v>1042100</v>
       </c>
       <c r="J17" s="3">
-        <v>1219400</v>
+        <v>1174200</v>
       </c>
       <c r="K17" s="3">
         <v>1240600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2152600</v>
+        <v>2072900</v>
       </c>
       <c r="E18" s="3">
-        <v>1788200</v>
+        <v>1722000</v>
       </c>
       <c r="F18" s="3">
-        <v>1905200</v>
+        <v>1834700</v>
       </c>
       <c r="G18" s="3">
-        <v>1881700</v>
+        <v>1812000</v>
       </c>
       <c r="H18" s="3">
-        <v>1493700</v>
+        <v>1438400</v>
       </c>
       <c r="I18" s="3">
-        <v>1419100</v>
+        <v>1366500</v>
       </c>
       <c r="J18" s="3">
-        <v>975900</v>
+        <v>939800</v>
       </c>
       <c r="K18" s="3">
         <v>1058000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-943700</v>
+        <v>-908700</v>
       </c>
       <c r="E20" s="3">
-        <v>-811900</v>
+        <v>-781800</v>
       </c>
       <c r="F20" s="3">
-        <v>-827200</v>
+        <v>-796500</v>
       </c>
       <c r="G20" s="3">
-        <v>-810300</v>
+        <v>-780300</v>
       </c>
       <c r="H20" s="3">
-        <v>-620100</v>
+        <v>-597100</v>
       </c>
       <c r="I20" s="3">
-        <v>-580900</v>
+        <v>-559300</v>
       </c>
       <c r="J20" s="3">
-        <v>-454200</v>
+        <v>-437400</v>
       </c>
       <c r="K20" s="3">
         <v>-405600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1391800</v>
+        <v>1340200</v>
       </c>
       <c r="E21" s="3">
-        <v>1102600</v>
+        <v>1061700</v>
       </c>
       <c r="F21" s="3">
-        <v>1195000</v>
+        <v>1150700</v>
       </c>
       <c r="G21" s="3">
-        <v>1201800</v>
+        <v>1157300</v>
       </c>
       <c r="H21" s="3">
-        <v>1003600</v>
+        <v>966500</v>
       </c>
       <c r="I21" s="3">
-        <v>955700</v>
+        <v>920400</v>
       </c>
       <c r="J21" s="3">
-        <v>730100</v>
+        <v>703100</v>
       </c>
       <c r="K21" s="3">
         <v>814700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1208900</v>
+        <v>1164200</v>
       </c>
       <c r="E23" s="3">
-        <v>976300</v>
+        <v>940100</v>
       </c>
       <c r="F23" s="3">
-        <v>1078000</v>
+        <v>1038100</v>
       </c>
       <c r="G23" s="3">
-        <v>1071400</v>
+        <v>1031800</v>
       </c>
       <c r="H23" s="3">
-        <v>873600</v>
+        <v>841300</v>
       </c>
       <c r="I23" s="3">
-        <v>838200</v>
+        <v>807200</v>
       </c>
       <c r="J23" s="3">
-        <v>521700</v>
+        <v>502400</v>
       </c>
       <c r="K23" s="3">
         <v>652500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>341000</v>
+        <v>328400</v>
       </c>
       <c r="E24" s="3">
-        <v>223900</v>
+        <v>215700</v>
       </c>
       <c r="F24" s="3">
-        <v>334400</v>
+        <v>322000</v>
       </c>
       <c r="G24" s="3">
-        <v>317700</v>
+        <v>306000</v>
       </c>
       <c r="H24" s="3">
-        <v>175300</v>
+        <v>168800</v>
       </c>
       <c r="I24" s="3">
-        <v>199200</v>
+        <v>191800</v>
       </c>
       <c r="J24" s="3">
-        <v>112600</v>
+        <v>108400</v>
       </c>
       <c r="K24" s="3">
         <v>140100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>867900</v>
+        <v>835800</v>
       </c>
       <c r="E26" s="3">
-        <v>752300</v>
+        <v>724500</v>
       </c>
       <c r="F26" s="3">
-        <v>743600</v>
+        <v>716100</v>
       </c>
       <c r="G26" s="3">
-        <v>753700</v>
+        <v>725800</v>
       </c>
       <c r="H26" s="3">
-        <v>698300</v>
+        <v>672500</v>
       </c>
       <c r="I26" s="3">
-        <v>639100</v>
+        <v>615400</v>
       </c>
       <c r="J26" s="3">
-        <v>409100</v>
+        <v>393900</v>
       </c>
       <c r="K26" s="3">
         <v>512300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>841700</v>
+        <v>810500</v>
       </c>
       <c r="E27" s="3">
-        <v>717900</v>
+        <v>691300</v>
       </c>
       <c r="F27" s="3">
-        <v>706100</v>
+        <v>679900</v>
       </c>
       <c r="G27" s="3">
-        <v>729500</v>
+        <v>702500</v>
       </c>
       <c r="H27" s="3">
-        <v>674000</v>
+        <v>649100</v>
       </c>
       <c r="I27" s="3">
-        <v>430900</v>
+        <v>414900</v>
       </c>
       <c r="J27" s="3">
-        <v>255600</v>
+        <v>246100</v>
       </c>
       <c r="K27" s="3">
         <v>286600</v>
@@ -1362,13 +1362,13 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>44100</v>
+        <v>42500</v>
       </c>
       <c r="H29" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="I29" s="3">
-        <v>17000</v>
+        <v>16300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>943700</v>
+        <v>908700</v>
       </c>
       <c r="E32" s="3">
-        <v>811900</v>
+        <v>781800</v>
       </c>
       <c r="F32" s="3">
-        <v>827200</v>
+        <v>796500</v>
       </c>
       <c r="G32" s="3">
-        <v>810300</v>
+        <v>780300</v>
       </c>
       <c r="H32" s="3">
-        <v>620100</v>
+        <v>597100</v>
       </c>
       <c r="I32" s="3">
-        <v>580900</v>
+        <v>559300</v>
       </c>
       <c r="J32" s="3">
-        <v>454200</v>
+        <v>437400</v>
       </c>
       <c r="K32" s="3">
         <v>405600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>841700</v>
+        <v>810500</v>
       </c>
       <c r="E33" s="3">
-        <v>717900</v>
+        <v>691300</v>
       </c>
       <c r="F33" s="3">
-        <v>706100</v>
+        <v>679900</v>
       </c>
       <c r="G33" s="3">
-        <v>773600</v>
+        <v>745000</v>
       </c>
       <c r="H33" s="3">
-        <v>680100</v>
+        <v>654900</v>
       </c>
       <c r="I33" s="3">
-        <v>447900</v>
+        <v>431300</v>
       </c>
       <c r="J33" s="3">
-        <v>255600</v>
+        <v>246100</v>
       </c>
       <c r="K33" s="3">
         <v>295400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>841700</v>
+        <v>810500</v>
       </c>
       <c r="E35" s="3">
-        <v>717900</v>
+        <v>691300</v>
       </c>
       <c r="F35" s="3">
-        <v>706100</v>
+        <v>679900</v>
       </c>
       <c r="G35" s="3">
-        <v>773600</v>
+        <v>745000</v>
       </c>
       <c r="H35" s="3">
-        <v>680100</v>
+        <v>654900</v>
       </c>
       <c r="I35" s="3">
-        <v>447900</v>
+        <v>431300</v>
       </c>
       <c r="J35" s="3">
-        <v>255600</v>
+        <v>246100</v>
       </c>
       <c r="K35" s="3">
         <v>295400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4929100</v>
+        <v>4746600</v>
       </c>
       <c r="E41" s="3">
-        <v>4274900</v>
+        <v>4116600</v>
       </c>
       <c r="F41" s="3">
-        <v>4191200</v>
+        <v>4036000</v>
       </c>
       <c r="G41" s="3">
-        <v>4378600</v>
+        <v>4216400</v>
       </c>
       <c r="H41" s="3">
-        <v>3859700</v>
+        <v>3716700</v>
       </c>
       <c r="I41" s="3">
-        <v>6044700</v>
+        <v>5820800</v>
       </c>
       <c r="J41" s="3">
-        <v>3085400</v>
+        <v>2971100</v>
       </c>
       <c r="K41" s="3">
         <v>2143200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3117700</v>
+        <v>3002200</v>
       </c>
       <c r="E42" s="3">
-        <v>2337700</v>
+        <v>2251100</v>
       </c>
       <c r="F42" s="3">
-        <v>2066200</v>
+        <v>1989700</v>
       </c>
       <c r="G42" s="3">
-        <v>2462200</v>
+        <v>2371000</v>
       </c>
       <c r="H42" s="3">
-        <v>2742500</v>
+        <v>2641000</v>
       </c>
       <c r="I42" s="3">
-        <v>4429100</v>
+        <v>4265100</v>
       </c>
       <c r="J42" s="3">
-        <v>2951300</v>
+        <v>2842000</v>
       </c>
       <c r="K42" s="3">
         <v>2353500</v>
@@ -1850,22 +1850,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>639300</v>
+        <v>615600</v>
       </c>
       <c r="E47" s="3">
-        <v>580400</v>
+        <v>558900</v>
       </c>
       <c r="F47" s="3">
-        <v>422600</v>
+        <v>406900</v>
       </c>
       <c r="G47" s="3">
-        <v>350500</v>
+        <v>337500</v>
       </c>
       <c r="H47" s="3">
-        <v>147600</v>
+        <v>142100</v>
       </c>
       <c r="I47" s="3">
-        <v>364400</v>
+        <v>350900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2028500</v>
+        <v>1953400</v>
       </c>
       <c r="E48" s="3">
-        <v>1377400</v>
+        <v>1326400</v>
       </c>
       <c r="F48" s="3">
-        <v>1291900</v>
+        <v>1244100</v>
       </c>
       <c r="G48" s="3">
-        <v>1268300</v>
+        <v>1221300</v>
       </c>
       <c r="H48" s="3">
-        <v>1281600</v>
+        <v>1234100</v>
       </c>
       <c r="I48" s="3">
-        <v>1673800</v>
+        <v>1611800</v>
       </c>
       <c r="J48" s="3">
-        <v>591800</v>
+        <v>569800</v>
       </c>
       <c r="K48" s="3">
         <v>905700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1953000</v>
+        <v>1880700</v>
       </c>
       <c r="E49" s="3">
-        <v>1944500</v>
+        <v>1872500</v>
       </c>
       <c r="F49" s="3">
-        <v>1790500</v>
+        <v>1724200</v>
       </c>
       <c r="G49" s="3">
-        <v>1807400</v>
+        <v>1740400</v>
       </c>
       <c r="H49" s="3">
-        <v>1914900</v>
+        <v>1844000</v>
       </c>
       <c r="I49" s="3">
-        <v>2310300</v>
+        <v>2224700</v>
       </c>
       <c r="J49" s="3">
-        <v>969100</v>
+        <v>933200</v>
       </c>
       <c r="K49" s="3">
         <v>171400</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>108300</v>
+        <v>104300</v>
       </c>
       <c r="E52" s="3">
-        <v>73200</v>
+        <v>70500</v>
       </c>
       <c r="F52" s="3">
-        <v>40100</v>
+        <v>38600</v>
       </c>
       <c r="G52" s="3">
-        <v>60200</v>
+        <v>57900</v>
       </c>
       <c r="H52" s="3">
-        <v>46000</v>
+        <v>44300</v>
       </c>
       <c r="I52" s="3">
-        <v>50700</v>
+        <v>48800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63743800</v>
+        <v>61382900</v>
       </c>
       <c r="E54" s="3">
-        <v>59430700</v>
+        <v>57229500</v>
       </c>
       <c r="F54" s="3">
-        <v>55055200</v>
+        <v>53016100</v>
       </c>
       <c r="G54" s="3">
-        <v>52990500</v>
+        <v>51027900</v>
       </c>
       <c r="H54" s="3">
-        <v>52102700</v>
+        <v>50172900</v>
       </c>
       <c r="I54" s="3">
-        <v>40400100</v>
+        <v>38903800</v>
       </c>
       <c r="J54" s="3">
-        <v>35320400</v>
+        <v>34012200</v>
       </c>
       <c r="K54" s="3">
         <v>29374900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>924300</v>
+        <v>890100</v>
       </c>
       <c r="E57" s="3">
-        <v>816700</v>
+        <v>786500</v>
       </c>
       <c r="F57" s="3">
-        <v>835200</v>
+        <v>804300</v>
       </c>
       <c r="G57" s="3">
-        <v>779600</v>
+        <v>750700</v>
       </c>
       <c r="H57" s="3">
-        <v>554000</v>
+        <v>533500</v>
       </c>
       <c r="I57" s="3">
-        <v>1281300</v>
+        <v>1233800</v>
       </c>
       <c r="J57" s="3">
-        <v>705000</v>
+        <v>678900</v>
       </c>
       <c r="K57" s="3">
         <v>850500</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3017500</v>
+        <v>2905700</v>
       </c>
       <c r="E58" s="3">
-        <v>4087800</v>
+        <v>3936400</v>
       </c>
       <c r="F58" s="3">
-        <v>3605700</v>
+        <v>3472100</v>
       </c>
       <c r="G58" s="3">
-        <v>3748900</v>
+        <v>3610100</v>
       </c>
       <c r="H58" s="3">
-        <v>3337700</v>
+        <v>3214100</v>
       </c>
       <c r="I58" s="3">
-        <v>3412800</v>
+        <v>3286400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>207200</v>
+        <v>199500</v>
       </c>
       <c r="E59" s="3">
-        <v>188800</v>
+        <v>181800</v>
       </c>
       <c r="F59" s="3">
-        <v>120200</v>
+        <v>115700</v>
       </c>
       <c r="G59" s="3">
-        <v>182200</v>
+        <v>175500</v>
       </c>
       <c r="H59" s="3">
-        <v>206400</v>
+        <v>198800</v>
       </c>
       <c r="I59" s="3">
-        <v>436400</v>
+        <v>420200</v>
       </c>
       <c r="J59" s="3">
-        <v>279100</v>
+        <v>268800</v>
       </c>
       <c r="K59" s="3">
         <v>103500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7137300</v>
+        <v>6873000</v>
       </c>
       <c r="E61" s="3">
-        <v>6583900</v>
+        <v>6340000</v>
       </c>
       <c r="F61" s="3">
-        <v>6462600</v>
+        <v>6223300</v>
       </c>
       <c r="G61" s="3">
-        <v>7082600</v>
+        <v>6820200</v>
       </c>
       <c r="H61" s="3">
-        <v>7724300</v>
+        <v>7438200</v>
       </c>
       <c r="I61" s="3">
-        <v>5488200</v>
+        <v>5284900</v>
       </c>
       <c r="J61" s="3">
-        <v>6705800</v>
+        <v>6457500</v>
       </c>
       <c r="K61" s="3">
         <v>3617800</v>
@@ -2309,22 +2309,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>670000</v>
+        <v>645200</v>
       </c>
       <c r="E62" s="3">
-        <v>567300</v>
+        <v>546300</v>
       </c>
       <c r="F62" s="3">
-        <v>599900</v>
+        <v>577700</v>
       </c>
       <c r="G62" s="3">
-        <v>562700</v>
+        <v>541800</v>
       </c>
       <c r="H62" s="3">
-        <v>392300</v>
+        <v>377800</v>
       </c>
       <c r="I62" s="3">
-        <v>285700</v>
+        <v>275100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56485100</v>
+        <v>54393100</v>
       </c>
       <c r="E66" s="3">
-        <v>52721500</v>
+        <v>50768800</v>
       </c>
       <c r="F66" s="3">
-        <v>48814700</v>
+        <v>47006800</v>
       </c>
       <c r="G66" s="3">
-        <v>47248200</v>
+        <v>45498300</v>
       </c>
       <c r="H66" s="3">
-        <v>46897200</v>
+        <v>45160300</v>
       </c>
       <c r="I66" s="3">
-        <v>35844700</v>
+        <v>34517100</v>
       </c>
       <c r="J66" s="3">
-        <v>31947300</v>
+        <v>30764100</v>
       </c>
       <c r="K66" s="3">
         <v>25892800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4922800</v>
+        <v>4740400</v>
       </c>
       <c r="E72" s="3">
-        <v>4402700</v>
+        <v>4239700</v>
       </c>
       <c r="F72" s="3">
-        <v>4110800</v>
+        <v>3958600</v>
       </c>
       <c r="G72" s="3">
-        <v>3742600</v>
+        <v>3604000</v>
       </c>
       <c r="H72" s="3">
-        <v>3169300</v>
+        <v>3051900</v>
       </c>
       <c r="I72" s="3">
-        <v>7065100</v>
+        <v>6803400</v>
       </c>
       <c r="J72" s="3">
-        <v>3027200</v>
+        <v>2915100</v>
       </c>
       <c r="K72" s="3">
         <v>2283500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7258700</v>
+        <v>6989800</v>
       </c>
       <c r="E76" s="3">
-        <v>6709200</v>
+        <v>6460700</v>
       </c>
       <c r="F76" s="3">
-        <v>6240500</v>
+        <v>6009400</v>
       </c>
       <c r="G76" s="3">
-        <v>5742200</v>
+        <v>5529600</v>
       </c>
       <c r="H76" s="3">
-        <v>5205500</v>
+        <v>5012700</v>
       </c>
       <c r="I76" s="3">
-        <v>4555400</v>
+        <v>4386700</v>
       </c>
       <c r="J76" s="3">
-        <v>3373100</v>
+        <v>3248100</v>
       </c>
       <c r="K76" s="3">
         <v>3427100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>841700</v>
+        <v>810500</v>
       </c>
       <c r="E81" s="3">
-        <v>717900</v>
+        <v>691300</v>
       </c>
       <c r="F81" s="3">
-        <v>706100</v>
+        <v>679900</v>
       </c>
       <c r="G81" s="3">
-        <v>773600</v>
+        <v>745000</v>
       </c>
       <c r="H81" s="3">
-        <v>680100</v>
+        <v>654900</v>
       </c>
       <c r="I81" s="3">
-        <v>447900</v>
+        <v>431300</v>
       </c>
       <c r="J81" s="3">
-        <v>255600</v>
+        <v>246100</v>
       </c>
       <c r="K81" s="3">
         <v>295400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>182900</v>
+        <v>176100</v>
       </c>
       <c r="E83" s="3">
-        <v>126300</v>
+        <v>121600</v>
       </c>
       <c r="F83" s="3">
-        <v>116900</v>
+        <v>112600</v>
       </c>
       <c r="G83" s="3">
-        <v>130400</v>
+        <v>125600</v>
       </c>
       <c r="H83" s="3">
-        <v>130000</v>
+        <v>125200</v>
       </c>
       <c r="I83" s="3">
-        <v>117500</v>
+        <v>113200</v>
       </c>
       <c r="J83" s="3">
-        <v>208400</v>
+        <v>200700</v>
       </c>
       <c r="K83" s="3">
         <v>162200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3325200</v>
+        <v>3202100</v>
       </c>
       <c r="E89" s="3">
-        <v>281600</v>
+        <v>271100</v>
       </c>
       <c r="F89" s="3">
-        <v>793700</v>
+        <v>764300</v>
       </c>
       <c r="G89" s="3">
-        <v>972400</v>
+        <v>936400</v>
       </c>
       <c r="H89" s="3">
-        <v>501300</v>
+        <v>482700</v>
       </c>
       <c r="I89" s="3">
-        <v>-1800200</v>
+        <v>-1733500</v>
       </c>
       <c r="J89" s="3">
-        <v>1421800</v>
+        <v>1369200</v>
       </c>
       <c r="K89" s="3">
         <v>541900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-420000</v>
+        <v>-404400</v>
       </c>
       <c r="E91" s="3">
-        <v>-273800</v>
+        <v>-263700</v>
       </c>
       <c r="F91" s="3">
-        <v>-305600</v>
+        <v>-294300</v>
       </c>
       <c r="G91" s="3">
-        <v>-292300</v>
+        <v>-281500</v>
       </c>
       <c r="H91" s="3">
-        <v>-259700</v>
+        <v>-250100</v>
       </c>
       <c r="I91" s="3">
-        <v>-717900</v>
+        <v>-691300</v>
       </c>
       <c r="J91" s="3">
-        <v>-497200</v>
+        <v>-478700</v>
       </c>
       <c r="K91" s="3">
         <v>-339700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-591500</v>
+        <v>-569600</v>
       </c>
       <c r="E94" s="3">
-        <v>-373100</v>
+        <v>-359300</v>
       </c>
       <c r="F94" s="3">
-        <v>-515200</v>
+        <v>-496100</v>
       </c>
       <c r="G94" s="3">
-        <v>-277500</v>
+        <v>-267200</v>
       </c>
       <c r="H94" s="3">
-        <v>38300</v>
+        <v>36900</v>
       </c>
       <c r="I94" s="3">
-        <v>252200</v>
+        <v>242900</v>
       </c>
       <c r="J94" s="3">
-        <v>-898400</v>
+        <v>-865100</v>
       </c>
       <c r="K94" s="3">
         <v>-178300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-278800</v>
+        <v>-268400</v>
       </c>
       <c r="E96" s="3">
-        <v>-198700</v>
+        <v>-191300</v>
       </c>
       <c r="F96" s="3">
-        <v>-304100</v>
+        <v>-292800</v>
       </c>
       <c r="G96" s="3">
-        <v>-226900</v>
+        <v>-218500</v>
       </c>
       <c r="H96" s="3">
-        <v>-212000</v>
+        <v>-204200</v>
       </c>
       <c r="I96" s="3">
-        <v>-192700</v>
+        <v>-185600</v>
       </c>
       <c r="J96" s="3">
-        <v>-170600</v>
+        <v>-164300</v>
       </c>
       <c r="K96" s="3">
         <v>-175000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1420400</v>
+        <v>-1367800</v>
       </c>
       <c r="E100" s="3">
-        <v>-197800</v>
+        <v>-190500</v>
       </c>
       <c r="F100" s="3">
-        <v>-977600</v>
+        <v>-941400</v>
       </c>
       <c r="G100" s="3">
-        <v>-92800</v>
+        <v>-89400</v>
       </c>
       <c r="H100" s="3">
-        <v>-62500</v>
+        <v>-60200</v>
       </c>
       <c r="I100" s="3">
-        <v>440100</v>
+        <v>423800</v>
       </c>
       <c r="J100" s="3">
-        <v>1337800</v>
+        <v>1288300</v>
       </c>
       <c r="K100" s="3">
         <v>-150800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>38600</v>
+        <v>37200</v>
       </c>
       <c r="E101" s="3">
-        <v>442000</v>
+        <v>425600</v>
       </c>
       <c r="F101" s="3">
-        <v>79600</v>
+        <v>76600</v>
       </c>
       <c r="G101" s="3">
-        <v>-155300</v>
+        <v>-149600</v>
       </c>
       <c r="H101" s="3">
-        <v>964300</v>
+        <v>928600</v>
       </c>
       <c r="I101" s="3">
-        <v>573500</v>
+        <v>552200</v>
       </c>
       <c r="J101" s="3">
-        <v>93400</v>
+        <v>89900</v>
       </c>
       <c r="K101" s="3">
         <v>-80800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1352000</v>
+        <v>1301900</v>
       </c>
       <c r="E102" s="3">
-        <v>152600</v>
+        <v>146900</v>
       </c>
       <c r="F102" s="3">
-        <v>-619500</v>
+        <v>-596600</v>
       </c>
       <c r="G102" s="3">
-        <v>446800</v>
+        <v>430200</v>
       </c>
       <c r="H102" s="3">
-        <v>1441500</v>
+        <v>1388100</v>
       </c>
       <c r="I102" s="3">
-        <v>-534400</v>
+        <v>-514600</v>
       </c>
       <c r="J102" s="3">
-        <v>1954700</v>
+        <v>1882300</v>
       </c>
       <c r="K102" s="3">
         <v>132000</v>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4566500</v>
+        <v>4917800</v>
       </c>
       <c r="E8" s="3">
-        <v>4196200</v>
+        <v>4518900</v>
       </c>
       <c r="F8" s="3">
-        <v>4357100</v>
+        <v>4692300</v>
       </c>
       <c r="G8" s="3">
-        <v>4095900</v>
+        <v>4411000</v>
       </c>
       <c r="H8" s="3">
-        <v>2921800</v>
+        <v>3146600</v>
       </c>
       <c r="I8" s="3">
-        <v>2408700</v>
+        <v>2594000</v>
       </c>
       <c r="J8" s="3">
-        <v>2114000</v>
+        <v>2276600</v>
       </c>
       <c r="K8" s="3">
         <v>2298600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-176100</v>
+        <v>-189600</v>
       </c>
       <c r="E15" s="3">
+        <v>-130500</v>
+      </c>
+      <c r="F15" s="3">
         <v>-121200</v>
       </c>
-      <c r="F15" s="3">
-        <v>-112600</v>
-      </c>
       <c r="G15" s="3">
-        <v>-124500</v>
+        <v>-134100</v>
       </c>
       <c r="H15" s="3">
-        <v>-119900</v>
+        <v>-129100</v>
       </c>
       <c r="I15" s="3">
-        <v>-355400</v>
+        <v>-382700</v>
       </c>
       <c r="J15" s="3">
-        <v>-132000</v>
+        <v>-142200</v>
       </c>
       <c r="K15" s="3">
         <v>-109600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2493600</v>
+        <v>2685500</v>
       </c>
       <c r="E17" s="3">
-        <v>2474200</v>
+        <v>2664500</v>
       </c>
       <c r="F17" s="3">
-        <v>2522400</v>
+        <v>2716500</v>
       </c>
       <c r="G17" s="3">
-        <v>2283900</v>
+        <v>2459600</v>
       </c>
       <c r="H17" s="3">
-        <v>1483500</v>
+        <v>1597600</v>
       </c>
       <c r="I17" s="3">
-        <v>1042100</v>
+        <v>1122300</v>
       </c>
       <c r="J17" s="3">
-        <v>1174200</v>
+        <v>1264500</v>
       </c>
       <c r="K17" s="3">
         <v>1240600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2072900</v>
+        <v>2232300</v>
       </c>
       <c r="E18" s="3">
-        <v>1722000</v>
+        <v>1854400</v>
       </c>
       <c r="F18" s="3">
-        <v>1834700</v>
+        <v>1975800</v>
       </c>
       <c r="G18" s="3">
-        <v>1812000</v>
+        <v>1951400</v>
       </c>
       <c r="H18" s="3">
-        <v>1438400</v>
+        <v>1549000</v>
       </c>
       <c r="I18" s="3">
-        <v>1366500</v>
+        <v>1471700</v>
       </c>
       <c r="J18" s="3">
-        <v>939800</v>
+        <v>1012100</v>
       </c>
       <c r="K18" s="3">
         <v>1058000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-908700</v>
+        <v>-978600</v>
       </c>
       <c r="E20" s="3">
-        <v>-781800</v>
+        <v>-842000</v>
       </c>
       <c r="F20" s="3">
-        <v>-796500</v>
+        <v>-857800</v>
       </c>
       <c r="G20" s="3">
-        <v>-780300</v>
+        <v>-840300</v>
       </c>
       <c r="H20" s="3">
-        <v>-597100</v>
+        <v>-643000</v>
       </c>
       <c r="I20" s="3">
-        <v>-559300</v>
+        <v>-602400</v>
       </c>
       <c r="J20" s="3">
-        <v>-437400</v>
+        <v>-471000</v>
       </c>
       <c r="K20" s="3">
         <v>-405600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1340200</v>
+        <v>1443300</v>
       </c>
       <c r="E21" s="3">
-        <v>1061700</v>
+        <v>1143400</v>
       </c>
       <c r="F21" s="3">
-        <v>1150700</v>
+        <v>1239200</v>
       </c>
       <c r="G21" s="3">
-        <v>1157300</v>
+        <v>1246300</v>
       </c>
       <c r="H21" s="3">
-        <v>966500</v>
+        <v>1040800</v>
       </c>
       <c r="I21" s="3">
-        <v>920400</v>
+        <v>991100</v>
       </c>
       <c r="J21" s="3">
-        <v>703100</v>
+        <v>757200</v>
       </c>
       <c r="K21" s="3">
         <v>814700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1164200</v>
+        <v>1253700</v>
       </c>
       <c r="E23" s="3">
-        <v>940100</v>
+        <v>1012400</v>
       </c>
       <c r="F23" s="3">
-        <v>1038100</v>
+        <v>1118000</v>
       </c>
       <c r="G23" s="3">
-        <v>1031800</v>
+        <v>1111100</v>
       </c>
       <c r="H23" s="3">
-        <v>841300</v>
+        <v>906000</v>
       </c>
       <c r="I23" s="3">
-        <v>807200</v>
+        <v>869300</v>
       </c>
       <c r="J23" s="3">
-        <v>502400</v>
+        <v>541000</v>
       </c>
       <c r="K23" s="3">
         <v>652500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>328400</v>
+        <v>353600</v>
       </c>
       <c r="E24" s="3">
-        <v>215700</v>
+        <v>232200</v>
       </c>
       <c r="F24" s="3">
-        <v>322000</v>
+        <v>346800</v>
       </c>
       <c r="G24" s="3">
-        <v>306000</v>
+        <v>329500</v>
       </c>
       <c r="H24" s="3">
-        <v>168800</v>
+        <v>181800</v>
       </c>
       <c r="I24" s="3">
-        <v>191800</v>
+        <v>206500</v>
       </c>
       <c r="J24" s="3">
-        <v>108400</v>
+        <v>116800</v>
       </c>
       <c r="K24" s="3">
         <v>140100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>835800</v>
+        <v>900100</v>
       </c>
       <c r="E26" s="3">
-        <v>724500</v>
+        <v>780200</v>
       </c>
       <c r="F26" s="3">
-        <v>716100</v>
+        <v>771200</v>
       </c>
       <c r="G26" s="3">
-        <v>725800</v>
+        <v>781600</v>
       </c>
       <c r="H26" s="3">
-        <v>672500</v>
+        <v>724200</v>
       </c>
       <c r="I26" s="3">
-        <v>615400</v>
+        <v>662700</v>
       </c>
       <c r="J26" s="3">
-        <v>393900</v>
+        <v>424200</v>
       </c>
       <c r="K26" s="3">
         <v>512300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>810500</v>
+        <v>872900</v>
       </c>
       <c r="E27" s="3">
-        <v>691300</v>
+        <v>744500</v>
       </c>
       <c r="F27" s="3">
-        <v>679900</v>
+        <v>732200</v>
       </c>
       <c r="G27" s="3">
-        <v>702500</v>
+        <v>756500</v>
       </c>
       <c r="H27" s="3">
-        <v>649100</v>
+        <v>699000</v>
       </c>
       <c r="I27" s="3">
-        <v>414900</v>
+        <v>446800</v>
       </c>
       <c r="J27" s="3">
-        <v>246100</v>
+        <v>265000</v>
       </c>
       <c r="K27" s="3">
         <v>286600</v>
@@ -1362,13 +1362,13 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>42500</v>
+        <v>45800</v>
       </c>
       <c r="H29" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="I29" s="3">
-        <v>16300</v>
+        <v>17600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>908700</v>
+        <v>978600</v>
       </c>
       <c r="E32" s="3">
-        <v>781800</v>
+        <v>842000</v>
       </c>
       <c r="F32" s="3">
-        <v>796500</v>
+        <v>857800</v>
       </c>
       <c r="G32" s="3">
-        <v>780300</v>
+        <v>840300</v>
       </c>
       <c r="H32" s="3">
-        <v>597100</v>
+        <v>643000</v>
       </c>
       <c r="I32" s="3">
-        <v>559300</v>
+        <v>602400</v>
       </c>
       <c r="J32" s="3">
-        <v>437400</v>
+        <v>471000</v>
       </c>
       <c r="K32" s="3">
         <v>405600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>810500</v>
+        <v>872900</v>
       </c>
       <c r="E33" s="3">
-        <v>691300</v>
+        <v>744500</v>
       </c>
       <c r="F33" s="3">
-        <v>679900</v>
+        <v>732200</v>
       </c>
       <c r="G33" s="3">
-        <v>745000</v>
+        <v>802300</v>
       </c>
       <c r="H33" s="3">
-        <v>654900</v>
+        <v>705300</v>
       </c>
       <c r="I33" s="3">
-        <v>431300</v>
+        <v>464400</v>
       </c>
       <c r="J33" s="3">
-        <v>246100</v>
+        <v>265000</v>
       </c>
       <c r="K33" s="3">
         <v>295400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>810500</v>
+        <v>872900</v>
       </c>
       <c r="E35" s="3">
-        <v>691300</v>
+        <v>744500</v>
       </c>
       <c r="F35" s="3">
-        <v>679900</v>
+        <v>732200</v>
       </c>
       <c r="G35" s="3">
-        <v>745000</v>
+        <v>802300</v>
       </c>
       <c r="H35" s="3">
-        <v>654900</v>
+        <v>705300</v>
       </c>
       <c r="I35" s="3">
-        <v>431300</v>
+        <v>464400</v>
       </c>
       <c r="J35" s="3">
-        <v>246100</v>
+        <v>265000</v>
       </c>
       <c r="K35" s="3">
         <v>295400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4746600</v>
+        <v>5111700</v>
       </c>
       <c r="E41" s="3">
-        <v>4116600</v>
+        <v>4433200</v>
       </c>
       <c r="F41" s="3">
-        <v>4036000</v>
+        <v>4346500</v>
       </c>
       <c r="G41" s="3">
-        <v>4216400</v>
+        <v>4540700</v>
       </c>
       <c r="H41" s="3">
-        <v>3716700</v>
+        <v>4002600</v>
       </c>
       <c r="I41" s="3">
-        <v>5820800</v>
+        <v>6268600</v>
       </c>
       <c r="J41" s="3">
-        <v>2971100</v>
+        <v>3199700</v>
       </c>
       <c r="K41" s="3">
         <v>2143200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3002200</v>
+        <v>3233200</v>
       </c>
       <c r="E42" s="3">
-        <v>2251100</v>
+        <v>2424300</v>
       </c>
       <c r="F42" s="3">
-        <v>1989700</v>
+        <v>2142700</v>
       </c>
       <c r="G42" s="3">
-        <v>2371000</v>
+        <v>2553400</v>
       </c>
       <c r="H42" s="3">
-        <v>2641000</v>
+        <v>2844100</v>
       </c>
       <c r="I42" s="3">
-        <v>4265100</v>
+        <v>4593100</v>
       </c>
       <c r="J42" s="3">
-        <v>2842000</v>
+        <v>3060600</v>
       </c>
       <c r="K42" s="3">
         <v>2353500</v>
@@ -1850,22 +1850,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>615600</v>
+        <v>663000</v>
       </c>
       <c r="E47" s="3">
-        <v>558900</v>
+        <v>601900</v>
       </c>
       <c r="F47" s="3">
-        <v>406900</v>
+        <v>438200</v>
       </c>
       <c r="G47" s="3">
-        <v>337500</v>
+        <v>363500</v>
       </c>
       <c r="H47" s="3">
-        <v>142100</v>
+        <v>153000</v>
       </c>
       <c r="I47" s="3">
-        <v>350900</v>
+        <v>377900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1953400</v>
+        <v>2103600</v>
       </c>
       <c r="E48" s="3">
-        <v>1326400</v>
+        <v>1428400</v>
       </c>
       <c r="F48" s="3">
-        <v>1244100</v>
+        <v>1339700</v>
       </c>
       <c r="G48" s="3">
-        <v>1221300</v>
+        <v>1315300</v>
       </c>
       <c r="H48" s="3">
-        <v>1234100</v>
+        <v>1329100</v>
       </c>
       <c r="I48" s="3">
-        <v>1611800</v>
+        <v>1735800</v>
       </c>
       <c r="J48" s="3">
-        <v>569800</v>
+        <v>613700</v>
       </c>
       <c r="K48" s="3">
         <v>905700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1880700</v>
+        <v>2025300</v>
       </c>
       <c r="E49" s="3">
-        <v>1872500</v>
+        <v>2016500</v>
       </c>
       <c r="F49" s="3">
-        <v>1724200</v>
+        <v>1856800</v>
       </c>
       <c r="G49" s="3">
-        <v>1740400</v>
+        <v>1874300</v>
       </c>
       <c r="H49" s="3">
-        <v>1844000</v>
+        <v>1985800</v>
       </c>
       <c r="I49" s="3">
-        <v>2224700</v>
+        <v>2395800</v>
       </c>
       <c r="J49" s="3">
-        <v>933200</v>
+        <v>1005000</v>
       </c>
       <c r="K49" s="3">
         <v>171400</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>104300</v>
+        <v>112300</v>
       </c>
       <c r="E52" s="3">
-        <v>70500</v>
+        <v>75900</v>
       </c>
       <c r="F52" s="3">
-        <v>38600</v>
+        <v>41600</v>
       </c>
       <c r="G52" s="3">
-        <v>57900</v>
+        <v>62400</v>
       </c>
       <c r="H52" s="3">
-        <v>44300</v>
+        <v>47700</v>
       </c>
       <c r="I52" s="3">
-        <v>48800</v>
+        <v>52600</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61382900</v>
+        <v>66104700</v>
       </c>
       <c r="E54" s="3">
-        <v>57229500</v>
+        <v>61631800</v>
       </c>
       <c r="F54" s="3">
-        <v>53016100</v>
+        <v>57094300</v>
       </c>
       <c r="G54" s="3">
-        <v>51027900</v>
+        <v>54953100</v>
       </c>
       <c r="H54" s="3">
-        <v>50172900</v>
+        <v>54032400</v>
       </c>
       <c r="I54" s="3">
-        <v>38903800</v>
+        <v>41896400</v>
       </c>
       <c r="J54" s="3">
-        <v>34012200</v>
+        <v>36628500</v>
       </c>
       <c r="K54" s="3">
         <v>29374900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>890100</v>
+        <v>958500</v>
       </c>
       <c r="E57" s="3">
-        <v>786500</v>
+        <v>846900</v>
       </c>
       <c r="F57" s="3">
-        <v>804300</v>
+        <v>866100</v>
       </c>
       <c r="G57" s="3">
-        <v>750700</v>
+        <v>808500</v>
       </c>
       <c r="H57" s="3">
-        <v>533500</v>
+        <v>574500</v>
       </c>
       <c r="I57" s="3">
-        <v>1233800</v>
+        <v>1328700</v>
       </c>
       <c r="J57" s="3">
-        <v>678900</v>
+        <v>731100</v>
       </c>
       <c r="K57" s="3">
         <v>850500</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2905700</v>
+        <v>3129200</v>
       </c>
       <c r="E58" s="3">
-        <v>3936400</v>
+        <v>4239200</v>
       </c>
       <c r="F58" s="3">
-        <v>3472100</v>
+        <v>3739200</v>
       </c>
       <c r="G58" s="3">
-        <v>3610100</v>
+        <v>3887800</v>
       </c>
       <c r="H58" s="3">
-        <v>3214100</v>
+        <v>3461300</v>
       </c>
       <c r="I58" s="3">
-        <v>3286400</v>
+        <v>3539200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>199500</v>
+        <v>214900</v>
       </c>
       <c r="E59" s="3">
-        <v>181800</v>
+        <v>195800</v>
       </c>
       <c r="F59" s="3">
-        <v>115700</v>
+        <v>124600</v>
       </c>
       <c r="G59" s="3">
-        <v>175500</v>
+        <v>188900</v>
       </c>
       <c r="H59" s="3">
-        <v>198800</v>
+        <v>214100</v>
       </c>
       <c r="I59" s="3">
-        <v>420200</v>
+        <v>452500</v>
       </c>
       <c r="J59" s="3">
-        <v>268800</v>
+        <v>289500</v>
       </c>
       <c r="K59" s="3">
         <v>103500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6873000</v>
+        <v>7401700</v>
       </c>
       <c r="E61" s="3">
-        <v>6340000</v>
+        <v>6827700</v>
       </c>
       <c r="F61" s="3">
-        <v>6223300</v>
+        <v>6702000</v>
       </c>
       <c r="G61" s="3">
-        <v>6820200</v>
+        <v>7344900</v>
       </c>
       <c r="H61" s="3">
-        <v>7438200</v>
+        <v>8010400</v>
       </c>
       <c r="I61" s="3">
-        <v>5284900</v>
+        <v>5691500</v>
       </c>
       <c r="J61" s="3">
-        <v>6457500</v>
+        <v>6954200</v>
       </c>
       <c r="K61" s="3">
         <v>3617800</v>
@@ -2309,22 +2309,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>645200</v>
+        <v>694800</v>
       </c>
       <c r="E62" s="3">
-        <v>546300</v>
+        <v>588300</v>
       </c>
       <c r="F62" s="3">
-        <v>577700</v>
+        <v>622100</v>
       </c>
       <c r="G62" s="3">
-        <v>541800</v>
+        <v>583500</v>
       </c>
       <c r="H62" s="3">
-        <v>377800</v>
+        <v>406800</v>
       </c>
       <c r="I62" s="3">
-        <v>275100</v>
+        <v>296300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54393100</v>
+        <v>58577200</v>
       </c>
       <c r="E66" s="3">
-        <v>50768800</v>
+        <v>54674100</v>
       </c>
       <c r="F66" s="3">
-        <v>47006800</v>
+        <v>50622700</v>
       </c>
       <c r="G66" s="3">
-        <v>45498300</v>
+        <v>48998200</v>
       </c>
       <c r="H66" s="3">
-        <v>45160300</v>
+        <v>48634200</v>
       </c>
       <c r="I66" s="3">
-        <v>34517100</v>
+        <v>37172200</v>
       </c>
       <c r="J66" s="3">
-        <v>30764100</v>
+        <v>33130600</v>
       </c>
       <c r="K66" s="3">
         <v>25892800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4740400</v>
+        <v>5105100</v>
       </c>
       <c r="E72" s="3">
-        <v>4239700</v>
+        <v>4565800</v>
       </c>
       <c r="F72" s="3">
-        <v>3958600</v>
+        <v>4263100</v>
       </c>
       <c r="G72" s="3">
-        <v>3604000</v>
+        <v>3881200</v>
       </c>
       <c r="H72" s="3">
-        <v>3051900</v>
+        <v>3286700</v>
       </c>
       <c r="I72" s="3">
-        <v>6803400</v>
+        <v>7326800</v>
       </c>
       <c r="J72" s="3">
-        <v>2915100</v>
+        <v>3139300</v>
       </c>
       <c r="K72" s="3">
         <v>2283500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6989800</v>
+        <v>7527500</v>
       </c>
       <c r="E76" s="3">
-        <v>6460700</v>
+        <v>6957700</v>
       </c>
       <c r="F76" s="3">
-        <v>6009400</v>
+        <v>6471600</v>
       </c>
       <c r="G76" s="3">
-        <v>5529600</v>
+        <v>5954900</v>
       </c>
       <c r="H76" s="3">
-        <v>5012700</v>
+        <v>5398200</v>
       </c>
       <c r="I76" s="3">
-        <v>4386700</v>
+        <v>4724100</v>
       </c>
       <c r="J76" s="3">
-        <v>3248100</v>
+        <v>3498000</v>
       </c>
       <c r="K76" s="3">
         <v>3427100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>810500</v>
+        <v>872900</v>
       </c>
       <c r="E81" s="3">
-        <v>691300</v>
+        <v>744500</v>
       </c>
       <c r="F81" s="3">
-        <v>679900</v>
+        <v>732200</v>
       </c>
       <c r="G81" s="3">
-        <v>745000</v>
+        <v>802300</v>
       </c>
       <c r="H81" s="3">
-        <v>654900</v>
+        <v>705300</v>
       </c>
       <c r="I81" s="3">
-        <v>431300</v>
+        <v>464400</v>
       </c>
       <c r="J81" s="3">
-        <v>246100</v>
+        <v>265000</v>
       </c>
       <c r="K81" s="3">
         <v>295400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>176100</v>
+        <v>189600</v>
       </c>
       <c r="E83" s="3">
-        <v>121600</v>
+        <v>131000</v>
       </c>
       <c r="F83" s="3">
-        <v>112600</v>
+        <v>121200</v>
       </c>
       <c r="G83" s="3">
-        <v>125600</v>
+        <v>135200</v>
       </c>
       <c r="H83" s="3">
-        <v>125200</v>
+        <v>134800</v>
       </c>
       <c r="I83" s="3">
-        <v>113200</v>
+        <v>121900</v>
       </c>
       <c r="J83" s="3">
-        <v>200700</v>
+        <v>216200</v>
       </c>
       <c r="K83" s="3">
         <v>162200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3202100</v>
+        <v>3448400</v>
       </c>
       <c r="E89" s="3">
-        <v>271100</v>
+        <v>292000</v>
       </c>
       <c r="F89" s="3">
-        <v>764300</v>
+        <v>823100</v>
       </c>
       <c r="G89" s="3">
-        <v>936400</v>
+        <v>1008400</v>
       </c>
       <c r="H89" s="3">
-        <v>482700</v>
+        <v>519900</v>
       </c>
       <c r="I89" s="3">
-        <v>-1733500</v>
+        <v>-1866900</v>
       </c>
       <c r="J89" s="3">
-        <v>1369200</v>
+        <v>1474500</v>
       </c>
       <c r="K89" s="3">
         <v>541900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-404400</v>
+        <v>-435500</v>
       </c>
       <c r="E91" s="3">
-        <v>-263700</v>
+        <v>-283900</v>
       </c>
       <c r="F91" s="3">
-        <v>-294300</v>
+        <v>-317000</v>
       </c>
       <c r="G91" s="3">
-        <v>-281500</v>
+        <v>-303100</v>
       </c>
       <c r="H91" s="3">
-        <v>-250100</v>
+        <v>-269300</v>
       </c>
       <c r="I91" s="3">
-        <v>-691300</v>
+        <v>-744500</v>
       </c>
       <c r="J91" s="3">
-        <v>-478700</v>
+        <v>-515600</v>
       </c>
       <c r="K91" s="3">
         <v>-339700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-569600</v>
+        <v>-613400</v>
       </c>
       <c r="E94" s="3">
-        <v>-359300</v>
+        <v>-386900</v>
       </c>
       <c r="F94" s="3">
-        <v>-496100</v>
+        <v>-534300</v>
       </c>
       <c r="G94" s="3">
-        <v>-267200</v>
+        <v>-287700</v>
       </c>
       <c r="H94" s="3">
-        <v>36900</v>
+        <v>39800</v>
       </c>
       <c r="I94" s="3">
-        <v>242900</v>
+        <v>261600</v>
       </c>
       <c r="J94" s="3">
-        <v>-865100</v>
+        <v>-931700</v>
       </c>
       <c r="K94" s="3">
         <v>-178300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-268400</v>
+        <v>-289100</v>
       </c>
       <c r="E96" s="3">
-        <v>-191300</v>
+        <v>-206000</v>
       </c>
       <c r="F96" s="3">
-        <v>-292800</v>
+        <v>-315300</v>
       </c>
       <c r="G96" s="3">
-        <v>-218500</v>
+        <v>-235300</v>
       </c>
       <c r="H96" s="3">
-        <v>-204200</v>
+        <v>-219900</v>
       </c>
       <c r="I96" s="3">
-        <v>-185600</v>
+        <v>-199800</v>
       </c>
       <c r="J96" s="3">
-        <v>-164300</v>
+        <v>-177000</v>
       </c>
       <c r="K96" s="3">
         <v>-175000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1367800</v>
+        <v>-1473000</v>
       </c>
       <c r="E100" s="3">
-        <v>-190500</v>
+        <v>-205200</v>
       </c>
       <c r="F100" s="3">
-        <v>-941400</v>
+        <v>-1013900</v>
       </c>
       <c r="G100" s="3">
-        <v>-89400</v>
+        <v>-96300</v>
       </c>
       <c r="H100" s="3">
-        <v>-60200</v>
+        <v>-64800</v>
       </c>
       <c r="I100" s="3">
-        <v>423800</v>
+        <v>456400</v>
       </c>
       <c r="J100" s="3">
-        <v>1288300</v>
+        <v>1387400</v>
       </c>
       <c r="K100" s="3">
         <v>-150800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37200</v>
+        <v>40100</v>
       </c>
       <c r="E101" s="3">
-        <v>425600</v>
+        <v>458300</v>
       </c>
       <c r="F101" s="3">
-        <v>76600</v>
+        <v>82500</v>
       </c>
       <c r="G101" s="3">
-        <v>-149600</v>
+        <v>-161100</v>
       </c>
       <c r="H101" s="3">
-        <v>928600</v>
+        <v>1000000</v>
       </c>
       <c r="I101" s="3">
-        <v>552200</v>
+        <v>594700</v>
       </c>
       <c r="J101" s="3">
-        <v>89900</v>
+        <v>96800</v>
       </c>
       <c r="K101" s="3">
         <v>-80800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1301900</v>
+        <v>1402000</v>
       </c>
       <c r="E102" s="3">
-        <v>146900</v>
+        <v>158200</v>
       </c>
       <c r="F102" s="3">
-        <v>-596600</v>
+        <v>-642500</v>
       </c>
       <c r="G102" s="3">
-        <v>430200</v>
+        <v>463300</v>
       </c>
       <c r="H102" s="3">
-        <v>1388100</v>
+        <v>1494900</v>
       </c>
       <c r="I102" s="3">
-        <v>-514600</v>
+        <v>-554200</v>
       </c>
       <c r="J102" s="3">
-        <v>1882300</v>
+        <v>2027100</v>
       </c>
       <c r="K102" s="3">
         <v>132000</v>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4917800</v>
+        <v>4742100</v>
       </c>
       <c r="E8" s="3">
-        <v>4518900</v>
+        <v>4357600</v>
       </c>
       <c r="F8" s="3">
-        <v>4692300</v>
+        <v>4524700</v>
       </c>
       <c r="G8" s="3">
-        <v>4411000</v>
+        <v>4253500</v>
       </c>
       <c r="H8" s="3">
-        <v>3146600</v>
+        <v>3034200</v>
       </c>
       <c r="I8" s="3">
-        <v>2594000</v>
+        <v>2501300</v>
       </c>
       <c r="J8" s="3">
-        <v>2276600</v>
+        <v>2195300</v>
       </c>
       <c r="K8" s="3">
         <v>2298600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-189600</v>
+        <v>-182900</v>
       </c>
       <c r="E15" s="3">
-        <v>-130500</v>
+        <v>-125900</v>
       </c>
       <c r="F15" s="3">
-        <v>-121200</v>
+        <v>-116900</v>
       </c>
       <c r="G15" s="3">
-        <v>-134100</v>
+        <v>-129300</v>
       </c>
       <c r="H15" s="3">
-        <v>-129100</v>
+        <v>-124500</v>
       </c>
       <c r="I15" s="3">
-        <v>-382700</v>
+        <v>-369100</v>
       </c>
       <c r="J15" s="3">
-        <v>-142200</v>
+        <v>-137100</v>
       </c>
       <c r="K15" s="3">
         <v>-109600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2685500</v>
+        <v>2589500</v>
       </c>
       <c r="E17" s="3">
-        <v>2664500</v>
+        <v>2569400</v>
       </c>
       <c r="F17" s="3">
-        <v>2716500</v>
+        <v>2619500</v>
       </c>
       <c r="G17" s="3">
-        <v>2459600</v>
+        <v>2371700</v>
       </c>
       <c r="H17" s="3">
-        <v>1597600</v>
+        <v>1540500</v>
       </c>
       <c r="I17" s="3">
-        <v>1122300</v>
+        <v>1082200</v>
       </c>
       <c r="J17" s="3">
-        <v>1264500</v>
+        <v>1219400</v>
       </c>
       <c r="K17" s="3">
         <v>1240600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2232300</v>
+        <v>2152600</v>
       </c>
       <c r="E18" s="3">
-        <v>1854400</v>
+        <v>1788200</v>
       </c>
       <c r="F18" s="3">
-        <v>1975800</v>
+        <v>1905200</v>
       </c>
       <c r="G18" s="3">
-        <v>1951400</v>
+        <v>1881700</v>
       </c>
       <c r="H18" s="3">
-        <v>1549000</v>
+        <v>1493700</v>
       </c>
       <c r="I18" s="3">
-        <v>1471700</v>
+        <v>1419100</v>
       </c>
       <c r="J18" s="3">
-        <v>1012100</v>
+        <v>975900</v>
       </c>
       <c r="K18" s="3">
         <v>1058000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-978600</v>
+        <v>-943700</v>
       </c>
       <c r="E20" s="3">
-        <v>-842000</v>
+        <v>-811900</v>
       </c>
       <c r="F20" s="3">
-        <v>-857800</v>
+        <v>-827200</v>
       </c>
       <c r="G20" s="3">
-        <v>-840300</v>
+        <v>-810300</v>
       </c>
       <c r="H20" s="3">
-        <v>-643000</v>
+        <v>-620100</v>
       </c>
       <c r="I20" s="3">
-        <v>-602400</v>
+        <v>-580900</v>
       </c>
       <c r="J20" s="3">
-        <v>-471000</v>
+        <v>-454200</v>
       </c>
       <c r="K20" s="3">
         <v>-405600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1443300</v>
+        <v>1391800</v>
       </c>
       <c r="E21" s="3">
-        <v>1143400</v>
+        <v>1102600</v>
       </c>
       <c r="F21" s="3">
-        <v>1239200</v>
+        <v>1195000</v>
       </c>
       <c r="G21" s="3">
-        <v>1246300</v>
+        <v>1201800</v>
       </c>
       <c r="H21" s="3">
-        <v>1040800</v>
+        <v>1003600</v>
       </c>
       <c r="I21" s="3">
-        <v>991100</v>
+        <v>955700</v>
       </c>
       <c r="J21" s="3">
-        <v>757200</v>
+        <v>730100</v>
       </c>
       <c r="K21" s="3">
         <v>814700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1253700</v>
+        <v>1208900</v>
       </c>
       <c r="E23" s="3">
-        <v>1012400</v>
+        <v>976300</v>
       </c>
       <c r="F23" s="3">
-        <v>1118000</v>
+        <v>1078000</v>
       </c>
       <c r="G23" s="3">
-        <v>1111100</v>
+        <v>1071400</v>
       </c>
       <c r="H23" s="3">
-        <v>906000</v>
+        <v>873600</v>
       </c>
       <c r="I23" s="3">
-        <v>869300</v>
+        <v>838200</v>
       </c>
       <c r="J23" s="3">
-        <v>541000</v>
+        <v>521700</v>
       </c>
       <c r="K23" s="3">
         <v>652500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>353600</v>
+        <v>341000</v>
       </c>
       <c r="E24" s="3">
-        <v>232200</v>
+        <v>223900</v>
       </c>
       <c r="F24" s="3">
-        <v>346800</v>
+        <v>334400</v>
       </c>
       <c r="G24" s="3">
-        <v>329500</v>
+        <v>317700</v>
       </c>
       <c r="H24" s="3">
-        <v>181800</v>
+        <v>175300</v>
       </c>
       <c r="I24" s="3">
-        <v>206500</v>
+        <v>199200</v>
       </c>
       <c r="J24" s="3">
-        <v>116800</v>
+        <v>112600</v>
       </c>
       <c r="K24" s="3">
         <v>140100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>900100</v>
+        <v>867900</v>
       </c>
       <c r="E26" s="3">
-        <v>780200</v>
+        <v>752300</v>
       </c>
       <c r="F26" s="3">
-        <v>771200</v>
+        <v>743600</v>
       </c>
       <c r="G26" s="3">
-        <v>781600</v>
+        <v>753700</v>
       </c>
       <c r="H26" s="3">
-        <v>724200</v>
+        <v>698300</v>
       </c>
       <c r="I26" s="3">
-        <v>662700</v>
+        <v>639100</v>
       </c>
       <c r="J26" s="3">
-        <v>424200</v>
+        <v>409100</v>
       </c>
       <c r="K26" s="3">
         <v>512300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>872900</v>
+        <v>841700</v>
       </c>
       <c r="E27" s="3">
-        <v>744500</v>
+        <v>717900</v>
       </c>
       <c r="F27" s="3">
-        <v>732200</v>
+        <v>706100</v>
       </c>
       <c r="G27" s="3">
-        <v>756500</v>
+        <v>729500</v>
       </c>
       <c r="H27" s="3">
-        <v>699000</v>
+        <v>674000</v>
       </c>
       <c r="I27" s="3">
-        <v>446800</v>
+        <v>430900</v>
       </c>
       <c r="J27" s="3">
-        <v>265000</v>
+        <v>255600</v>
       </c>
       <c r="K27" s="3">
         <v>286600</v>
@@ -1362,13 +1362,13 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>45800</v>
+        <v>44100</v>
       </c>
       <c r="H29" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="I29" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>978600</v>
+        <v>943700</v>
       </c>
       <c r="E32" s="3">
-        <v>842000</v>
+        <v>811900</v>
       </c>
       <c r="F32" s="3">
-        <v>857800</v>
+        <v>827200</v>
       </c>
       <c r="G32" s="3">
-        <v>840300</v>
+        <v>810300</v>
       </c>
       <c r="H32" s="3">
-        <v>643000</v>
+        <v>620100</v>
       </c>
       <c r="I32" s="3">
-        <v>602400</v>
+        <v>580900</v>
       </c>
       <c r="J32" s="3">
-        <v>471000</v>
+        <v>454200</v>
       </c>
       <c r="K32" s="3">
         <v>405600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>872900</v>
+        <v>841700</v>
       </c>
       <c r="E33" s="3">
-        <v>744500</v>
+        <v>717900</v>
       </c>
       <c r="F33" s="3">
-        <v>732200</v>
+        <v>706100</v>
       </c>
       <c r="G33" s="3">
-        <v>802300</v>
+        <v>773600</v>
       </c>
       <c r="H33" s="3">
-        <v>705300</v>
+        <v>680100</v>
       </c>
       <c r="I33" s="3">
-        <v>464400</v>
+        <v>447900</v>
       </c>
       <c r="J33" s="3">
-        <v>265000</v>
+        <v>255600</v>
       </c>
       <c r="K33" s="3">
         <v>295400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>872900</v>
+        <v>841700</v>
       </c>
       <c r="E35" s="3">
-        <v>744500</v>
+        <v>717900</v>
       </c>
       <c r="F35" s="3">
-        <v>732200</v>
+        <v>706100</v>
       </c>
       <c r="G35" s="3">
-        <v>802300</v>
+        <v>773600</v>
       </c>
       <c r="H35" s="3">
-        <v>705300</v>
+        <v>680100</v>
       </c>
       <c r="I35" s="3">
-        <v>464400</v>
+        <v>447900</v>
       </c>
       <c r="J35" s="3">
-        <v>265000</v>
+        <v>255600</v>
       </c>
       <c r="K35" s="3">
         <v>295400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5111700</v>
+        <v>4929100</v>
       </c>
       <c r="E41" s="3">
-        <v>4433200</v>
+        <v>4274900</v>
       </c>
       <c r="F41" s="3">
-        <v>4346500</v>
+        <v>4191200</v>
       </c>
       <c r="G41" s="3">
-        <v>4540700</v>
+        <v>4378600</v>
       </c>
       <c r="H41" s="3">
-        <v>4002600</v>
+        <v>3859700</v>
       </c>
       <c r="I41" s="3">
-        <v>6268600</v>
+        <v>6044700</v>
       </c>
       <c r="J41" s="3">
-        <v>3199700</v>
+        <v>3085400</v>
       </c>
       <c r="K41" s="3">
         <v>2143200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3233200</v>
+        <v>3117700</v>
       </c>
       <c r="E42" s="3">
-        <v>2424300</v>
+        <v>2337700</v>
       </c>
       <c r="F42" s="3">
-        <v>2142700</v>
+        <v>2066200</v>
       </c>
       <c r="G42" s="3">
-        <v>2553400</v>
+        <v>2462200</v>
       </c>
       <c r="H42" s="3">
-        <v>2844100</v>
+        <v>2742500</v>
       </c>
       <c r="I42" s="3">
-        <v>4593100</v>
+        <v>4429100</v>
       </c>
       <c r="J42" s="3">
-        <v>3060600</v>
+        <v>2951300</v>
       </c>
       <c r="K42" s="3">
         <v>2353500</v>
@@ -1850,22 +1850,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>663000</v>
+        <v>639300</v>
       </c>
       <c r="E47" s="3">
-        <v>601900</v>
+        <v>580400</v>
       </c>
       <c r="F47" s="3">
-        <v>438200</v>
+        <v>422600</v>
       </c>
       <c r="G47" s="3">
-        <v>363500</v>
+        <v>350500</v>
       </c>
       <c r="H47" s="3">
-        <v>153000</v>
+        <v>147600</v>
       </c>
       <c r="I47" s="3">
-        <v>377900</v>
+        <v>364400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2103600</v>
+        <v>2028500</v>
       </c>
       <c r="E48" s="3">
-        <v>1428400</v>
+        <v>1377400</v>
       </c>
       <c r="F48" s="3">
-        <v>1339700</v>
+        <v>1291900</v>
       </c>
       <c r="G48" s="3">
-        <v>1315300</v>
+        <v>1268300</v>
       </c>
       <c r="H48" s="3">
-        <v>1329100</v>
+        <v>1281600</v>
       </c>
       <c r="I48" s="3">
-        <v>1735800</v>
+        <v>1673800</v>
       </c>
       <c r="J48" s="3">
-        <v>613700</v>
+        <v>591800</v>
       </c>
       <c r="K48" s="3">
         <v>905700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2025300</v>
+        <v>1953000</v>
       </c>
       <c r="E49" s="3">
-        <v>2016500</v>
+        <v>1944500</v>
       </c>
       <c r="F49" s="3">
-        <v>1856800</v>
+        <v>1790500</v>
       </c>
       <c r="G49" s="3">
-        <v>1874300</v>
+        <v>1807400</v>
       </c>
       <c r="H49" s="3">
-        <v>1985800</v>
+        <v>1914900</v>
       </c>
       <c r="I49" s="3">
-        <v>2395800</v>
+        <v>2310300</v>
       </c>
       <c r="J49" s="3">
-        <v>1005000</v>
+        <v>969100</v>
       </c>
       <c r="K49" s="3">
         <v>171400</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>112300</v>
+        <v>108300</v>
       </c>
       <c r="E52" s="3">
-        <v>75900</v>
+        <v>73200</v>
       </c>
       <c r="F52" s="3">
-        <v>41600</v>
+        <v>40100</v>
       </c>
       <c r="G52" s="3">
-        <v>62400</v>
+        <v>60200</v>
       </c>
       <c r="H52" s="3">
-        <v>47700</v>
+        <v>46000</v>
       </c>
       <c r="I52" s="3">
-        <v>52600</v>
+        <v>50700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66104700</v>
+        <v>63743800</v>
       </c>
       <c r="E54" s="3">
-        <v>61631800</v>
+        <v>59430700</v>
       </c>
       <c r="F54" s="3">
-        <v>57094300</v>
+        <v>55055200</v>
       </c>
       <c r="G54" s="3">
-        <v>54953100</v>
+        <v>52990500</v>
       </c>
       <c r="H54" s="3">
-        <v>54032400</v>
+        <v>52102700</v>
       </c>
       <c r="I54" s="3">
-        <v>41896400</v>
+        <v>40400100</v>
       </c>
       <c r="J54" s="3">
-        <v>36628500</v>
+        <v>35320400</v>
       </c>
       <c r="K54" s="3">
         <v>29374900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>958500</v>
+        <v>924300</v>
       </c>
       <c r="E57" s="3">
-        <v>846900</v>
+        <v>816700</v>
       </c>
       <c r="F57" s="3">
-        <v>866100</v>
+        <v>835200</v>
       </c>
       <c r="G57" s="3">
-        <v>808500</v>
+        <v>779600</v>
       </c>
       <c r="H57" s="3">
-        <v>574500</v>
+        <v>554000</v>
       </c>
       <c r="I57" s="3">
-        <v>1328700</v>
+        <v>1281300</v>
       </c>
       <c r="J57" s="3">
-        <v>731100</v>
+        <v>705000</v>
       </c>
       <c r="K57" s="3">
         <v>850500</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3129200</v>
+        <v>3017500</v>
       </c>
       <c r="E58" s="3">
-        <v>4239200</v>
+        <v>4087800</v>
       </c>
       <c r="F58" s="3">
-        <v>3739200</v>
+        <v>3605700</v>
       </c>
       <c r="G58" s="3">
-        <v>3887800</v>
+        <v>3748900</v>
       </c>
       <c r="H58" s="3">
-        <v>3461300</v>
+        <v>3337700</v>
       </c>
       <c r="I58" s="3">
-        <v>3539200</v>
+        <v>3412800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>214900</v>
+        <v>207200</v>
       </c>
       <c r="E59" s="3">
-        <v>195800</v>
+        <v>188800</v>
       </c>
       <c r="F59" s="3">
-        <v>124600</v>
+        <v>120200</v>
       </c>
       <c r="G59" s="3">
-        <v>188900</v>
+        <v>182200</v>
       </c>
       <c r="H59" s="3">
-        <v>214100</v>
+        <v>206400</v>
       </c>
       <c r="I59" s="3">
-        <v>452500</v>
+        <v>436400</v>
       </c>
       <c r="J59" s="3">
-        <v>289500</v>
+        <v>279100</v>
       </c>
       <c r="K59" s="3">
         <v>103500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7401700</v>
+        <v>7137300</v>
       </c>
       <c r="E61" s="3">
-        <v>6827700</v>
+        <v>6583900</v>
       </c>
       <c r="F61" s="3">
-        <v>6702000</v>
+        <v>6462600</v>
       </c>
       <c r="G61" s="3">
-        <v>7344900</v>
+        <v>7082600</v>
       </c>
       <c r="H61" s="3">
-        <v>8010400</v>
+        <v>7724300</v>
       </c>
       <c r="I61" s="3">
-        <v>5691500</v>
+        <v>5488200</v>
       </c>
       <c r="J61" s="3">
-        <v>6954200</v>
+        <v>6705800</v>
       </c>
       <c r="K61" s="3">
         <v>3617800</v>
@@ -2309,22 +2309,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>694800</v>
+        <v>670000</v>
       </c>
       <c r="E62" s="3">
-        <v>588300</v>
+        <v>567300</v>
       </c>
       <c r="F62" s="3">
-        <v>622100</v>
+        <v>599900</v>
       </c>
       <c r="G62" s="3">
-        <v>583500</v>
+        <v>562700</v>
       </c>
       <c r="H62" s="3">
-        <v>406800</v>
+        <v>392300</v>
       </c>
       <c r="I62" s="3">
-        <v>296300</v>
+        <v>285700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58577200</v>
+        <v>56485100</v>
       </c>
       <c r="E66" s="3">
-        <v>54674100</v>
+        <v>52721500</v>
       </c>
       <c r="F66" s="3">
-        <v>50622700</v>
+        <v>48814700</v>
       </c>
       <c r="G66" s="3">
-        <v>48998200</v>
+        <v>47248200</v>
       </c>
       <c r="H66" s="3">
-        <v>48634200</v>
+        <v>46897200</v>
       </c>
       <c r="I66" s="3">
-        <v>37172200</v>
+        <v>35844700</v>
       </c>
       <c r="J66" s="3">
-        <v>33130600</v>
+        <v>31947300</v>
       </c>
       <c r="K66" s="3">
         <v>25892800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5105100</v>
+        <v>4922800</v>
       </c>
       <c r="E72" s="3">
-        <v>4565800</v>
+        <v>4402700</v>
       </c>
       <c r="F72" s="3">
-        <v>4263100</v>
+        <v>4110800</v>
       </c>
       <c r="G72" s="3">
-        <v>3881200</v>
+        <v>3742600</v>
       </c>
       <c r="H72" s="3">
-        <v>3286700</v>
+        <v>3169300</v>
       </c>
       <c r="I72" s="3">
-        <v>7326800</v>
+        <v>7065100</v>
       </c>
       <c r="J72" s="3">
-        <v>3139300</v>
+        <v>3027200</v>
       </c>
       <c r="K72" s="3">
         <v>2283500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7527500</v>
+        <v>7258700</v>
       </c>
       <c r="E76" s="3">
-        <v>6957700</v>
+        <v>6709200</v>
       </c>
       <c r="F76" s="3">
-        <v>6471600</v>
+        <v>6240500</v>
       </c>
       <c r="G76" s="3">
-        <v>5954900</v>
+        <v>5742200</v>
       </c>
       <c r="H76" s="3">
-        <v>5398200</v>
+        <v>5205500</v>
       </c>
       <c r="I76" s="3">
-        <v>4724100</v>
+        <v>4555400</v>
       </c>
       <c r="J76" s="3">
-        <v>3498000</v>
+        <v>3373100</v>
       </c>
       <c r="K76" s="3">
         <v>3427100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>872900</v>
+        <v>841700</v>
       </c>
       <c r="E81" s="3">
-        <v>744500</v>
+        <v>717900</v>
       </c>
       <c r="F81" s="3">
-        <v>732200</v>
+        <v>706100</v>
       </c>
       <c r="G81" s="3">
-        <v>802300</v>
+        <v>773600</v>
       </c>
       <c r="H81" s="3">
-        <v>705300</v>
+        <v>680100</v>
       </c>
       <c r="I81" s="3">
-        <v>464400</v>
+        <v>447900</v>
       </c>
       <c r="J81" s="3">
-        <v>265000</v>
+        <v>255600</v>
       </c>
       <c r="K81" s="3">
         <v>295400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>189600</v>
+        <v>182900</v>
       </c>
       <c r="E83" s="3">
-        <v>131000</v>
+        <v>126300</v>
       </c>
       <c r="F83" s="3">
-        <v>121200</v>
+        <v>116900</v>
       </c>
       <c r="G83" s="3">
-        <v>135200</v>
+        <v>130400</v>
       </c>
       <c r="H83" s="3">
-        <v>134800</v>
+        <v>130000</v>
       </c>
       <c r="I83" s="3">
-        <v>121900</v>
+        <v>117500</v>
       </c>
       <c r="J83" s="3">
-        <v>216200</v>
+        <v>208400</v>
       </c>
       <c r="K83" s="3">
         <v>162200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3448400</v>
+        <v>3325200</v>
       </c>
       <c r="E89" s="3">
-        <v>292000</v>
+        <v>281600</v>
       </c>
       <c r="F89" s="3">
-        <v>823100</v>
+        <v>793700</v>
       </c>
       <c r="G89" s="3">
-        <v>1008400</v>
+        <v>972400</v>
       </c>
       <c r="H89" s="3">
-        <v>519900</v>
+        <v>501300</v>
       </c>
       <c r="I89" s="3">
-        <v>-1866900</v>
+        <v>-1800200</v>
       </c>
       <c r="J89" s="3">
-        <v>1474500</v>
+        <v>1421800</v>
       </c>
       <c r="K89" s="3">
         <v>541900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-435500</v>
+        <v>-420000</v>
       </c>
       <c r="E91" s="3">
-        <v>-283900</v>
+        <v>-273800</v>
       </c>
       <c r="F91" s="3">
-        <v>-317000</v>
+        <v>-305600</v>
       </c>
       <c r="G91" s="3">
-        <v>-303100</v>
+        <v>-292300</v>
       </c>
       <c r="H91" s="3">
-        <v>-269300</v>
+        <v>-259700</v>
       </c>
       <c r="I91" s="3">
-        <v>-744500</v>
+        <v>-717900</v>
       </c>
       <c r="J91" s="3">
-        <v>-515600</v>
+        <v>-497200</v>
       </c>
       <c r="K91" s="3">
         <v>-339700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-613400</v>
+        <v>-591500</v>
       </c>
       <c r="E94" s="3">
-        <v>-386900</v>
+        <v>-373100</v>
       </c>
       <c r="F94" s="3">
-        <v>-534300</v>
+        <v>-515200</v>
       </c>
       <c r="G94" s="3">
-        <v>-287700</v>
+        <v>-277500</v>
       </c>
       <c r="H94" s="3">
-        <v>39800</v>
+        <v>38300</v>
       </c>
       <c r="I94" s="3">
-        <v>261600</v>
+        <v>252200</v>
       </c>
       <c r="J94" s="3">
-        <v>-931700</v>
+        <v>-898400</v>
       </c>
       <c r="K94" s="3">
         <v>-178300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-289100</v>
+        <v>-278800</v>
       </c>
       <c r="E96" s="3">
-        <v>-206000</v>
+        <v>-198700</v>
       </c>
       <c r="F96" s="3">
-        <v>-315300</v>
+        <v>-304100</v>
       </c>
       <c r="G96" s="3">
-        <v>-235300</v>
+        <v>-226900</v>
       </c>
       <c r="H96" s="3">
-        <v>-219900</v>
+        <v>-212000</v>
       </c>
       <c r="I96" s="3">
-        <v>-199800</v>
+        <v>-192700</v>
       </c>
       <c r="J96" s="3">
-        <v>-177000</v>
+        <v>-170600</v>
       </c>
       <c r="K96" s="3">
         <v>-175000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1473000</v>
+        <v>-1420400</v>
       </c>
       <c r="E100" s="3">
-        <v>-205200</v>
+        <v>-197800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1013900</v>
+        <v>-977600</v>
       </c>
       <c r="G100" s="3">
-        <v>-96300</v>
+        <v>-92800</v>
       </c>
       <c r="H100" s="3">
-        <v>-64800</v>
+        <v>-62500</v>
       </c>
       <c r="I100" s="3">
-        <v>456400</v>
+        <v>440100</v>
       </c>
       <c r="J100" s="3">
-        <v>1387400</v>
+        <v>1337800</v>
       </c>
       <c r="K100" s="3">
         <v>-150800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40100</v>
+        <v>38600</v>
       </c>
       <c r="E101" s="3">
-        <v>458300</v>
+        <v>442000</v>
       </c>
       <c r="F101" s="3">
-        <v>82500</v>
+        <v>79600</v>
       </c>
       <c r="G101" s="3">
-        <v>-161100</v>
+        <v>-155300</v>
       </c>
       <c r="H101" s="3">
-        <v>1000000</v>
+        <v>964300</v>
       </c>
       <c r="I101" s="3">
-        <v>594700</v>
+        <v>573500</v>
       </c>
       <c r="J101" s="3">
-        <v>96800</v>
+        <v>93400</v>
       </c>
       <c r="K101" s="3">
         <v>-80800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1402000</v>
+        <v>1352000</v>
       </c>
       <c r="E102" s="3">
-        <v>158200</v>
+        <v>152600</v>
       </c>
       <c r="F102" s="3">
-        <v>-642500</v>
+        <v>-619500</v>
       </c>
       <c r="G102" s="3">
-        <v>463300</v>
+        <v>446800</v>
       </c>
       <c r="H102" s="3">
-        <v>1494900</v>
+        <v>1441500</v>
       </c>
       <c r="I102" s="3">
-        <v>-554200</v>
+        <v>-534400</v>
       </c>
       <c r="J102" s="3">
-        <v>2027100</v>
+        <v>1954700</v>
       </c>
       <c r="K102" s="3">
         <v>132000</v>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>CIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4597100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4742100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4357600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4524700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4253500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3034200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2501300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2195300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2298600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1962000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-198800</v>
+      </c>
+      <c r="E15" s="3">
         <v>-182900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-125900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-116900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-129300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-124500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-369100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-137100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-109600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-90500</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3615200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2589500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2569400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2619500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2371700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1540500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1082200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1219400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1240600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>951200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>982000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2152600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1788200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1905200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1881700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1493700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1419100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>975900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1058000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1010800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-898600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-943700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-811900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-827200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-810300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-620100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-580900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-454200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-405600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-302700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>282200</v>
+      </c>
+      <c r="E21" s="3">
         <v>1391800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1102600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1195000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1201800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1003600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>955700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>730100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>814700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>838300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1208900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>976300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1078000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1071400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>873600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>838200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>521700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>652500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>708100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>341000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>223900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>334400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>317700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>175300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>199200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>112600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>140100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>155300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E26" s="3">
         <v>867900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>752300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>743600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>753700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>698300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>639100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>409100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>512300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>552800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E27" s="3">
         <v>841700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>717900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>706100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>729500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>674000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>430900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>255600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>286600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>194100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,27 +1421,30 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>44100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>6100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>17000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>8800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>28700</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>898600</v>
+      </c>
+      <c r="E32" s="3">
         <v>943700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>811900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>827200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>810300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>620100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>580900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>454200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>405600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>302700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E33" s="3">
         <v>841700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>717900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>706100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>773600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>680100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>447900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>255600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>295400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>222800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E35" s="3">
         <v>841700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>717900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>706100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>773600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>680100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>447900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>255600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>295400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>222800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5450000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4929100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4274900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4191200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4378600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3859700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6044700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3085400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2143200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2250000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2915400</v>
+      </c>
+      <c r="E42" s="3">
         <v>3117700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2337700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2066200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2462200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2742500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4429100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2951300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2353500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1624400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>676700</v>
+      </c>
+      <c r="E47" s="3">
         <v>639300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>580400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>422600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>350500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>147600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>364400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2376700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2028500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1377400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1291900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1268300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1281600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1673800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>591800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>905700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>886300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2027000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1953000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1944500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1790500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1807400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1914900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2310300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>969100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>171400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>224400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E52" s="3">
         <v>108300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>73200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>40100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>60200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>46000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>50700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69003500</v>
+      </c>
+      <c r="E54" s="3">
         <v>63743800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>59430700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55055200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>52990500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>52102700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40400100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35320400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29374900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28202800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,107 +2267,117 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>833600</v>
+      </c>
+      <c r="E57" s="3">
         <v>924300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>816700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>835200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>779600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>554000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1281300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>705000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>850500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>848300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2006000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3017500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4087800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3605700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3748900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3337700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3412800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E59" s="3">
         <v>207200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>188800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>120200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>182200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>206400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>436400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>279100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>103500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>92500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7429800</v>
+      </c>
+      <c r="E61" s="3">
         <v>7137300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6583900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6462600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7082600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7724300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5488200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6705800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3617800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3402000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>601200</v>
+      </c>
+      <c r="E62" s="3">
         <v>670000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>567300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>599900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>562700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>392300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>285700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>40100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61836300</v>
+      </c>
+      <c r="E66" s="3">
         <v>56485100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52721500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48814700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>47248200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46897200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>35844700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31947300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25892800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25235000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2576,14 +2743,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>55000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>50000</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4922800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4402700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4110800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3742600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3169300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7065100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3027200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2283500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2217600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7167200</v>
+      </c>
+      <c r="E76" s="3">
         <v>7258700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6709200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6240500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5742200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5205500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4555400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3373100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3427100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2917800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E81" s="3">
         <v>841700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>717900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>706100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>773600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>680100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>447900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>255600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>295400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>222800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E83" s="3">
         <v>182900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>126300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>116900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>130400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>130000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>117500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>208400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>162200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>130200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3032200</v>
+      </c>
+      <c r="E89" s="3">
         <v>3325200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>281600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>793700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>972400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>501300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1421800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>541900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1299900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-413100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-420000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-273800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-305600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-292300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-259700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-717900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-497200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-339700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-463200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2031000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-591500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-373100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-515200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-277500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>38300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>252200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-898400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-178300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-171500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-420100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-278800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-198700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-304100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-226900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-212000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-192700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-170600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-175000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-173800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1327200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1420400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-197800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-977600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-92800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-62500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>440100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1337800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-150800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1946500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E101" s="3">
         <v>38600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>442000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>79600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-155300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>964300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>573500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>93400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-80800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>44300</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1352000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>152600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-619500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>446800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1441500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-534400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1954700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>132000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>519400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4597100</v>
+        <v>4426900</v>
       </c>
       <c r="E8" s="3">
-        <v>4742100</v>
+        <v>4566500</v>
       </c>
       <c r="F8" s="3">
-        <v>4357600</v>
+        <v>4196200</v>
       </c>
       <c r="G8" s="3">
-        <v>4524700</v>
+        <v>4357100</v>
       </c>
       <c r="H8" s="3">
-        <v>4253500</v>
+        <v>4095900</v>
       </c>
       <c r="I8" s="3">
-        <v>3034200</v>
+        <v>2921800</v>
       </c>
       <c r="J8" s="3">
-        <v>2501300</v>
+        <v>2408700</v>
       </c>
       <c r="K8" s="3">
         <v>2195300</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-198800</v>
+        <v>-191500</v>
       </c>
       <c r="E15" s="3">
-        <v>-182900</v>
+        <v>-176100</v>
       </c>
       <c r="F15" s="3">
-        <v>-125900</v>
+        <v>-121200</v>
       </c>
       <c r="G15" s="3">
-        <v>-116900</v>
+        <v>-112600</v>
       </c>
       <c r="H15" s="3">
-        <v>-129300</v>
+        <v>-124500</v>
       </c>
       <c r="I15" s="3">
-        <v>-124500</v>
+        <v>-119900</v>
       </c>
       <c r="J15" s="3">
-        <v>-369100</v>
+        <v>-355400</v>
       </c>
       <c r="K15" s="3">
         <v>-137100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3615200</v>
+        <v>3481300</v>
       </c>
       <c r="E17" s="3">
-        <v>2589500</v>
+        <v>2493600</v>
       </c>
       <c r="F17" s="3">
-        <v>2569400</v>
+        <v>2474200</v>
       </c>
       <c r="G17" s="3">
-        <v>2619500</v>
+        <v>2522400</v>
       </c>
       <c r="H17" s="3">
-        <v>2371700</v>
+        <v>2283900</v>
       </c>
       <c r="I17" s="3">
-        <v>1540500</v>
+        <v>1483500</v>
       </c>
       <c r="J17" s="3">
-        <v>1082200</v>
+        <v>1042100</v>
       </c>
       <c r="K17" s="3">
         <v>1219400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>982000</v>
+        <v>945600</v>
       </c>
       <c r="E18" s="3">
-        <v>2152600</v>
+        <v>2072900</v>
       </c>
       <c r="F18" s="3">
-        <v>1788200</v>
+        <v>1722000</v>
       </c>
       <c r="G18" s="3">
-        <v>1905200</v>
+        <v>1834700</v>
       </c>
       <c r="H18" s="3">
-        <v>1881700</v>
+        <v>1812000</v>
       </c>
       <c r="I18" s="3">
-        <v>1493700</v>
+        <v>1438400</v>
       </c>
       <c r="J18" s="3">
-        <v>1419100</v>
+        <v>1366500</v>
       </c>
       <c r="K18" s="3">
         <v>975900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-898600</v>
+        <v>-865300</v>
       </c>
       <c r="E20" s="3">
-        <v>-943700</v>
+        <v>-908700</v>
       </c>
       <c r="F20" s="3">
-        <v>-811900</v>
+        <v>-781800</v>
       </c>
       <c r="G20" s="3">
-        <v>-827200</v>
+        <v>-796500</v>
       </c>
       <c r="H20" s="3">
-        <v>-810300</v>
+        <v>-780300</v>
       </c>
       <c r="I20" s="3">
-        <v>-620100</v>
+        <v>-597100</v>
       </c>
       <c r="J20" s="3">
-        <v>-580900</v>
+        <v>-559300</v>
       </c>
       <c r="K20" s="3">
         <v>-454200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>282200</v>
+        <v>271700</v>
       </c>
       <c r="E21" s="3">
-        <v>1391800</v>
+        <v>1340200</v>
       </c>
       <c r="F21" s="3">
-        <v>1102600</v>
+        <v>1061700</v>
       </c>
       <c r="G21" s="3">
-        <v>1195000</v>
+        <v>1150700</v>
       </c>
       <c r="H21" s="3">
-        <v>1201800</v>
+        <v>1157300</v>
       </c>
       <c r="I21" s="3">
-        <v>1003600</v>
+        <v>966500</v>
       </c>
       <c r="J21" s="3">
-        <v>955700</v>
+        <v>920400</v>
       </c>
       <c r="K21" s="3">
         <v>730100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>83400</v>
+        <v>80300</v>
       </c>
       <c r="E23" s="3">
-        <v>1208900</v>
+        <v>1164200</v>
       </c>
       <c r="F23" s="3">
-        <v>976300</v>
+        <v>940100</v>
       </c>
       <c r="G23" s="3">
-        <v>1078000</v>
+        <v>1038100</v>
       </c>
       <c r="H23" s="3">
-        <v>1071400</v>
+        <v>1031800</v>
       </c>
       <c r="I23" s="3">
-        <v>873600</v>
+        <v>841300</v>
       </c>
       <c r="J23" s="3">
-        <v>838200</v>
+        <v>807200</v>
       </c>
       <c r="K23" s="3">
         <v>521700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E24" s="3">
-        <v>341000</v>
+        <v>328400</v>
       </c>
       <c r="F24" s="3">
-        <v>223900</v>
+        <v>215700</v>
       </c>
       <c r="G24" s="3">
-        <v>334400</v>
+        <v>322000</v>
       </c>
       <c r="H24" s="3">
-        <v>317700</v>
+        <v>306000</v>
       </c>
       <c r="I24" s="3">
-        <v>175300</v>
+        <v>168800</v>
       </c>
       <c r="J24" s="3">
-        <v>199200</v>
+        <v>191800</v>
       </c>
       <c r="K24" s="3">
         <v>112600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>85100</v>
+        <v>82000</v>
       </c>
       <c r="E26" s="3">
-        <v>867900</v>
+        <v>835800</v>
       </c>
       <c r="F26" s="3">
-        <v>752300</v>
+        <v>724500</v>
       </c>
       <c r="G26" s="3">
-        <v>743600</v>
+        <v>716100</v>
       </c>
       <c r="H26" s="3">
-        <v>753700</v>
+        <v>725800</v>
       </c>
       <c r="I26" s="3">
-        <v>698300</v>
+        <v>672500</v>
       </c>
       <c r="J26" s="3">
-        <v>639100</v>
+        <v>615400</v>
       </c>
       <c r="K26" s="3">
         <v>409100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74500</v>
+        <v>71800</v>
       </c>
       <c r="E27" s="3">
-        <v>841700</v>
+        <v>810500</v>
       </c>
       <c r="F27" s="3">
-        <v>717900</v>
+        <v>691300</v>
       </c>
       <c r="G27" s="3">
-        <v>706100</v>
+        <v>679900</v>
       </c>
       <c r="H27" s="3">
-        <v>729500</v>
+        <v>702500</v>
       </c>
       <c r="I27" s="3">
-        <v>674000</v>
+        <v>649100</v>
       </c>
       <c r="J27" s="3">
-        <v>430900</v>
+        <v>414900</v>
       </c>
       <c r="K27" s="3">
         <v>255600</v>
@@ -1425,13 +1425,13 @@
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>44100</v>
+        <v>42500</v>
       </c>
       <c r="I29" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="J29" s="3">
-        <v>17000</v>
+        <v>16300</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>898600</v>
+        <v>865300</v>
       </c>
       <c r="E32" s="3">
-        <v>943700</v>
+        <v>908700</v>
       </c>
       <c r="F32" s="3">
-        <v>811900</v>
+        <v>781800</v>
       </c>
       <c r="G32" s="3">
-        <v>827200</v>
+        <v>796500</v>
       </c>
       <c r="H32" s="3">
-        <v>810300</v>
+        <v>780300</v>
       </c>
       <c r="I32" s="3">
-        <v>620100</v>
+        <v>597100</v>
       </c>
       <c r="J32" s="3">
-        <v>580900</v>
+        <v>559300</v>
       </c>
       <c r="K32" s="3">
         <v>454200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74500</v>
+        <v>71800</v>
       </c>
       <c r="E33" s="3">
-        <v>841700</v>
+        <v>810500</v>
       </c>
       <c r="F33" s="3">
-        <v>717900</v>
+        <v>691300</v>
       </c>
       <c r="G33" s="3">
-        <v>706100</v>
+        <v>679900</v>
       </c>
       <c r="H33" s="3">
-        <v>773600</v>
+        <v>745000</v>
       </c>
       <c r="I33" s="3">
-        <v>680100</v>
+        <v>654900</v>
       </c>
       <c r="J33" s="3">
-        <v>447900</v>
+        <v>431300</v>
       </c>
       <c r="K33" s="3">
         <v>255600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74500</v>
+        <v>71800</v>
       </c>
       <c r="E35" s="3">
-        <v>841700</v>
+        <v>810500</v>
       </c>
       <c r="F35" s="3">
-        <v>717900</v>
+        <v>691300</v>
       </c>
       <c r="G35" s="3">
-        <v>706100</v>
+        <v>679900</v>
       </c>
       <c r="H35" s="3">
-        <v>773600</v>
+        <v>745000</v>
       </c>
       <c r="I35" s="3">
-        <v>680100</v>
+        <v>654900</v>
       </c>
       <c r="J35" s="3">
-        <v>447900</v>
+        <v>431300</v>
       </c>
       <c r="K35" s="3">
         <v>255600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5450000</v>
+        <v>5248100</v>
       </c>
       <c r="E41" s="3">
-        <v>4929100</v>
+        <v>4746600</v>
       </c>
       <c r="F41" s="3">
-        <v>4274900</v>
+        <v>4116600</v>
       </c>
       <c r="G41" s="3">
-        <v>4191200</v>
+        <v>4036000</v>
       </c>
       <c r="H41" s="3">
-        <v>4378600</v>
+        <v>4216400</v>
       </c>
       <c r="I41" s="3">
-        <v>3859700</v>
+        <v>3716700</v>
       </c>
       <c r="J41" s="3">
-        <v>6044700</v>
+        <v>5820800</v>
       </c>
       <c r="K41" s="3">
         <v>3085400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2915400</v>
+        <v>2807400</v>
       </c>
       <c r="E42" s="3">
-        <v>3117700</v>
+        <v>3002200</v>
       </c>
       <c r="F42" s="3">
-        <v>2337700</v>
+        <v>2251100</v>
       </c>
       <c r="G42" s="3">
-        <v>2066200</v>
+        <v>1989700</v>
       </c>
       <c r="H42" s="3">
-        <v>2462200</v>
+        <v>2371000</v>
       </c>
       <c r="I42" s="3">
-        <v>2742500</v>
+        <v>2641000</v>
       </c>
       <c r="J42" s="3">
-        <v>4429100</v>
+        <v>4265100</v>
       </c>
       <c r="K42" s="3">
         <v>2951300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>676700</v>
+        <v>651600</v>
       </c>
       <c r="E47" s="3">
-        <v>639300</v>
+        <v>615600</v>
       </c>
       <c r="F47" s="3">
-        <v>580400</v>
+        <v>558900</v>
       </c>
       <c r="G47" s="3">
-        <v>422600</v>
+        <v>406900</v>
       </c>
       <c r="H47" s="3">
-        <v>350500</v>
+        <v>337500</v>
       </c>
       <c r="I47" s="3">
-        <v>147600</v>
+        <v>142100</v>
       </c>
       <c r="J47" s="3">
-        <v>364400</v>
+        <v>350900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2376700</v>
+        <v>2288700</v>
       </c>
       <c r="E48" s="3">
-        <v>2028500</v>
+        <v>1953400</v>
       </c>
       <c r="F48" s="3">
-        <v>1377400</v>
+        <v>1326400</v>
       </c>
       <c r="G48" s="3">
-        <v>1291900</v>
+        <v>1244100</v>
       </c>
       <c r="H48" s="3">
-        <v>1268300</v>
+        <v>1221300</v>
       </c>
       <c r="I48" s="3">
-        <v>1281600</v>
+        <v>1234100</v>
       </c>
       <c r="J48" s="3">
-        <v>1673800</v>
+        <v>1611800</v>
       </c>
       <c r="K48" s="3">
         <v>591800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2027000</v>
+        <v>1951900</v>
       </c>
       <c r="E49" s="3">
-        <v>1953000</v>
+        <v>1880700</v>
       </c>
       <c r="F49" s="3">
-        <v>1944500</v>
+        <v>1872500</v>
       </c>
       <c r="G49" s="3">
-        <v>1790500</v>
+        <v>1724200</v>
       </c>
       <c r="H49" s="3">
-        <v>1807400</v>
+        <v>1740400</v>
       </c>
       <c r="I49" s="3">
-        <v>1914900</v>
+        <v>1844000</v>
       </c>
       <c r="J49" s="3">
-        <v>2310300</v>
+        <v>2224700</v>
       </c>
       <c r="K49" s="3">
         <v>969100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>182300</v>
+        <v>175600</v>
       </c>
       <c r="E52" s="3">
-        <v>108300</v>
+        <v>104300</v>
       </c>
       <c r="F52" s="3">
-        <v>73200</v>
+        <v>70500</v>
       </c>
       <c r="G52" s="3">
-        <v>40100</v>
+        <v>38600</v>
       </c>
       <c r="H52" s="3">
-        <v>60200</v>
+        <v>57900</v>
       </c>
       <c r="I52" s="3">
-        <v>46000</v>
+        <v>44300</v>
       </c>
       <c r="J52" s="3">
-        <v>50700</v>
+        <v>48800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69003500</v>
+        <v>66447800</v>
       </c>
       <c r="E54" s="3">
-        <v>63743800</v>
+        <v>61382900</v>
       </c>
       <c r="F54" s="3">
-        <v>59430700</v>
+        <v>57229500</v>
       </c>
       <c r="G54" s="3">
-        <v>55055200</v>
+        <v>53016100</v>
       </c>
       <c r="H54" s="3">
-        <v>52990500</v>
+        <v>51027900</v>
       </c>
       <c r="I54" s="3">
-        <v>52102700</v>
+        <v>50172900</v>
       </c>
       <c r="J54" s="3">
-        <v>40400100</v>
+        <v>38903800</v>
       </c>
       <c r="K54" s="3">
         <v>35320400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>833600</v>
+        <v>802700</v>
       </c>
       <c r="E57" s="3">
-        <v>924300</v>
+        <v>890100</v>
       </c>
       <c r="F57" s="3">
-        <v>816700</v>
+        <v>786500</v>
       </c>
       <c r="G57" s="3">
-        <v>835200</v>
+        <v>804300</v>
       </c>
       <c r="H57" s="3">
-        <v>779600</v>
+        <v>750700</v>
       </c>
       <c r="I57" s="3">
-        <v>554000</v>
+        <v>533500</v>
       </c>
       <c r="J57" s="3">
-        <v>1281300</v>
+        <v>1233800</v>
       </c>
       <c r="K57" s="3">
         <v>705000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2006000</v>
+        <v>1931700</v>
       </c>
       <c r="E58" s="3">
-        <v>3017500</v>
+        <v>2905700</v>
       </c>
       <c r="F58" s="3">
-        <v>4087800</v>
+        <v>3936400</v>
       </c>
       <c r="G58" s="3">
-        <v>3605700</v>
+        <v>3472100</v>
       </c>
       <c r="H58" s="3">
-        <v>3748900</v>
+        <v>3610100</v>
       </c>
       <c r="I58" s="3">
-        <v>3337700</v>
+        <v>3214100</v>
       </c>
       <c r="J58" s="3">
-        <v>3412800</v>
+        <v>3286400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>245000</v>
+        <v>236000</v>
       </c>
       <c r="E59" s="3">
-        <v>207200</v>
+        <v>199500</v>
       </c>
       <c r="F59" s="3">
-        <v>188800</v>
+        <v>181800</v>
       </c>
       <c r="G59" s="3">
-        <v>120200</v>
+        <v>115700</v>
       </c>
       <c r="H59" s="3">
-        <v>182200</v>
+        <v>175500</v>
       </c>
       <c r="I59" s="3">
-        <v>206400</v>
+        <v>198800</v>
       </c>
       <c r="J59" s="3">
-        <v>436400</v>
+        <v>420200</v>
       </c>
       <c r="K59" s="3">
         <v>279100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7429800</v>
+        <v>7154700</v>
       </c>
       <c r="E61" s="3">
-        <v>7137300</v>
+        <v>6873000</v>
       </c>
       <c r="F61" s="3">
-        <v>6583900</v>
+        <v>6340000</v>
       </c>
       <c r="G61" s="3">
-        <v>6462600</v>
+        <v>6223300</v>
       </c>
       <c r="H61" s="3">
-        <v>7082600</v>
+        <v>6820200</v>
       </c>
       <c r="I61" s="3">
-        <v>7724300</v>
+        <v>7438200</v>
       </c>
       <c r="J61" s="3">
-        <v>5488200</v>
+        <v>5284900</v>
       </c>
       <c r="K61" s="3">
         <v>6705800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>601200</v>
+        <v>578900</v>
       </c>
       <c r="E62" s="3">
-        <v>670000</v>
+        <v>645200</v>
       </c>
       <c r="F62" s="3">
-        <v>567300</v>
+        <v>546300</v>
       </c>
       <c r="G62" s="3">
-        <v>599900</v>
+        <v>577700</v>
       </c>
       <c r="H62" s="3">
-        <v>562700</v>
+        <v>541800</v>
       </c>
       <c r="I62" s="3">
-        <v>392300</v>
+        <v>377800</v>
       </c>
       <c r="J62" s="3">
-        <v>285700</v>
+        <v>275100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61836300</v>
+        <v>59546100</v>
       </c>
       <c r="E66" s="3">
-        <v>56485100</v>
+        <v>54393100</v>
       </c>
       <c r="F66" s="3">
-        <v>52721500</v>
+        <v>50768800</v>
       </c>
       <c r="G66" s="3">
-        <v>48814700</v>
+        <v>47006800</v>
       </c>
       <c r="H66" s="3">
-        <v>47248200</v>
+        <v>45498300</v>
       </c>
       <c r="I66" s="3">
-        <v>46897200</v>
+        <v>45160300</v>
       </c>
       <c r="J66" s="3">
-        <v>35844700</v>
+        <v>34517100</v>
       </c>
       <c r="K66" s="3">
         <v>31947300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4868000</v>
+        <v>4687700</v>
       </c>
       <c r="E72" s="3">
-        <v>4922800</v>
+        <v>4740400</v>
       </c>
       <c r="F72" s="3">
-        <v>4402700</v>
+        <v>4239700</v>
       </c>
       <c r="G72" s="3">
-        <v>4110800</v>
+        <v>3958600</v>
       </c>
       <c r="H72" s="3">
-        <v>3742600</v>
+        <v>3604000</v>
       </c>
       <c r="I72" s="3">
-        <v>3169300</v>
+        <v>3051900</v>
       </c>
       <c r="J72" s="3">
-        <v>7065100</v>
+        <v>6803400</v>
       </c>
       <c r="K72" s="3">
         <v>3027200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7167200</v>
+        <v>6901800</v>
       </c>
       <c r="E76" s="3">
-        <v>7258700</v>
+        <v>6989800</v>
       </c>
       <c r="F76" s="3">
-        <v>6709200</v>
+        <v>6460700</v>
       </c>
       <c r="G76" s="3">
-        <v>6240500</v>
+        <v>6009400</v>
       </c>
       <c r="H76" s="3">
-        <v>5742200</v>
+        <v>5529600</v>
       </c>
       <c r="I76" s="3">
-        <v>5205500</v>
+        <v>5012700</v>
       </c>
       <c r="J76" s="3">
-        <v>4555400</v>
+        <v>4386700</v>
       </c>
       <c r="K76" s="3">
         <v>3373100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74500</v>
+        <v>71800</v>
       </c>
       <c r="E81" s="3">
-        <v>841700</v>
+        <v>810500</v>
       </c>
       <c r="F81" s="3">
-        <v>717900</v>
+        <v>691300</v>
       </c>
       <c r="G81" s="3">
-        <v>706100</v>
+        <v>679900</v>
       </c>
       <c r="H81" s="3">
-        <v>773600</v>
+        <v>745000</v>
       </c>
       <c r="I81" s="3">
-        <v>680100</v>
+        <v>654900</v>
       </c>
       <c r="J81" s="3">
-        <v>447900</v>
+        <v>431300</v>
       </c>
       <c r="K81" s="3">
         <v>255600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>198800</v>
+        <v>191500</v>
       </c>
       <c r="E83" s="3">
-        <v>182900</v>
+        <v>176100</v>
       </c>
       <c r="F83" s="3">
-        <v>126300</v>
+        <v>121600</v>
       </c>
       <c r="G83" s="3">
-        <v>116900</v>
+        <v>112600</v>
       </c>
       <c r="H83" s="3">
-        <v>130400</v>
+        <v>125600</v>
       </c>
       <c r="I83" s="3">
-        <v>130000</v>
+        <v>125200</v>
       </c>
       <c r="J83" s="3">
-        <v>117500</v>
+        <v>113200</v>
       </c>
       <c r="K83" s="3">
         <v>208400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3032200</v>
+        <v>2919900</v>
       </c>
       <c r="E89" s="3">
-        <v>3325200</v>
+        <v>3202100</v>
       </c>
       <c r="F89" s="3">
-        <v>281600</v>
+        <v>271100</v>
       </c>
       <c r="G89" s="3">
-        <v>793700</v>
+        <v>764300</v>
       </c>
       <c r="H89" s="3">
-        <v>972400</v>
+        <v>936400</v>
       </c>
       <c r="I89" s="3">
-        <v>501300</v>
+        <v>482700</v>
       </c>
       <c r="J89" s="3">
-        <v>-1800200</v>
+        <v>-1733500</v>
       </c>
       <c r="K89" s="3">
         <v>1421800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-413100</v>
+        <v>-397800</v>
       </c>
       <c r="E91" s="3">
-        <v>-420000</v>
+        <v>-404400</v>
       </c>
       <c r="F91" s="3">
-        <v>-273800</v>
+        <v>-263700</v>
       </c>
       <c r="G91" s="3">
-        <v>-305600</v>
+        <v>-294300</v>
       </c>
       <c r="H91" s="3">
-        <v>-292300</v>
+        <v>-281500</v>
       </c>
       <c r="I91" s="3">
-        <v>-259700</v>
+        <v>-250100</v>
       </c>
       <c r="J91" s="3">
-        <v>-717900</v>
+        <v>-691300</v>
       </c>
       <c r="K91" s="3">
         <v>-497200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2031000</v>
+        <v>-1955700</v>
       </c>
       <c r="E94" s="3">
-        <v>-591500</v>
+        <v>-569600</v>
       </c>
       <c r="F94" s="3">
-        <v>-373100</v>
+        <v>-359300</v>
       </c>
       <c r="G94" s="3">
-        <v>-515200</v>
+        <v>-496100</v>
       </c>
       <c r="H94" s="3">
-        <v>-277500</v>
+        <v>-267200</v>
       </c>
       <c r="I94" s="3">
-        <v>38300</v>
+        <v>36900</v>
       </c>
       <c r="J94" s="3">
-        <v>252200</v>
+        <v>242900</v>
       </c>
       <c r="K94" s="3">
         <v>-898400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-420100</v>
+        <v>-404500</v>
       </c>
       <c r="E96" s="3">
-        <v>-278800</v>
+        <v>-268400</v>
       </c>
       <c r="F96" s="3">
-        <v>-198700</v>
+        <v>-191300</v>
       </c>
       <c r="G96" s="3">
-        <v>-304100</v>
+        <v>-292800</v>
       </c>
       <c r="H96" s="3">
-        <v>-226900</v>
+        <v>-218500</v>
       </c>
       <c r="I96" s="3">
-        <v>-212000</v>
+        <v>-204200</v>
       </c>
       <c r="J96" s="3">
-        <v>-192700</v>
+        <v>-185600</v>
       </c>
       <c r="K96" s="3">
         <v>-170600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1327200</v>
+        <v>-1278000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1420400</v>
+        <v>-1367800</v>
       </c>
       <c r="F100" s="3">
-        <v>-197800</v>
+        <v>-190500</v>
       </c>
       <c r="G100" s="3">
-        <v>-977600</v>
+        <v>-941400</v>
       </c>
       <c r="H100" s="3">
-        <v>-92800</v>
+        <v>-89400</v>
       </c>
       <c r="I100" s="3">
-        <v>-62500</v>
+        <v>-60200</v>
       </c>
       <c r="J100" s="3">
-        <v>440100</v>
+        <v>423800</v>
       </c>
       <c r="K100" s="3">
         <v>1337800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>316000</v>
+        <v>304300</v>
       </c>
       <c r="E101" s="3">
-        <v>38600</v>
+        <v>37200</v>
       </c>
       <c r="F101" s="3">
-        <v>442000</v>
+        <v>425600</v>
       </c>
       <c r="G101" s="3">
-        <v>79600</v>
+        <v>76600</v>
       </c>
       <c r="H101" s="3">
-        <v>-155300</v>
+        <v>-149600</v>
       </c>
       <c r="I101" s="3">
-        <v>964300</v>
+        <v>928600</v>
       </c>
       <c r="J101" s="3">
-        <v>573500</v>
+        <v>552200</v>
       </c>
       <c r="K101" s="3">
         <v>93400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10000</v>
+        <v>-9600</v>
       </c>
       <c r="E102" s="3">
-        <v>1352000</v>
+        <v>1301900</v>
       </c>
       <c r="F102" s="3">
-        <v>152600</v>
+        <v>146900</v>
       </c>
       <c r="G102" s="3">
-        <v>-619500</v>
+        <v>-596600</v>
       </c>
       <c r="H102" s="3">
-        <v>446800</v>
+        <v>430200</v>
       </c>
       <c r="I102" s="3">
-        <v>1441500</v>
+        <v>1388100</v>
       </c>
       <c r="J102" s="3">
-        <v>-534400</v>
+        <v>-514600</v>
       </c>
       <c r="K102" s="3">
         <v>1954700</v>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4426900</v>
+        <v>4256600</v>
       </c>
       <c r="E8" s="3">
-        <v>4566500</v>
+        <v>4390900</v>
       </c>
       <c r="F8" s="3">
-        <v>4196200</v>
+        <v>4034800</v>
       </c>
       <c r="G8" s="3">
-        <v>4357100</v>
+        <v>4189500</v>
       </c>
       <c r="H8" s="3">
-        <v>4095900</v>
+        <v>3938400</v>
       </c>
       <c r="I8" s="3">
-        <v>2921800</v>
+        <v>2809500</v>
       </c>
       <c r="J8" s="3">
-        <v>2408700</v>
+        <v>2316000</v>
       </c>
       <c r="K8" s="3">
         <v>2195300</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-191500</v>
+        <v>-184100</v>
       </c>
       <c r="E15" s="3">
-        <v>-176100</v>
+        <v>-169300</v>
       </c>
       <c r="F15" s="3">
-        <v>-121200</v>
+        <v>-116500</v>
       </c>
       <c r="G15" s="3">
-        <v>-112600</v>
+        <v>-108300</v>
       </c>
       <c r="H15" s="3">
-        <v>-124500</v>
+        <v>-119800</v>
       </c>
       <c r="I15" s="3">
-        <v>-119900</v>
+        <v>-115200</v>
       </c>
       <c r="J15" s="3">
-        <v>-355400</v>
+        <v>-341700</v>
       </c>
       <c r="K15" s="3">
         <v>-137100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3481300</v>
+        <v>3347400</v>
       </c>
       <c r="E17" s="3">
-        <v>2493600</v>
+        <v>2397700</v>
       </c>
       <c r="F17" s="3">
-        <v>2474200</v>
+        <v>2379000</v>
       </c>
       <c r="G17" s="3">
-        <v>2522400</v>
+        <v>2425400</v>
       </c>
       <c r="H17" s="3">
-        <v>2283900</v>
+        <v>2196100</v>
       </c>
       <c r="I17" s="3">
-        <v>1483500</v>
+        <v>1426400</v>
       </c>
       <c r="J17" s="3">
-        <v>1042100</v>
+        <v>1002100</v>
       </c>
       <c r="K17" s="3">
         <v>1219400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>945600</v>
+        <v>909200</v>
       </c>
       <c r="E18" s="3">
-        <v>2072900</v>
+        <v>1993100</v>
       </c>
       <c r="F18" s="3">
-        <v>1722000</v>
+        <v>1655700</v>
       </c>
       <c r="G18" s="3">
-        <v>1834700</v>
+        <v>1764100</v>
       </c>
       <c r="H18" s="3">
-        <v>1812000</v>
+        <v>1742300</v>
       </c>
       <c r="I18" s="3">
-        <v>1438400</v>
+        <v>1383000</v>
       </c>
       <c r="J18" s="3">
-        <v>1366500</v>
+        <v>1314000</v>
       </c>
       <c r="K18" s="3">
         <v>975900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-865300</v>
+        <v>-832100</v>
       </c>
       <c r="E20" s="3">
-        <v>-908700</v>
+        <v>-873800</v>
       </c>
       <c r="F20" s="3">
-        <v>-781800</v>
+        <v>-751800</v>
       </c>
       <c r="G20" s="3">
-        <v>-796500</v>
+        <v>-765900</v>
       </c>
       <c r="H20" s="3">
-        <v>-780300</v>
+        <v>-750300</v>
       </c>
       <c r="I20" s="3">
-        <v>-597100</v>
+        <v>-574100</v>
       </c>
       <c r="J20" s="3">
-        <v>-559300</v>
+        <v>-537800</v>
       </c>
       <c r="K20" s="3">
         <v>-454200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>271700</v>
+        <v>261300</v>
       </c>
       <c r="E21" s="3">
-        <v>1340200</v>
+        <v>1288700</v>
       </c>
       <c r="F21" s="3">
-        <v>1061700</v>
+        <v>1020900</v>
       </c>
       <c r="G21" s="3">
-        <v>1150700</v>
+        <v>1106500</v>
       </c>
       <c r="H21" s="3">
-        <v>1157300</v>
+        <v>1112800</v>
       </c>
       <c r="I21" s="3">
-        <v>966500</v>
+        <v>929300</v>
       </c>
       <c r="J21" s="3">
-        <v>920400</v>
+        <v>885000</v>
       </c>
       <c r="K21" s="3">
         <v>730100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>80300</v>
+        <v>77200</v>
       </c>
       <c r="E23" s="3">
-        <v>1164200</v>
+        <v>1119400</v>
       </c>
       <c r="F23" s="3">
-        <v>940100</v>
+        <v>904000</v>
       </c>
       <c r="G23" s="3">
-        <v>1038100</v>
+        <v>998200</v>
       </c>
       <c r="H23" s="3">
-        <v>1031800</v>
+        <v>992100</v>
       </c>
       <c r="I23" s="3">
-        <v>841300</v>
+        <v>808900</v>
       </c>
       <c r="J23" s="3">
-        <v>807200</v>
+        <v>776100</v>
       </c>
       <c r="K23" s="3">
         <v>521700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E24" s="3">
-        <v>328400</v>
+        <v>315700</v>
       </c>
       <c r="F24" s="3">
-        <v>215700</v>
+        <v>207400</v>
       </c>
       <c r="G24" s="3">
-        <v>322000</v>
+        <v>309600</v>
       </c>
       <c r="H24" s="3">
-        <v>306000</v>
+        <v>294200</v>
       </c>
       <c r="I24" s="3">
-        <v>168800</v>
+        <v>162300</v>
       </c>
       <c r="J24" s="3">
-        <v>191800</v>
+        <v>184400</v>
       </c>
       <c r="K24" s="3">
         <v>112600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>82000</v>
+        <v>78800</v>
       </c>
       <c r="E26" s="3">
-        <v>835800</v>
+        <v>803600</v>
       </c>
       <c r="F26" s="3">
-        <v>724500</v>
+        <v>696600</v>
       </c>
       <c r="G26" s="3">
-        <v>716100</v>
+        <v>688500</v>
       </c>
       <c r="H26" s="3">
-        <v>725800</v>
+        <v>697900</v>
       </c>
       <c r="I26" s="3">
-        <v>672500</v>
+        <v>646600</v>
       </c>
       <c r="J26" s="3">
-        <v>615400</v>
+        <v>591700</v>
       </c>
       <c r="K26" s="3">
         <v>409100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71800</v>
+        <v>69000</v>
       </c>
       <c r="E27" s="3">
-        <v>810500</v>
+        <v>779300</v>
       </c>
       <c r="F27" s="3">
-        <v>691300</v>
+        <v>664700</v>
       </c>
       <c r="G27" s="3">
-        <v>679900</v>
+        <v>653800</v>
       </c>
       <c r="H27" s="3">
-        <v>702500</v>
+        <v>675500</v>
       </c>
       <c r="I27" s="3">
-        <v>649100</v>
+        <v>624100</v>
       </c>
       <c r="J27" s="3">
-        <v>414900</v>
+        <v>399000</v>
       </c>
       <c r="K27" s="3">
         <v>255600</v>
@@ -1425,13 +1425,13 @@
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>42500</v>
+        <v>40900</v>
       </c>
       <c r="I29" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="J29" s="3">
-        <v>16300</v>
+        <v>15700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>865300</v>
+        <v>832100</v>
       </c>
       <c r="E32" s="3">
-        <v>908700</v>
+        <v>873800</v>
       </c>
       <c r="F32" s="3">
-        <v>781800</v>
+        <v>751800</v>
       </c>
       <c r="G32" s="3">
-        <v>796500</v>
+        <v>765900</v>
       </c>
       <c r="H32" s="3">
-        <v>780300</v>
+        <v>750300</v>
       </c>
       <c r="I32" s="3">
-        <v>597100</v>
+        <v>574100</v>
       </c>
       <c r="J32" s="3">
-        <v>559300</v>
+        <v>537800</v>
       </c>
       <c r="K32" s="3">
         <v>454200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>71800</v>
+        <v>69000</v>
       </c>
       <c r="E33" s="3">
-        <v>810500</v>
+        <v>779300</v>
       </c>
       <c r="F33" s="3">
-        <v>691300</v>
+        <v>664700</v>
       </c>
       <c r="G33" s="3">
-        <v>679900</v>
+        <v>653800</v>
       </c>
       <c r="H33" s="3">
-        <v>745000</v>
+        <v>716300</v>
       </c>
       <c r="I33" s="3">
-        <v>654900</v>
+        <v>629700</v>
       </c>
       <c r="J33" s="3">
-        <v>431300</v>
+        <v>414700</v>
       </c>
       <c r="K33" s="3">
         <v>255600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>71800</v>
+        <v>69000</v>
       </c>
       <c r="E35" s="3">
-        <v>810500</v>
+        <v>779300</v>
       </c>
       <c r="F35" s="3">
-        <v>691300</v>
+        <v>664700</v>
       </c>
       <c r="G35" s="3">
-        <v>679900</v>
+        <v>653800</v>
       </c>
       <c r="H35" s="3">
-        <v>745000</v>
+        <v>716300</v>
       </c>
       <c r="I35" s="3">
-        <v>654900</v>
+        <v>629700</v>
       </c>
       <c r="J35" s="3">
-        <v>431300</v>
+        <v>414700</v>
       </c>
       <c r="K35" s="3">
         <v>255600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5248100</v>
+        <v>5046300</v>
       </c>
       <c r="E41" s="3">
-        <v>4746600</v>
+        <v>4564000</v>
       </c>
       <c r="F41" s="3">
-        <v>4116600</v>
+        <v>3958300</v>
       </c>
       <c r="G41" s="3">
-        <v>4036000</v>
+        <v>3880800</v>
       </c>
       <c r="H41" s="3">
-        <v>4216400</v>
+        <v>4054200</v>
       </c>
       <c r="I41" s="3">
-        <v>3716700</v>
+        <v>3573800</v>
       </c>
       <c r="J41" s="3">
-        <v>5820800</v>
+        <v>5596900</v>
       </c>
       <c r="K41" s="3">
         <v>3085400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2807400</v>
+        <v>2699400</v>
       </c>
       <c r="E42" s="3">
-        <v>3002200</v>
+        <v>2886700</v>
       </c>
       <c r="F42" s="3">
-        <v>2251100</v>
+        <v>2164600</v>
       </c>
       <c r="G42" s="3">
-        <v>1989700</v>
+        <v>1913100</v>
       </c>
       <c r="H42" s="3">
-        <v>2371000</v>
+        <v>2279800</v>
       </c>
       <c r="I42" s="3">
-        <v>2641000</v>
+        <v>2539400</v>
       </c>
       <c r="J42" s="3">
-        <v>4265100</v>
+        <v>4101000</v>
       </c>
       <c r="K42" s="3">
         <v>2951300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>651600</v>
+        <v>626600</v>
       </c>
       <c r="E47" s="3">
-        <v>615600</v>
+        <v>591900</v>
       </c>
       <c r="F47" s="3">
-        <v>558900</v>
+        <v>537400</v>
       </c>
       <c r="G47" s="3">
-        <v>406900</v>
+        <v>391300</v>
       </c>
       <c r="H47" s="3">
-        <v>337500</v>
+        <v>324600</v>
       </c>
       <c r="I47" s="3">
-        <v>142100</v>
+        <v>136600</v>
       </c>
       <c r="J47" s="3">
-        <v>350900</v>
+        <v>337400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2288700</v>
+        <v>2200700</v>
       </c>
       <c r="E48" s="3">
-        <v>1953400</v>
+        <v>1878200</v>
       </c>
       <c r="F48" s="3">
-        <v>1326400</v>
+        <v>1275400</v>
       </c>
       <c r="G48" s="3">
-        <v>1244100</v>
+        <v>1196200</v>
       </c>
       <c r="H48" s="3">
-        <v>1221300</v>
+        <v>1174300</v>
       </c>
       <c r="I48" s="3">
-        <v>1234100</v>
+        <v>1186700</v>
       </c>
       <c r="J48" s="3">
-        <v>1611800</v>
+        <v>1549800</v>
       </c>
       <c r="K48" s="3">
         <v>591800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1951900</v>
+        <v>1876800</v>
       </c>
       <c r="E49" s="3">
-        <v>1880700</v>
+        <v>1808300</v>
       </c>
       <c r="F49" s="3">
-        <v>1872500</v>
+        <v>1800500</v>
       </c>
       <c r="G49" s="3">
-        <v>1724200</v>
+        <v>1657900</v>
       </c>
       <c r="H49" s="3">
-        <v>1740400</v>
+        <v>1673500</v>
       </c>
       <c r="I49" s="3">
-        <v>1844000</v>
+        <v>1773100</v>
       </c>
       <c r="J49" s="3">
-        <v>2224700</v>
+        <v>2139100</v>
       </c>
       <c r="K49" s="3">
         <v>969100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>175600</v>
+        <v>168800</v>
       </c>
       <c r="E52" s="3">
-        <v>104300</v>
+        <v>100300</v>
       </c>
       <c r="F52" s="3">
-        <v>70500</v>
+        <v>67800</v>
       </c>
       <c r="G52" s="3">
-        <v>38600</v>
+        <v>37200</v>
       </c>
       <c r="H52" s="3">
-        <v>57900</v>
+        <v>55700</v>
       </c>
       <c r="I52" s="3">
-        <v>44300</v>
+        <v>42600</v>
       </c>
       <c r="J52" s="3">
-        <v>48800</v>
+        <v>46900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66447800</v>
+        <v>63892100</v>
       </c>
       <c r="E54" s="3">
-        <v>61382900</v>
+        <v>59022000</v>
       </c>
       <c r="F54" s="3">
-        <v>57229500</v>
+        <v>55028400</v>
       </c>
       <c r="G54" s="3">
-        <v>53016100</v>
+        <v>50977100</v>
       </c>
       <c r="H54" s="3">
-        <v>51027900</v>
+        <v>49065300</v>
       </c>
       <c r="I54" s="3">
-        <v>50172900</v>
+        <v>48243200</v>
       </c>
       <c r="J54" s="3">
-        <v>38903800</v>
+        <v>37407500</v>
       </c>
       <c r="K54" s="3">
         <v>35320400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>802700</v>
+        <v>771800</v>
       </c>
       <c r="E57" s="3">
-        <v>890100</v>
+        <v>855800</v>
       </c>
       <c r="F57" s="3">
-        <v>786500</v>
+        <v>756200</v>
       </c>
       <c r="G57" s="3">
-        <v>804300</v>
+        <v>773300</v>
       </c>
       <c r="H57" s="3">
-        <v>750700</v>
+        <v>721900</v>
       </c>
       <c r="I57" s="3">
-        <v>533500</v>
+        <v>512900</v>
       </c>
       <c r="J57" s="3">
-        <v>1233800</v>
+        <v>1186400</v>
       </c>
       <c r="K57" s="3">
         <v>705000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1931700</v>
+        <v>1857400</v>
       </c>
       <c r="E58" s="3">
-        <v>2905700</v>
+        <v>2794000</v>
       </c>
       <c r="F58" s="3">
-        <v>3936400</v>
+        <v>3785000</v>
       </c>
       <c r="G58" s="3">
-        <v>3472100</v>
+        <v>3338600</v>
       </c>
       <c r="H58" s="3">
-        <v>3610100</v>
+        <v>3471200</v>
       </c>
       <c r="I58" s="3">
-        <v>3214100</v>
+        <v>3090500</v>
       </c>
       <c r="J58" s="3">
-        <v>3286400</v>
+        <v>3160000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>236000</v>
+        <v>226900</v>
       </c>
       <c r="E59" s="3">
-        <v>199500</v>
+        <v>191900</v>
       </c>
       <c r="F59" s="3">
-        <v>181800</v>
+        <v>174800</v>
       </c>
       <c r="G59" s="3">
-        <v>115700</v>
+        <v>111300</v>
       </c>
       <c r="H59" s="3">
-        <v>175500</v>
+        <v>168700</v>
       </c>
       <c r="I59" s="3">
-        <v>198800</v>
+        <v>191100</v>
       </c>
       <c r="J59" s="3">
-        <v>420200</v>
+        <v>404100</v>
       </c>
       <c r="K59" s="3">
         <v>279100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7154700</v>
+        <v>6879500</v>
       </c>
       <c r="E61" s="3">
-        <v>6873000</v>
+        <v>6608600</v>
       </c>
       <c r="F61" s="3">
-        <v>6340000</v>
+        <v>6096200</v>
       </c>
       <c r="G61" s="3">
-        <v>6223300</v>
+        <v>5983900</v>
       </c>
       <c r="H61" s="3">
-        <v>6820200</v>
+        <v>6557900</v>
       </c>
       <c r="I61" s="3">
-        <v>7438200</v>
+        <v>7152100</v>
       </c>
       <c r="J61" s="3">
-        <v>5284900</v>
+        <v>5081700</v>
       </c>
       <c r="K61" s="3">
         <v>6705800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>578900</v>
+        <v>556700</v>
       </c>
       <c r="E62" s="3">
-        <v>645200</v>
+        <v>620400</v>
       </c>
       <c r="F62" s="3">
-        <v>546300</v>
+        <v>525300</v>
       </c>
       <c r="G62" s="3">
-        <v>577700</v>
+        <v>555500</v>
       </c>
       <c r="H62" s="3">
-        <v>541800</v>
+        <v>521000</v>
       </c>
       <c r="I62" s="3">
-        <v>377800</v>
+        <v>363300</v>
       </c>
       <c r="J62" s="3">
-        <v>275100</v>
+        <v>264500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59546100</v>
+        <v>57255800</v>
       </c>
       <c r="E66" s="3">
-        <v>54393100</v>
+        <v>52301000</v>
       </c>
       <c r="F66" s="3">
-        <v>50768800</v>
+        <v>48816200</v>
       </c>
       <c r="G66" s="3">
-        <v>47006800</v>
+        <v>45198800</v>
       </c>
       <c r="H66" s="3">
-        <v>45498300</v>
+        <v>43748400</v>
       </c>
       <c r="I66" s="3">
-        <v>45160300</v>
+        <v>43423400</v>
       </c>
       <c r="J66" s="3">
-        <v>34517100</v>
+        <v>33189500</v>
       </c>
       <c r="K66" s="3">
         <v>31947300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4687700</v>
+        <v>4507400</v>
       </c>
       <c r="E72" s="3">
-        <v>4740400</v>
+        <v>4558100</v>
       </c>
       <c r="F72" s="3">
-        <v>4239700</v>
+        <v>4076600</v>
       </c>
       <c r="G72" s="3">
-        <v>3958600</v>
+        <v>3806300</v>
       </c>
       <c r="H72" s="3">
-        <v>3604000</v>
+        <v>3465400</v>
       </c>
       <c r="I72" s="3">
-        <v>3051900</v>
+        <v>2934600</v>
       </c>
       <c r="J72" s="3">
-        <v>6803400</v>
+        <v>6541800</v>
       </c>
       <c r="K72" s="3">
         <v>3027200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6901800</v>
+        <v>6636300</v>
       </c>
       <c r="E76" s="3">
-        <v>6989800</v>
+        <v>6721000</v>
       </c>
       <c r="F76" s="3">
-        <v>6460700</v>
+        <v>6212200</v>
       </c>
       <c r="G76" s="3">
-        <v>6009400</v>
+        <v>5778200</v>
       </c>
       <c r="H76" s="3">
-        <v>5529600</v>
+        <v>5316900</v>
       </c>
       <c r="I76" s="3">
-        <v>5012700</v>
+        <v>4819900</v>
       </c>
       <c r="J76" s="3">
-        <v>4386700</v>
+        <v>4218000</v>
       </c>
       <c r="K76" s="3">
         <v>3373100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>71800</v>
+        <v>69000</v>
       </c>
       <c r="E81" s="3">
-        <v>810500</v>
+        <v>779300</v>
       </c>
       <c r="F81" s="3">
-        <v>691300</v>
+        <v>664700</v>
       </c>
       <c r="G81" s="3">
-        <v>679900</v>
+        <v>653800</v>
       </c>
       <c r="H81" s="3">
-        <v>745000</v>
+        <v>716300</v>
       </c>
       <c r="I81" s="3">
-        <v>654900</v>
+        <v>629700</v>
       </c>
       <c r="J81" s="3">
-        <v>431300</v>
+        <v>414700</v>
       </c>
       <c r="K81" s="3">
         <v>255600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>191500</v>
+        <v>184100</v>
       </c>
       <c r="E83" s="3">
-        <v>176100</v>
+        <v>169300</v>
       </c>
       <c r="F83" s="3">
-        <v>121600</v>
+        <v>116900</v>
       </c>
       <c r="G83" s="3">
-        <v>112600</v>
+        <v>108300</v>
       </c>
       <c r="H83" s="3">
-        <v>125600</v>
+        <v>120700</v>
       </c>
       <c r="I83" s="3">
-        <v>125200</v>
+        <v>120400</v>
       </c>
       <c r="J83" s="3">
-        <v>113200</v>
+        <v>108800</v>
       </c>
       <c r="K83" s="3">
         <v>208400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2919900</v>
+        <v>2807600</v>
       </c>
       <c r="E89" s="3">
-        <v>3202100</v>
+        <v>3078900</v>
       </c>
       <c r="F89" s="3">
-        <v>271100</v>
+        <v>260700</v>
       </c>
       <c r="G89" s="3">
-        <v>764300</v>
+        <v>734900</v>
       </c>
       <c r="H89" s="3">
-        <v>936400</v>
+        <v>900400</v>
       </c>
       <c r="I89" s="3">
-        <v>482700</v>
+        <v>464200</v>
       </c>
       <c r="J89" s="3">
-        <v>-1733500</v>
+        <v>-1666900</v>
       </c>
       <c r="K89" s="3">
         <v>1421800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-397800</v>
+        <v>-382500</v>
       </c>
       <c r="E91" s="3">
-        <v>-404400</v>
+        <v>-388900</v>
       </c>
       <c r="F91" s="3">
-        <v>-263700</v>
+        <v>-253500</v>
       </c>
       <c r="G91" s="3">
-        <v>-294300</v>
+        <v>-283000</v>
       </c>
       <c r="H91" s="3">
-        <v>-281500</v>
+        <v>-270600</v>
       </c>
       <c r="I91" s="3">
-        <v>-250100</v>
+        <v>-240500</v>
       </c>
       <c r="J91" s="3">
-        <v>-691300</v>
+        <v>-664700</v>
       </c>
       <c r="K91" s="3">
         <v>-497200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1955700</v>
+        <v>-1880500</v>
       </c>
       <c r="E94" s="3">
-        <v>-569600</v>
+        <v>-547700</v>
       </c>
       <c r="F94" s="3">
-        <v>-359300</v>
+        <v>-345500</v>
       </c>
       <c r="G94" s="3">
-        <v>-496100</v>
+        <v>-477000</v>
       </c>
       <c r="H94" s="3">
-        <v>-267200</v>
+        <v>-256900</v>
       </c>
       <c r="I94" s="3">
-        <v>36900</v>
+        <v>35500</v>
       </c>
       <c r="J94" s="3">
-        <v>242900</v>
+        <v>233500</v>
       </c>
       <c r="K94" s="3">
         <v>-898400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-404500</v>
+        <v>-389000</v>
       </c>
       <c r="E96" s="3">
-        <v>-268400</v>
+        <v>-258100</v>
       </c>
       <c r="F96" s="3">
-        <v>-191300</v>
+        <v>-183900</v>
       </c>
       <c r="G96" s="3">
-        <v>-292800</v>
+        <v>-281600</v>
       </c>
       <c r="H96" s="3">
-        <v>-218500</v>
+        <v>-210100</v>
       </c>
       <c r="I96" s="3">
-        <v>-204200</v>
+        <v>-196300</v>
       </c>
       <c r="J96" s="3">
-        <v>-185600</v>
+        <v>-178400</v>
       </c>
       <c r="K96" s="3">
         <v>-170600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1278000</v>
+        <v>-1228900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1367800</v>
+        <v>-1315200</v>
       </c>
       <c r="F100" s="3">
-        <v>-190500</v>
+        <v>-183200</v>
       </c>
       <c r="G100" s="3">
-        <v>-941400</v>
+        <v>-905200</v>
       </c>
       <c r="H100" s="3">
-        <v>-89400</v>
+        <v>-86000</v>
       </c>
       <c r="I100" s="3">
-        <v>-60200</v>
+        <v>-57900</v>
       </c>
       <c r="J100" s="3">
-        <v>423800</v>
+        <v>407500</v>
       </c>
       <c r="K100" s="3">
         <v>1337800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>304300</v>
+        <v>292600</v>
       </c>
       <c r="E101" s="3">
-        <v>37200</v>
+        <v>35800</v>
       </c>
       <c r="F101" s="3">
-        <v>425600</v>
+        <v>409200</v>
       </c>
       <c r="G101" s="3">
-        <v>76600</v>
+        <v>73700</v>
       </c>
       <c r="H101" s="3">
-        <v>-149600</v>
+        <v>-143800</v>
       </c>
       <c r="I101" s="3">
-        <v>928600</v>
+        <v>892900</v>
       </c>
       <c r="J101" s="3">
-        <v>552200</v>
+        <v>531000</v>
       </c>
       <c r="K101" s="3">
         <v>93400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9600</v>
+        <v>-9200</v>
       </c>
       <c r="E102" s="3">
-        <v>1301900</v>
+        <v>1251800</v>
       </c>
       <c r="F102" s="3">
-        <v>146900</v>
+        <v>141300</v>
       </c>
       <c r="G102" s="3">
-        <v>-596600</v>
+        <v>-573700</v>
       </c>
       <c r="H102" s="3">
-        <v>430200</v>
+        <v>413700</v>
       </c>
       <c r="I102" s="3">
-        <v>1388100</v>
+        <v>1334700</v>
       </c>
       <c r="J102" s="3">
-        <v>-514600</v>
+        <v>-494800</v>
       </c>
       <c r="K102" s="3">
         <v>1954700</v>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4256600</v>
+        <v>4426900</v>
       </c>
       <c r="E8" s="3">
-        <v>4390900</v>
+        <v>4566500</v>
       </c>
       <c r="F8" s="3">
-        <v>4034800</v>
+        <v>4196200</v>
       </c>
       <c r="G8" s="3">
-        <v>4189500</v>
+        <v>4357100</v>
       </c>
       <c r="H8" s="3">
-        <v>3938400</v>
+        <v>4095900</v>
       </c>
       <c r="I8" s="3">
-        <v>2809500</v>
+        <v>2921800</v>
       </c>
       <c r="J8" s="3">
-        <v>2316000</v>
+        <v>2408700</v>
       </c>
       <c r="K8" s="3">
         <v>2195300</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-184100</v>
+        <v>-191500</v>
       </c>
       <c r="E15" s="3">
-        <v>-169300</v>
+        <v>-176100</v>
       </c>
       <c r="F15" s="3">
-        <v>-116500</v>
+        <v>-121200</v>
       </c>
       <c r="G15" s="3">
-        <v>-108300</v>
+        <v>-112600</v>
       </c>
       <c r="H15" s="3">
-        <v>-119800</v>
+        <v>-124500</v>
       </c>
       <c r="I15" s="3">
-        <v>-115200</v>
+        <v>-119900</v>
       </c>
       <c r="J15" s="3">
-        <v>-341700</v>
+        <v>-355400</v>
       </c>
       <c r="K15" s="3">
         <v>-137100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3347400</v>
+        <v>3481300</v>
       </c>
       <c r="E17" s="3">
-        <v>2397700</v>
+        <v>2493600</v>
       </c>
       <c r="F17" s="3">
-        <v>2379000</v>
+        <v>2474200</v>
       </c>
       <c r="G17" s="3">
-        <v>2425400</v>
+        <v>2522400</v>
       </c>
       <c r="H17" s="3">
-        <v>2196100</v>
+        <v>2283900</v>
       </c>
       <c r="I17" s="3">
-        <v>1426400</v>
+        <v>1483500</v>
       </c>
       <c r="J17" s="3">
-        <v>1002100</v>
+        <v>1042100</v>
       </c>
       <c r="K17" s="3">
         <v>1219400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>909200</v>
+        <v>945600</v>
       </c>
       <c r="E18" s="3">
-        <v>1993100</v>
+        <v>2072900</v>
       </c>
       <c r="F18" s="3">
-        <v>1655700</v>
+        <v>1722000</v>
       </c>
       <c r="G18" s="3">
-        <v>1764100</v>
+        <v>1834700</v>
       </c>
       <c r="H18" s="3">
-        <v>1742300</v>
+        <v>1812000</v>
       </c>
       <c r="I18" s="3">
-        <v>1383000</v>
+        <v>1438400</v>
       </c>
       <c r="J18" s="3">
-        <v>1314000</v>
+        <v>1366500</v>
       </c>
       <c r="K18" s="3">
         <v>975900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-832100</v>
+        <v>-865300</v>
       </c>
       <c r="E20" s="3">
-        <v>-873800</v>
+        <v>-908700</v>
       </c>
       <c r="F20" s="3">
-        <v>-751800</v>
+        <v>-781800</v>
       </c>
       <c r="G20" s="3">
-        <v>-765900</v>
+        <v>-796500</v>
       </c>
       <c r="H20" s="3">
-        <v>-750300</v>
+        <v>-780300</v>
       </c>
       <c r="I20" s="3">
-        <v>-574100</v>
+        <v>-597100</v>
       </c>
       <c r="J20" s="3">
-        <v>-537800</v>
+        <v>-559300</v>
       </c>
       <c r="K20" s="3">
         <v>-454200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>261300</v>
+        <v>279100</v>
       </c>
       <c r="E21" s="3">
-        <v>1288700</v>
+        <v>1347000</v>
       </c>
       <c r="F21" s="3">
-        <v>1020900</v>
+        <v>1066400</v>
       </c>
       <c r="G21" s="3">
-        <v>1106500</v>
+        <v>1155000</v>
       </c>
       <c r="H21" s="3">
-        <v>1112800</v>
+        <v>1162100</v>
       </c>
       <c r="I21" s="3">
-        <v>929300</v>
+        <v>971300</v>
       </c>
       <c r="J21" s="3">
-        <v>885000</v>
+        <v>924700</v>
       </c>
       <c r="K21" s="3">
         <v>730100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>77200</v>
+        <v>80300</v>
       </c>
       <c r="E23" s="3">
-        <v>1119400</v>
+        <v>1164200</v>
       </c>
       <c r="F23" s="3">
-        <v>904000</v>
+        <v>940100</v>
       </c>
       <c r="G23" s="3">
-        <v>998200</v>
+        <v>1038100</v>
       </c>
       <c r="H23" s="3">
-        <v>992100</v>
+        <v>1031800</v>
       </c>
       <c r="I23" s="3">
-        <v>808900</v>
+        <v>841300</v>
       </c>
       <c r="J23" s="3">
-        <v>776100</v>
+        <v>807200</v>
       </c>
       <c r="K23" s="3">
         <v>521700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E24" s="3">
-        <v>315700</v>
+        <v>328400</v>
       </c>
       <c r="F24" s="3">
-        <v>207400</v>
+        <v>215700</v>
       </c>
       <c r="G24" s="3">
-        <v>309600</v>
+        <v>322000</v>
       </c>
       <c r="H24" s="3">
-        <v>294200</v>
+        <v>306000</v>
       </c>
       <c r="I24" s="3">
-        <v>162300</v>
+        <v>168800</v>
       </c>
       <c r="J24" s="3">
-        <v>184400</v>
+        <v>191800</v>
       </c>
       <c r="K24" s="3">
         <v>112600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>78800</v>
+        <v>82000</v>
       </c>
       <c r="E26" s="3">
-        <v>803600</v>
+        <v>835800</v>
       </c>
       <c r="F26" s="3">
-        <v>696600</v>
+        <v>724500</v>
       </c>
       <c r="G26" s="3">
-        <v>688500</v>
+        <v>716100</v>
       </c>
       <c r="H26" s="3">
-        <v>697900</v>
+        <v>725800</v>
       </c>
       <c r="I26" s="3">
-        <v>646600</v>
+        <v>672500</v>
       </c>
       <c r="J26" s="3">
-        <v>591700</v>
+        <v>615400</v>
       </c>
       <c r="K26" s="3">
         <v>409100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69000</v>
+        <v>71800</v>
       </c>
       <c r="E27" s="3">
-        <v>779300</v>
+        <v>810500</v>
       </c>
       <c r="F27" s="3">
-        <v>664700</v>
+        <v>691300</v>
       </c>
       <c r="G27" s="3">
-        <v>653800</v>
+        <v>679900</v>
       </c>
       <c r="H27" s="3">
-        <v>675500</v>
+        <v>702500</v>
       </c>
       <c r="I27" s="3">
-        <v>624100</v>
+        <v>649100</v>
       </c>
       <c r="J27" s="3">
-        <v>399000</v>
+        <v>414900</v>
       </c>
       <c r="K27" s="3">
         <v>255600</v>
@@ -1425,13 +1425,13 @@
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>40900</v>
+        <v>42500</v>
       </c>
       <c r="I29" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="J29" s="3">
-        <v>15700</v>
+        <v>16300</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>832100</v>
+        <v>865300</v>
       </c>
       <c r="E32" s="3">
-        <v>873800</v>
+        <v>908700</v>
       </c>
       <c r="F32" s="3">
-        <v>751800</v>
+        <v>781800</v>
       </c>
       <c r="G32" s="3">
-        <v>765900</v>
+        <v>796500</v>
       </c>
       <c r="H32" s="3">
-        <v>750300</v>
+        <v>780300</v>
       </c>
       <c r="I32" s="3">
-        <v>574100</v>
+        <v>597100</v>
       </c>
       <c r="J32" s="3">
-        <v>537800</v>
+        <v>559300</v>
       </c>
       <c r="K32" s="3">
         <v>454200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69000</v>
+        <v>71800</v>
       </c>
       <c r="E33" s="3">
-        <v>779300</v>
+        <v>810500</v>
       </c>
       <c r="F33" s="3">
-        <v>664700</v>
+        <v>691300</v>
       </c>
       <c r="G33" s="3">
-        <v>653800</v>
+        <v>679900</v>
       </c>
       <c r="H33" s="3">
-        <v>716300</v>
+        <v>745000</v>
       </c>
       <c r="I33" s="3">
-        <v>629700</v>
+        <v>654900</v>
       </c>
       <c r="J33" s="3">
-        <v>414700</v>
+        <v>431300</v>
       </c>
       <c r="K33" s="3">
         <v>255600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69000</v>
+        <v>71800</v>
       </c>
       <c r="E35" s="3">
-        <v>779300</v>
+        <v>810500</v>
       </c>
       <c r="F35" s="3">
-        <v>664700</v>
+        <v>691300</v>
       </c>
       <c r="G35" s="3">
-        <v>653800</v>
+        <v>679900</v>
       </c>
       <c r="H35" s="3">
-        <v>716300</v>
+        <v>745000</v>
       </c>
       <c r="I35" s="3">
-        <v>629700</v>
+        <v>654900</v>
       </c>
       <c r="J35" s="3">
-        <v>414700</v>
+        <v>431300</v>
       </c>
       <c r="K35" s="3">
         <v>255600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5046300</v>
+        <v>5248100</v>
       </c>
       <c r="E41" s="3">
-        <v>4564000</v>
+        <v>4746600</v>
       </c>
       <c r="F41" s="3">
-        <v>3958300</v>
+        <v>4116600</v>
       </c>
       <c r="G41" s="3">
-        <v>3880800</v>
+        <v>4036000</v>
       </c>
       <c r="H41" s="3">
-        <v>4054200</v>
+        <v>4216400</v>
       </c>
       <c r="I41" s="3">
-        <v>3573800</v>
+        <v>3716700</v>
       </c>
       <c r="J41" s="3">
-        <v>5596900</v>
+        <v>5820800</v>
       </c>
       <c r="K41" s="3">
         <v>3085400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2699400</v>
+        <v>2807400</v>
       </c>
       <c r="E42" s="3">
-        <v>2886700</v>
+        <v>3002200</v>
       </c>
       <c r="F42" s="3">
-        <v>2164600</v>
+        <v>2251100</v>
       </c>
       <c r="G42" s="3">
-        <v>1913100</v>
+        <v>1989700</v>
       </c>
       <c r="H42" s="3">
-        <v>2279800</v>
+        <v>2371000</v>
       </c>
       <c r="I42" s="3">
-        <v>2539400</v>
+        <v>2641000</v>
       </c>
       <c r="J42" s="3">
-        <v>4101000</v>
+        <v>4265100</v>
       </c>
       <c r="K42" s="3">
         <v>2951300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>626600</v>
+        <v>651600</v>
       </c>
       <c r="E47" s="3">
-        <v>591900</v>
+        <v>615600</v>
       </c>
       <c r="F47" s="3">
-        <v>537400</v>
+        <v>558900</v>
       </c>
       <c r="G47" s="3">
-        <v>391300</v>
+        <v>406900</v>
       </c>
       <c r="H47" s="3">
-        <v>324600</v>
+        <v>337500</v>
       </c>
       <c r="I47" s="3">
-        <v>136600</v>
+        <v>142100</v>
       </c>
       <c r="J47" s="3">
-        <v>337400</v>
+        <v>350900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200700</v>
+        <v>2288700</v>
       </c>
       <c r="E48" s="3">
-        <v>1878200</v>
+        <v>1953400</v>
       </c>
       <c r="F48" s="3">
-        <v>1275400</v>
+        <v>1326400</v>
       </c>
       <c r="G48" s="3">
-        <v>1196200</v>
+        <v>1244100</v>
       </c>
       <c r="H48" s="3">
-        <v>1174300</v>
+        <v>1221300</v>
       </c>
       <c r="I48" s="3">
-        <v>1186700</v>
+        <v>1234100</v>
       </c>
       <c r="J48" s="3">
-        <v>1549800</v>
+        <v>1611800</v>
       </c>
       <c r="K48" s="3">
         <v>591800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1876800</v>
+        <v>1951900</v>
       </c>
       <c r="E49" s="3">
-        <v>1808300</v>
+        <v>1880700</v>
       </c>
       <c r="F49" s="3">
-        <v>1800500</v>
+        <v>1872500</v>
       </c>
       <c r="G49" s="3">
-        <v>1657900</v>
+        <v>1724200</v>
       </c>
       <c r="H49" s="3">
-        <v>1673500</v>
+        <v>1740400</v>
       </c>
       <c r="I49" s="3">
-        <v>1773100</v>
+        <v>1844000</v>
       </c>
       <c r="J49" s="3">
-        <v>2139100</v>
+        <v>2224700</v>
       </c>
       <c r="K49" s="3">
         <v>969100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>168800</v>
+        <v>175600</v>
       </c>
       <c r="E52" s="3">
-        <v>100300</v>
+        <v>104300</v>
       </c>
       <c r="F52" s="3">
-        <v>67800</v>
+        <v>70500</v>
       </c>
       <c r="G52" s="3">
-        <v>37200</v>
+        <v>38600</v>
       </c>
       <c r="H52" s="3">
-        <v>55700</v>
+        <v>57900</v>
       </c>
       <c r="I52" s="3">
-        <v>42600</v>
+        <v>44300</v>
       </c>
       <c r="J52" s="3">
-        <v>46900</v>
+        <v>48800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63892100</v>
+        <v>66447800</v>
       </c>
       <c r="E54" s="3">
-        <v>59022000</v>
+        <v>61382900</v>
       </c>
       <c r="F54" s="3">
-        <v>55028400</v>
+        <v>57229500</v>
       </c>
       <c r="G54" s="3">
-        <v>50977100</v>
+        <v>53016100</v>
       </c>
       <c r="H54" s="3">
-        <v>49065300</v>
+        <v>51027900</v>
       </c>
       <c r="I54" s="3">
-        <v>48243200</v>
+        <v>50172900</v>
       </c>
       <c r="J54" s="3">
-        <v>37407500</v>
+        <v>38903800</v>
       </c>
       <c r="K54" s="3">
         <v>35320400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>771800</v>
+        <v>802700</v>
       </c>
       <c r="E57" s="3">
-        <v>855800</v>
+        <v>890100</v>
       </c>
       <c r="F57" s="3">
-        <v>756200</v>
+        <v>786500</v>
       </c>
       <c r="G57" s="3">
-        <v>773300</v>
+        <v>804300</v>
       </c>
       <c r="H57" s="3">
-        <v>721900</v>
+        <v>750700</v>
       </c>
       <c r="I57" s="3">
-        <v>512900</v>
+        <v>533500</v>
       </c>
       <c r="J57" s="3">
-        <v>1186400</v>
+        <v>1233800</v>
       </c>
       <c r="K57" s="3">
         <v>705000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1857400</v>
+        <v>1931700</v>
       </c>
       <c r="E58" s="3">
-        <v>2794000</v>
+        <v>2905700</v>
       </c>
       <c r="F58" s="3">
-        <v>3785000</v>
+        <v>3936400</v>
       </c>
       <c r="G58" s="3">
-        <v>3338600</v>
+        <v>3472100</v>
       </c>
       <c r="H58" s="3">
-        <v>3471200</v>
+        <v>3610100</v>
       </c>
       <c r="I58" s="3">
-        <v>3090500</v>
+        <v>3214100</v>
       </c>
       <c r="J58" s="3">
-        <v>3160000</v>
+        <v>3286400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>226900</v>
+        <v>236000</v>
       </c>
       <c r="E59" s="3">
-        <v>191900</v>
+        <v>199500</v>
       </c>
       <c r="F59" s="3">
-        <v>174800</v>
+        <v>181800</v>
       </c>
       <c r="G59" s="3">
-        <v>111300</v>
+        <v>115700</v>
       </c>
       <c r="H59" s="3">
-        <v>168700</v>
+        <v>175500</v>
       </c>
       <c r="I59" s="3">
-        <v>191100</v>
+        <v>198800</v>
       </c>
       <c r="J59" s="3">
-        <v>404100</v>
+        <v>420200</v>
       </c>
       <c r="K59" s="3">
         <v>279100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6879500</v>
+        <v>7154700</v>
       </c>
       <c r="E61" s="3">
-        <v>6608600</v>
+        <v>6873000</v>
       </c>
       <c r="F61" s="3">
-        <v>6096200</v>
+        <v>6340000</v>
       </c>
       <c r="G61" s="3">
-        <v>5983900</v>
+        <v>6223300</v>
       </c>
       <c r="H61" s="3">
-        <v>6557900</v>
+        <v>6820200</v>
       </c>
       <c r="I61" s="3">
-        <v>7152100</v>
+        <v>7438200</v>
       </c>
       <c r="J61" s="3">
-        <v>5081700</v>
+        <v>5284900</v>
       </c>
       <c r="K61" s="3">
         <v>6705800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>556700</v>
+        <v>578900</v>
       </c>
       <c r="E62" s="3">
-        <v>620400</v>
+        <v>645200</v>
       </c>
       <c r="F62" s="3">
-        <v>525300</v>
+        <v>546300</v>
       </c>
       <c r="G62" s="3">
-        <v>555500</v>
+        <v>577700</v>
       </c>
       <c r="H62" s="3">
-        <v>521000</v>
+        <v>541800</v>
       </c>
       <c r="I62" s="3">
-        <v>363300</v>
+        <v>377800</v>
       </c>
       <c r="J62" s="3">
-        <v>264500</v>
+        <v>275100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57255800</v>
+        <v>59546100</v>
       </c>
       <c r="E66" s="3">
-        <v>52301000</v>
+        <v>54393100</v>
       </c>
       <c r="F66" s="3">
-        <v>48816200</v>
+        <v>50768800</v>
       </c>
       <c r="G66" s="3">
-        <v>45198800</v>
+        <v>47006800</v>
       </c>
       <c r="H66" s="3">
-        <v>43748400</v>
+        <v>45498300</v>
       </c>
       <c r="I66" s="3">
-        <v>43423400</v>
+        <v>45160300</v>
       </c>
       <c r="J66" s="3">
-        <v>33189500</v>
+        <v>34517100</v>
       </c>
       <c r="K66" s="3">
         <v>31947300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4507400</v>
+        <v>4687700</v>
       </c>
       <c r="E72" s="3">
-        <v>4558100</v>
+        <v>4740400</v>
       </c>
       <c r="F72" s="3">
-        <v>4076600</v>
+        <v>4239700</v>
       </c>
       <c r="G72" s="3">
-        <v>3806300</v>
+        <v>3958600</v>
       </c>
       <c r="H72" s="3">
-        <v>3465400</v>
+        <v>3604000</v>
       </c>
       <c r="I72" s="3">
-        <v>2934600</v>
+        <v>3051900</v>
       </c>
       <c r="J72" s="3">
-        <v>6541800</v>
+        <v>6803400</v>
       </c>
       <c r="K72" s="3">
         <v>3027200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6636300</v>
+        <v>6901800</v>
       </c>
       <c r="E76" s="3">
-        <v>6721000</v>
+        <v>6989800</v>
       </c>
       <c r="F76" s="3">
-        <v>6212200</v>
+        <v>6460700</v>
       </c>
       <c r="G76" s="3">
-        <v>5778200</v>
+        <v>6009400</v>
       </c>
       <c r="H76" s="3">
-        <v>5316900</v>
+        <v>5529600</v>
       </c>
       <c r="I76" s="3">
-        <v>4819900</v>
+        <v>5012700</v>
       </c>
       <c r="J76" s="3">
-        <v>4218000</v>
+        <v>4386700</v>
       </c>
       <c r="K76" s="3">
         <v>3373100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69000</v>
+        <v>71800</v>
       </c>
       <c r="E81" s="3">
-        <v>779300</v>
+        <v>810500</v>
       </c>
       <c r="F81" s="3">
-        <v>664700</v>
+        <v>691300</v>
       </c>
       <c r="G81" s="3">
-        <v>653800</v>
+        <v>679900</v>
       </c>
       <c r="H81" s="3">
-        <v>716300</v>
+        <v>745000</v>
       </c>
       <c r="I81" s="3">
-        <v>629700</v>
+        <v>654900</v>
       </c>
       <c r="J81" s="3">
-        <v>414700</v>
+        <v>431300</v>
       </c>
       <c r="K81" s="3">
         <v>255600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>184100</v>
+        <v>191500</v>
       </c>
       <c r="E83" s="3">
-        <v>169300</v>
+        <v>176100</v>
       </c>
       <c r="F83" s="3">
-        <v>116900</v>
+        <v>121600</v>
       </c>
       <c r="G83" s="3">
-        <v>108300</v>
+        <v>112600</v>
       </c>
       <c r="H83" s="3">
-        <v>120700</v>
+        <v>125600</v>
       </c>
       <c r="I83" s="3">
-        <v>120400</v>
+        <v>125200</v>
       </c>
       <c r="J83" s="3">
-        <v>108800</v>
+        <v>113200</v>
       </c>
       <c r="K83" s="3">
         <v>208400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2807600</v>
+        <v>2919900</v>
       </c>
       <c r="E89" s="3">
-        <v>3078900</v>
+        <v>3202100</v>
       </c>
       <c r="F89" s="3">
-        <v>260700</v>
+        <v>271100</v>
       </c>
       <c r="G89" s="3">
-        <v>734900</v>
+        <v>764300</v>
       </c>
       <c r="H89" s="3">
-        <v>900400</v>
+        <v>936400</v>
       </c>
       <c r="I89" s="3">
-        <v>464200</v>
+        <v>482700</v>
       </c>
       <c r="J89" s="3">
-        <v>-1666900</v>
+        <v>-1733500</v>
       </c>
       <c r="K89" s="3">
         <v>1421800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-382500</v>
+        <v>-397800</v>
       </c>
       <c r="E91" s="3">
-        <v>-388900</v>
+        <v>-404400</v>
       </c>
       <c r="F91" s="3">
-        <v>-253500</v>
+        <v>-263700</v>
       </c>
       <c r="G91" s="3">
-        <v>-283000</v>
+        <v>-294300</v>
       </c>
       <c r="H91" s="3">
-        <v>-270600</v>
+        <v>-281500</v>
       </c>
       <c r="I91" s="3">
-        <v>-240500</v>
+        <v>-250100</v>
       </c>
       <c r="J91" s="3">
-        <v>-664700</v>
+        <v>-691300</v>
       </c>
       <c r="K91" s="3">
         <v>-497200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1880500</v>
+        <v>-1955700</v>
       </c>
       <c r="E94" s="3">
-        <v>-547700</v>
+        <v>-569600</v>
       </c>
       <c r="F94" s="3">
-        <v>-345500</v>
+        <v>-359300</v>
       </c>
       <c r="G94" s="3">
-        <v>-477000</v>
+        <v>-496100</v>
       </c>
       <c r="H94" s="3">
-        <v>-256900</v>
+        <v>-267200</v>
       </c>
       <c r="I94" s="3">
-        <v>35500</v>
+        <v>36900</v>
       </c>
       <c r="J94" s="3">
-        <v>233500</v>
+        <v>242900</v>
       </c>
       <c r="K94" s="3">
         <v>-898400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-389000</v>
+        <v>-404500</v>
       </c>
       <c r="E96" s="3">
-        <v>-258100</v>
+        <v>-268400</v>
       </c>
       <c r="F96" s="3">
-        <v>-183900</v>
+        <v>-191300</v>
       </c>
       <c r="G96" s="3">
-        <v>-281600</v>
+        <v>-292800</v>
       </c>
       <c r="H96" s="3">
-        <v>-210100</v>
+        <v>-218500</v>
       </c>
       <c r="I96" s="3">
-        <v>-196300</v>
+        <v>-204200</v>
       </c>
       <c r="J96" s="3">
-        <v>-178400</v>
+        <v>-185600</v>
       </c>
       <c r="K96" s="3">
         <v>-170600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1228900</v>
+        <v>-1278000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1315200</v>
+        <v>-1367800</v>
       </c>
       <c r="F100" s="3">
-        <v>-183200</v>
+        <v>-190500</v>
       </c>
       <c r="G100" s="3">
-        <v>-905200</v>
+        <v>-941400</v>
       </c>
       <c r="H100" s="3">
-        <v>-86000</v>
+        <v>-89400</v>
       </c>
       <c r="I100" s="3">
-        <v>-57900</v>
+        <v>-60200</v>
       </c>
       <c r="J100" s="3">
-        <v>407500</v>
+        <v>423800</v>
       </c>
       <c r="K100" s="3">
         <v>1337800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>292600</v>
+        <v>304300</v>
       </c>
       <c r="E101" s="3">
-        <v>35800</v>
+        <v>37200</v>
       </c>
       <c r="F101" s="3">
-        <v>409200</v>
+        <v>425600</v>
       </c>
       <c r="G101" s="3">
-        <v>73700</v>
+        <v>76600</v>
       </c>
       <c r="H101" s="3">
-        <v>-143800</v>
+        <v>-149600</v>
       </c>
       <c r="I101" s="3">
-        <v>892900</v>
+        <v>928600</v>
       </c>
       <c r="J101" s="3">
-        <v>531000</v>
+        <v>552200</v>
       </c>
       <c r="K101" s="3">
         <v>93400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9200</v>
+        <v>-9600</v>
       </c>
       <c r="E102" s="3">
-        <v>1251800</v>
+        <v>1301900</v>
       </c>
       <c r="F102" s="3">
-        <v>141300</v>
+        <v>146900</v>
       </c>
       <c r="G102" s="3">
-        <v>-573700</v>
+        <v>-596600</v>
       </c>
       <c r="H102" s="3">
-        <v>413700</v>
+        <v>430200</v>
       </c>
       <c r="I102" s="3">
-        <v>1334700</v>
+        <v>1388100</v>
       </c>
       <c r="J102" s="3">
-        <v>-494800</v>
+        <v>-514600</v>
       </c>
       <c r="K102" s="3">
         <v>1954700</v>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>CIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4426900</v>
+        <v>3864500</v>
       </c>
       <c r="E8" s="3">
-        <v>4566500</v>
+        <v>4086300</v>
       </c>
       <c r="F8" s="3">
-        <v>4196200</v>
+        <v>4215200</v>
       </c>
       <c r="G8" s="3">
-        <v>4357100</v>
+        <v>3873400</v>
       </c>
       <c r="H8" s="3">
-        <v>4095900</v>
+        <v>4021900</v>
       </c>
       <c r="I8" s="3">
-        <v>2921800</v>
+        <v>3780900</v>
       </c>
       <c r="J8" s="3">
+        <v>2697100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2408700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2195300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2298600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1962000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-191500</v>
+        <v>-205200</v>
       </c>
       <c r="E15" s="3">
-        <v>-176100</v>
+        <v>-176700</v>
       </c>
       <c r="F15" s="3">
-        <v>-121200</v>
+        <v>-162500</v>
       </c>
       <c r="G15" s="3">
-        <v>-112600</v>
+        <v>-111900</v>
       </c>
       <c r="H15" s="3">
-        <v>-124500</v>
+        <v>-103900</v>
       </c>
       <c r="I15" s="3">
-        <v>-119900</v>
+        <v>-115000</v>
       </c>
       <c r="J15" s="3">
+        <v>-110600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-355400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-137100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-109600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-90500</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3481300</v>
+        <v>1625300</v>
       </c>
       <c r="E17" s="3">
-        <v>2493600</v>
+        <v>3213500</v>
       </c>
       <c r="F17" s="3">
-        <v>2474200</v>
+        <v>2301800</v>
       </c>
       <c r="G17" s="3">
-        <v>2522400</v>
+        <v>2283900</v>
       </c>
       <c r="H17" s="3">
-        <v>2283900</v>
+        <v>2328400</v>
       </c>
       <c r="I17" s="3">
-        <v>1483500</v>
+        <v>2108200</v>
       </c>
       <c r="J17" s="3">
+        <v>1369300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1042100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1219400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1240600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>951200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>945600</v>
+        <v>2239200</v>
       </c>
       <c r="E18" s="3">
-        <v>2072900</v>
+        <v>872900</v>
       </c>
       <c r="F18" s="3">
-        <v>1722000</v>
+        <v>1913400</v>
       </c>
       <c r="G18" s="3">
-        <v>1834700</v>
+        <v>1589500</v>
       </c>
       <c r="H18" s="3">
-        <v>1812000</v>
+        <v>1693500</v>
       </c>
       <c r="I18" s="3">
-        <v>1438400</v>
+        <v>1672600</v>
       </c>
       <c r="J18" s="3">
+        <v>1327700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1366500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>975900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1058000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1010800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-865300</v>
+        <v>-803000</v>
       </c>
       <c r="E20" s="3">
-        <v>-908700</v>
+        <v>-798800</v>
       </c>
       <c r="F20" s="3">
-        <v>-781800</v>
+        <v>-838800</v>
       </c>
       <c r="G20" s="3">
-        <v>-796500</v>
+        <v>-721700</v>
       </c>
       <c r="H20" s="3">
-        <v>-780300</v>
+        <v>-735300</v>
       </c>
       <c r="I20" s="3">
-        <v>-597100</v>
+        <v>-720200</v>
       </c>
       <c r="J20" s="3">
+        <v>-551200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-559300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-454200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-405600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-302700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>279100</v>
+        <v>1650000</v>
       </c>
       <c r="E21" s="3">
-        <v>1347000</v>
+        <v>258200</v>
       </c>
       <c r="F21" s="3">
-        <v>1066400</v>
+        <v>1243900</v>
       </c>
       <c r="G21" s="3">
-        <v>1155000</v>
+        <v>984800</v>
       </c>
       <c r="H21" s="3">
-        <v>1162100</v>
+        <v>1066500</v>
       </c>
       <c r="I21" s="3">
-        <v>971300</v>
+        <v>1073100</v>
       </c>
       <c r="J21" s="3">
+        <v>896900</v>
+      </c>
+      <c r="K21" s="3">
         <v>924700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>730100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>814700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>838300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>80300</v>
+        <v>1436200</v>
       </c>
       <c r="E23" s="3">
-        <v>1164200</v>
+        <v>74100</v>
       </c>
       <c r="F23" s="3">
-        <v>940100</v>
+        <v>1074600</v>
       </c>
       <c r="G23" s="3">
-        <v>1038100</v>
+        <v>867800</v>
       </c>
       <c r="H23" s="3">
-        <v>1031800</v>
+        <v>958300</v>
       </c>
       <c r="I23" s="3">
-        <v>841300</v>
+        <v>952400</v>
       </c>
       <c r="J23" s="3">
+        <v>776600</v>
+      </c>
+      <c r="K23" s="3">
         <v>807200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>521700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>652500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>708100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1700</v>
+        <v>426300</v>
       </c>
       <c r="E24" s="3">
-        <v>328400</v>
+        <v>-1600</v>
       </c>
       <c r="F24" s="3">
-        <v>215700</v>
+        <v>303100</v>
       </c>
       <c r="G24" s="3">
-        <v>322000</v>
+        <v>199100</v>
       </c>
       <c r="H24" s="3">
-        <v>306000</v>
+        <v>297300</v>
       </c>
       <c r="I24" s="3">
-        <v>168800</v>
+        <v>282400</v>
       </c>
       <c r="J24" s="3">
+        <v>155800</v>
+      </c>
+      <c r="K24" s="3">
         <v>191800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>112600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>140100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>155300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>82000</v>
+        <v>1009900</v>
       </c>
       <c r="E26" s="3">
-        <v>835800</v>
+        <v>75700</v>
       </c>
       <c r="F26" s="3">
-        <v>724500</v>
+        <v>771500</v>
       </c>
       <c r="G26" s="3">
-        <v>716100</v>
+        <v>668700</v>
       </c>
       <c r="H26" s="3">
-        <v>725800</v>
+        <v>661000</v>
       </c>
       <c r="I26" s="3">
-        <v>672500</v>
+        <v>669900</v>
       </c>
       <c r="J26" s="3">
+        <v>620700</v>
+      </c>
+      <c r="K26" s="3">
         <v>615400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>409100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>512300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>552800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71800</v>
+        <v>980800</v>
       </c>
       <c r="E27" s="3">
-        <v>810500</v>
+        <v>66200</v>
       </c>
       <c r="F27" s="3">
-        <v>691300</v>
+        <v>748200</v>
       </c>
       <c r="G27" s="3">
-        <v>679900</v>
+        <v>638100</v>
       </c>
       <c r="H27" s="3">
-        <v>702500</v>
+        <v>627600</v>
       </c>
       <c r="I27" s="3">
-        <v>649100</v>
+        <v>648400</v>
       </c>
       <c r="J27" s="3">
+        <v>599100</v>
+      </c>
+      <c r="K27" s="3">
         <v>414900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>255600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>286600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>194100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,27 +1484,30 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>42500</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>5900</v>
+        <v>39200</v>
       </c>
       <c r="J29" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K29" s="3">
         <v>16300</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>8800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>28700</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>865300</v>
+        <v>803000</v>
       </c>
       <c r="E32" s="3">
-        <v>908700</v>
+        <v>798800</v>
       </c>
       <c r="F32" s="3">
-        <v>781800</v>
+        <v>838800</v>
       </c>
       <c r="G32" s="3">
-        <v>796500</v>
+        <v>721700</v>
       </c>
       <c r="H32" s="3">
-        <v>780300</v>
+        <v>735300</v>
       </c>
       <c r="I32" s="3">
-        <v>597100</v>
+        <v>720200</v>
       </c>
       <c r="J32" s="3">
+        <v>551200</v>
+      </c>
+      <c r="K32" s="3">
         <v>559300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>454200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>405600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>302700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>71800</v>
+        <v>980800</v>
       </c>
       <c r="E33" s="3">
-        <v>810500</v>
+        <v>66200</v>
       </c>
       <c r="F33" s="3">
-        <v>691300</v>
+        <v>748200</v>
       </c>
       <c r="G33" s="3">
-        <v>679900</v>
+        <v>638100</v>
       </c>
       <c r="H33" s="3">
-        <v>745000</v>
+        <v>627600</v>
       </c>
       <c r="I33" s="3">
-        <v>654900</v>
+        <v>687700</v>
       </c>
       <c r="J33" s="3">
+        <v>604500</v>
+      </c>
+      <c r="K33" s="3">
         <v>431300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>255600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>295400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>222800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>71800</v>
+        <v>980800</v>
       </c>
       <c r="E35" s="3">
-        <v>810500</v>
+        <v>66200</v>
       </c>
       <c r="F35" s="3">
-        <v>691300</v>
+        <v>748200</v>
       </c>
       <c r="G35" s="3">
-        <v>679900</v>
+        <v>638100</v>
       </c>
       <c r="H35" s="3">
-        <v>745000</v>
+        <v>627600</v>
       </c>
       <c r="I35" s="3">
-        <v>654900</v>
+        <v>687700</v>
       </c>
       <c r="J35" s="3">
+        <v>604500</v>
+      </c>
+      <c r="K35" s="3">
         <v>431300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>255600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>295400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>222800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5248100</v>
+        <v>5555400</v>
       </c>
       <c r="E41" s="3">
-        <v>4746600</v>
+        <v>4844400</v>
       </c>
       <c r="F41" s="3">
-        <v>4116600</v>
+        <v>4381500</v>
       </c>
       <c r="G41" s="3">
-        <v>4036000</v>
+        <v>3799900</v>
       </c>
       <c r="H41" s="3">
-        <v>4216400</v>
+        <v>3725500</v>
       </c>
       <c r="I41" s="3">
-        <v>3716700</v>
+        <v>3892100</v>
       </c>
       <c r="J41" s="3">
+        <v>3430800</v>
+      </c>
+      <c r="K41" s="3">
         <v>5820800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3085400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2143200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2250000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2807400</v>
+        <v>2280900</v>
       </c>
       <c r="E42" s="3">
-        <v>3002200</v>
+        <v>2591400</v>
       </c>
       <c r="F42" s="3">
-        <v>2251100</v>
+        <v>2771300</v>
       </c>
       <c r="G42" s="3">
-        <v>1989700</v>
+        <v>2078000</v>
       </c>
       <c r="H42" s="3">
-        <v>2371000</v>
+        <v>1836600</v>
       </c>
       <c r="I42" s="3">
-        <v>2641000</v>
+        <v>2188600</v>
       </c>
       <c r="J42" s="3">
+        <v>2437800</v>
+      </c>
+      <c r="K42" s="3">
         <v>4265100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2951300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2353500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1624400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>651600</v>
+        <v>652900</v>
       </c>
       <c r="E47" s="3">
-        <v>615600</v>
+        <v>601500</v>
       </c>
       <c r="F47" s="3">
-        <v>558900</v>
+        <v>568300</v>
       </c>
       <c r="G47" s="3">
-        <v>406900</v>
+        <v>515900</v>
       </c>
       <c r="H47" s="3">
-        <v>337500</v>
+        <v>375600</v>
       </c>
       <c r="I47" s="3">
-        <v>142100</v>
+        <v>311600</v>
       </c>
       <c r="J47" s="3">
+        <v>131200</v>
+      </c>
+      <c r="K47" s="3">
         <v>350900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2288700</v>
+        <v>2382900</v>
       </c>
       <c r="E48" s="3">
-        <v>1953400</v>
+        <v>2112600</v>
       </c>
       <c r="F48" s="3">
-        <v>1326400</v>
+        <v>1803100</v>
       </c>
       <c r="G48" s="3">
-        <v>1244100</v>
+        <v>1224400</v>
       </c>
       <c r="H48" s="3">
-        <v>1221300</v>
+        <v>1148400</v>
       </c>
       <c r="I48" s="3">
-        <v>1234100</v>
+        <v>1127400</v>
       </c>
       <c r="J48" s="3">
+        <v>1139200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1611800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>591800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>905700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>886300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1951900</v>
+        <v>2070900</v>
       </c>
       <c r="E49" s="3">
-        <v>1880700</v>
+        <v>1801800</v>
       </c>
       <c r="F49" s="3">
-        <v>1872500</v>
+        <v>1736000</v>
       </c>
       <c r="G49" s="3">
-        <v>1724200</v>
+        <v>1728400</v>
       </c>
       <c r="H49" s="3">
-        <v>1740400</v>
+        <v>1591500</v>
       </c>
       <c r="I49" s="3">
-        <v>1844000</v>
+        <v>1606600</v>
       </c>
       <c r="J49" s="3">
+        <v>1702100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2224700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>969100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>171400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>224400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>175600</v>
+        <v>179100</v>
       </c>
       <c r="E52" s="3">
-        <v>104300</v>
+        <v>162100</v>
       </c>
       <c r="F52" s="3">
-        <v>70500</v>
+        <v>96200</v>
       </c>
       <c r="G52" s="3">
-        <v>38600</v>
+        <v>65100</v>
       </c>
       <c r="H52" s="3">
-        <v>57900</v>
+        <v>35700</v>
       </c>
       <c r="I52" s="3">
-        <v>44300</v>
+        <v>53500</v>
       </c>
       <c r="J52" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K52" s="3">
         <v>48800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66447800</v>
+        <v>69565200</v>
       </c>
       <c r="E54" s="3">
-        <v>61382900</v>
+        <v>61336400</v>
       </c>
       <c r="F54" s="3">
-        <v>57229500</v>
+        <v>56661100</v>
       </c>
       <c r="G54" s="3">
-        <v>53016100</v>
+        <v>52827300</v>
       </c>
       <c r="H54" s="3">
-        <v>51027900</v>
+        <v>48938000</v>
       </c>
       <c r="I54" s="3">
-        <v>50172900</v>
+        <v>47102700</v>
       </c>
       <c r="J54" s="3">
+        <v>46313500</v>
+      </c>
+      <c r="K54" s="3">
         <v>38903800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35320400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29374900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28202800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,116 +2397,126 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>802700</v>
+        <v>942400</v>
       </c>
       <c r="E57" s="3">
-        <v>890100</v>
+        <v>740900</v>
       </c>
       <c r="F57" s="3">
-        <v>786500</v>
+        <v>821600</v>
       </c>
       <c r="G57" s="3">
-        <v>804300</v>
+        <v>726000</v>
       </c>
       <c r="H57" s="3">
-        <v>750700</v>
+        <v>742400</v>
       </c>
       <c r="I57" s="3">
-        <v>533500</v>
+        <v>693000</v>
       </c>
       <c r="J57" s="3">
+        <v>492400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1233800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>705000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>850500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>848300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1931700</v>
+        <v>1881200</v>
       </c>
       <c r="E58" s="3">
-        <v>2905700</v>
+        <v>1783100</v>
       </c>
       <c r="F58" s="3">
-        <v>3936400</v>
+        <v>2682200</v>
       </c>
       <c r="G58" s="3">
-        <v>3472100</v>
+        <v>3633600</v>
       </c>
       <c r="H58" s="3">
-        <v>3610100</v>
+        <v>3205000</v>
       </c>
       <c r="I58" s="3">
-        <v>3214100</v>
+        <v>3332400</v>
       </c>
       <c r="J58" s="3">
+        <v>2966900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3286400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>236000</v>
+        <v>166100</v>
       </c>
       <c r="E59" s="3">
-        <v>199500</v>
+        <v>217800</v>
       </c>
       <c r="F59" s="3">
-        <v>181800</v>
+        <v>184200</v>
       </c>
       <c r="G59" s="3">
-        <v>115700</v>
+        <v>167800</v>
       </c>
       <c r="H59" s="3">
-        <v>175500</v>
+        <v>106800</v>
       </c>
       <c r="I59" s="3">
-        <v>198800</v>
+        <v>162000</v>
       </c>
       <c r="J59" s="3">
+        <v>183500</v>
+      </c>
+      <c r="K59" s="3">
         <v>420200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>279100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>103500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>92500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7154700</v>
+        <v>5810500</v>
       </c>
       <c r="E61" s="3">
-        <v>6873000</v>
+        <v>6604300</v>
       </c>
       <c r="F61" s="3">
-        <v>6340000</v>
+        <v>6344300</v>
       </c>
       <c r="G61" s="3">
-        <v>6223300</v>
+        <v>5852300</v>
       </c>
       <c r="H61" s="3">
-        <v>6820200</v>
+        <v>5744600</v>
       </c>
       <c r="I61" s="3">
-        <v>7438200</v>
+        <v>6295600</v>
       </c>
       <c r="J61" s="3">
+        <v>6866000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5284900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6705800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3617800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3402000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>578900</v>
+        <v>514300</v>
       </c>
       <c r="E62" s="3">
-        <v>645200</v>
+        <v>534400</v>
       </c>
       <c r="F62" s="3">
-        <v>546300</v>
+        <v>595600</v>
       </c>
       <c r="G62" s="3">
-        <v>577700</v>
+        <v>504200</v>
       </c>
       <c r="H62" s="3">
-        <v>541800</v>
+        <v>533300</v>
       </c>
       <c r="I62" s="3">
-        <v>377800</v>
+        <v>500200</v>
       </c>
       <c r="J62" s="3">
+        <v>348700</v>
+      </c>
+      <c r="K62" s="3">
         <v>275100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>40100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59546100</v>
+        <v>61829000</v>
       </c>
       <c r="E66" s="3">
-        <v>54393100</v>
+        <v>54965600</v>
       </c>
       <c r="F66" s="3">
-        <v>50768800</v>
+        <v>50209000</v>
       </c>
       <c r="G66" s="3">
-        <v>47006800</v>
+        <v>46863500</v>
       </c>
       <c r="H66" s="3">
-        <v>45498300</v>
+        <v>43390900</v>
       </c>
       <c r="I66" s="3">
-        <v>45160300</v>
+        <v>41998400</v>
       </c>
       <c r="J66" s="3">
+        <v>41686400</v>
+      </c>
+      <c r="K66" s="3">
         <v>34517100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31947300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25892800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25235000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2746,14 +2913,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>55000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>50000</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4687700</v>
+        <v>5288500</v>
       </c>
       <c r="E72" s="3">
-        <v>4740400</v>
+        <v>4327100</v>
       </c>
       <c r="F72" s="3">
-        <v>4239700</v>
+        <v>4375800</v>
       </c>
       <c r="G72" s="3">
-        <v>3958600</v>
+        <v>3913600</v>
       </c>
       <c r="H72" s="3">
-        <v>3604000</v>
+        <v>3654100</v>
       </c>
       <c r="I72" s="3">
-        <v>3051900</v>
+        <v>3326800</v>
       </c>
       <c r="J72" s="3">
+        <v>2817200</v>
+      </c>
+      <c r="K72" s="3">
         <v>6803400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3027200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2283500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2217600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6901800</v>
+        <v>7736200</v>
       </c>
       <c r="E76" s="3">
-        <v>6989800</v>
+        <v>6370900</v>
       </c>
       <c r="F76" s="3">
-        <v>6460700</v>
+        <v>6452100</v>
       </c>
       <c r="G76" s="3">
-        <v>6009400</v>
+        <v>5963700</v>
       </c>
       <c r="H76" s="3">
-        <v>5529600</v>
+        <v>5547100</v>
       </c>
       <c r="I76" s="3">
-        <v>5012700</v>
+        <v>5104200</v>
       </c>
       <c r="J76" s="3">
+        <v>4627100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4386700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3373100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3427100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2917800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>71800</v>
+        <v>980800</v>
       </c>
       <c r="E81" s="3">
-        <v>810500</v>
+        <v>66200</v>
       </c>
       <c r="F81" s="3">
-        <v>691300</v>
+        <v>748200</v>
       </c>
       <c r="G81" s="3">
-        <v>679900</v>
+        <v>638100</v>
       </c>
       <c r="H81" s="3">
-        <v>745000</v>
+        <v>627600</v>
       </c>
       <c r="I81" s="3">
-        <v>654900</v>
+        <v>687700</v>
       </c>
       <c r="J81" s="3">
+        <v>604500</v>
+      </c>
+      <c r="K81" s="3">
         <v>431300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>255600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>295400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>222800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>191500</v>
+        <v>205200</v>
       </c>
       <c r="E83" s="3">
-        <v>176100</v>
+        <v>176700</v>
       </c>
       <c r="F83" s="3">
-        <v>121600</v>
+        <v>162500</v>
       </c>
       <c r="G83" s="3">
-        <v>112600</v>
+        <v>112300</v>
       </c>
       <c r="H83" s="3">
-        <v>125600</v>
+        <v>103900</v>
       </c>
       <c r="I83" s="3">
-        <v>125200</v>
+        <v>115900</v>
       </c>
       <c r="J83" s="3">
+        <v>115600</v>
+      </c>
+      <c r="K83" s="3">
         <v>113200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>208400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>162200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>130200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2919900</v>
+        <v>1462900</v>
       </c>
       <c r="E89" s="3">
-        <v>3202100</v>
+        <v>2695300</v>
       </c>
       <c r="F89" s="3">
-        <v>271100</v>
+        <v>2955700</v>
       </c>
       <c r="G89" s="3">
-        <v>764300</v>
+        <v>250300</v>
       </c>
       <c r="H89" s="3">
-        <v>936400</v>
+        <v>705500</v>
       </c>
       <c r="I89" s="3">
-        <v>482700</v>
+        <v>864300</v>
       </c>
       <c r="J89" s="3">
+        <v>445600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1733500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1421800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>541900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1299900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-397800</v>
+        <v>-524600</v>
       </c>
       <c r="E91" s="3">
-        <v>-404400</v>
+        <v>-367200</v>
       </c>
       <c r="F91" s="3">
-        <v>-263700</v>
+        <v>-373300</v>
       </c>
       <c r="G91" s="3">
-        <v>-294300</v>
+        <v>-243400</v>
       </c>
       <c r="H91" s="3">
-        <v>-281500</v>
+        <v>-271700</v>
       </c>
       <c r="I91" s="3">
-        <v>-250100</v>
+        <v>-259800</v>
       </c>
       <c r="J91" s="3">
+        <v>-230800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-691300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-497200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-339700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-463200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1955700</v>
+        <v>-156100</v>
       </c>
       <c r="E94" s="3">
-        <v>-569600</v>
+        <v>-1805300</v>
       </c>
       <c r="F94" s="3">
-        <v>-359300</v>
+        <v>-525800</v>
       </c>
       <c r="G94" s="3">
-        <v>-496100</v>
+        <v>-331600</v>
       </c>
       <c r="H94" s="3">
-        <v>-267200</v>
+        <v>-457900</v>
       </c>
       <c r="I94" s="3">
-        <v>36900</v>
+        <v>-246600</v>
       </c>
       <c r="J94" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K94" s="3">
         <v>242900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-898400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-178300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-171500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-404500</v>
+        <v>-112100</v>
       </c>
       <c r="E96" s="3">
-        <v>-268400</v>
+        <v>-373400</v>
       </c>
       <c r="F96" s="3">
-        <v>-191300</v>
+        <v>-247800</v>
       </c>
       <c r="G96" s="3">
-        <v>-292800</v>
+        <v>-176600</v>
       </c>
       <c r="H96" s="3">
-        <v>-218500</v>
+        <v>-270300</v>
       </c>
       <c r="I96" s="3">
-        <v>-204200</v>
+        <v>-201700</v>
       </c>
       <c r="J96" s="3">
+        <v>-188500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-185600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-170600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-175000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-173800</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1278000</v>
+        <v>-1634400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1367800</v>
+        <v>-1179700</v>
       </c>
       <c r="F100" s="3">
-        <v>-190500</v>
+        <v>-1262600</v>
       </c>
       <c r="G100" s="3">
-        <v>-941400</v>
+        <v>-175900</v>
       </c>
       <c r="H100" s="3">
-        <v>-89400</v>
+        <v>-869000</v>
       </c>
       <c r="I100" s="3">
-        <v>-60200</v>
+        <v>-82500</v>
       </c>
       <c r="J100" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="K100" s="3">
         <v>423800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1337800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-150800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1946500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>304300</v>
+        <v>718500</v>
       </c>
       <c r="E101" s="3">
-        <v>37200</v>
+        <v>280900</v>
       </c>
       <c r="F101" s="3">
-        <v>425600</v>
+        <v>34400</v>
       </c>
       <c r="G101" s="3">
-        <v>76600</v>
+        <v>392800</v>
       </c>
       <c r="H101" s="3">
-        <v>-149600</v>
+        <v>70800</v>
       </c>
       <c r="I101" s="3">
-        <v>928600</v>
+        <v>-138100</v>
       </c>
       <c r="J101" s="3">
+        <v>857200</v>
+      </c>
+      <c r="K101" s="3">
         <v>552200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>93400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-80800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>44300</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9600</v>
+        <v>390900</v>
       </c>
       <c r="E102" s="3">
-        <v>1301900</v>
+        <v>-8900</v>
       </c>
       <c r="F102" s="3">
-        <v>146900</v>
+        <v>1201700</v>
       </c>
       <c r="G102" s="3">
-        <v>-596600</v>
+        <v>135600</v>
       </c>
       <c r="H102" s="3">
-        <v>430200</v>
+        <v>-550700</v>
       </c>
       <c r="I102" s="3">
-        <v>1388100</v>
+        <v>397100</v>
       </c>
       <c r="J102" s="3">
+        <v>1281300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-514600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1954700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>132000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>519400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3864500</v>
+        <v>3703500</v>
       </c>
       <c r="E8" s="3">
-        <v>4086300</v>
+        <v>3916100</v>
       </c>
       <c r="F8" s="3">
-        <v>4215200</v>
+        <v>4039600</v>
       </c>
       <c r="G8" s="3">
-        <v>3873400</v>
+        <v>3712000</v>
       </c>
       <c r="H8" s="3">
-        <v>4021900</v>
+        <v>3854400</v>
       </c>
       <c r="I8" s="3">
-        <v>3780900</v>
+        <v>3623300</v>
       </c>
       <c r="J8" s="3">
-        <v>2697100</v>
+        <v>2584700</v>
       </c>
       <c r="K8" s="3">
         <v>2408700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-205200</v>
+        <v>-196700</v>
       </c>
       <c r="E15" s="3">
-        <v>-176700</v>
+        <v>-169400</v>
       </c>
       <c r="F15" s="3">
-        <v>-162500</v>
+        <v>-155800</v>
       </c>
       <c r="G15" s="3">
-        <v>-111900</v>
+        <v>-107200</v>
       </c>
       <c r="H15" s="3">
-        <v>-103900</v>
+        <v>-99600</v>
       </c>
       <c r="I15" s="3">
-        <v>-115000</v>
+        <v>-110200</v>
       </c>
       <c r="J15" s="3">
-        <v>-110600</v>
+        <v>-106000</v>
       </c>
       <c r="K15" s="3">
         <v>-355400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1625300</v>
+        <v>1557600</v>
       </c>
       <c r="E17" s="3">
-        <v>3213500</v>
+        <v>3079600</v>
       </c>
       <c r="F17" s="3">
-        <v>2301800</v>
+        <v>2205900</v>
       </c>
       <c r="G17" s="3">
-        <v>2283900</v>
+        <v>2188700</v>
       </c>
       <c r="H17" s="3">
-        <v>2328400</v>
+        <v>2231400</v>
       </c>
       <c r="I17" s="3">
-        <v>2108200</v>
+        <v>2020400</v>
       </c>
       <c r="J17" s="3">
-        <v>1369300</v>
+        <v>1312300</v>
       </c>
       <c r="K17" s="3">
         <v>1042100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2239200</v>
+        <v>2145900</v>
       </c>
       <c r="E18" s="3">
-        <v>872900</v>
+        <v>836500</v>
       </c>
       <c r="F18" s="3">
-        <v>1913400</v>
+        <v>1833700</v>
       </c>
       <c r="G18" s="3">
-        <v>1589500</v>
+        <v>1523300</v>
       </c>
       <c r="H18" s="3">
-        <v>1693500</v>
+        <v>1623000</v>
       </c>
       <c r="I18" s="3">
-        <v>1672600</v>
+        <v>1602900</v>
       </c>
       <c r="J18" s="3">
-        <v>1327700</v>
+        <v>1272400</v>
       </c>
       <c r="K18" s="3">
         <v>1366500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-803000</v>
+        <v>-769600</v>
       </c>
       <c r="E20" s="3">
-        <v>-798800</v>
+        <v>-765500</v>
       </c>
       <c r="F20" s="3">
-        <v>-838800</v>
+        <v>-803900</v>
       </c>
       <c r="G20" s="3">
-        <v>-721700</v>
+        <v>-691600</v>
       </c>
       <c r="H20" s="3">
-        <v>-735300</v>
+        <v>-704600</v>
       </c>
       <c r="I20" s="3">
-        <v>-720200</v>
+        <v>-690200</v>
       </c>
       <c r="J20" s="3">
-        <v>-551200</v>
+        <v>-528200</v>
       </c>
       <c r="K20" s="3">
         <v>-559300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1650000</v>
+        <v>1573000</v>
       </c>
       <c r="E21" s="3">
-        <v>258200</v>
+        <v>240400</v>
       </c>
       <c r="F21" s="3">
-        <v>1243900</v>
+        <v>1185600</v>
       </c>
       <c r="G21" s="3">
-        <v>984800</v>
+        <v>939200</v>
       </c>
       <c r="H21" s="3">
-        <v>1066500</v>
+        <v>1017900</v>
       </c>
       <c r="I21" s="3">
-        <v>1073100</v>
+        <v>1023800</v>
       </c>
       <c r="J21" s="3">
-        <v>896900</v>
+        <v>855000</v>
       </c>
       <c r="K21" s="3">
         <v>924700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1436200</v>
+        <v>1376300</v>
       </c>
       <c r="E23" s="3">
-        <v>74100</v>
+        <v>71000</v>
       </c>
       <c r="F23" s="3">
-        <v>1074600</v>
+        <v>1029800</v>
       </c>
       <c r="G23" s="3">
-        <v>867800</v>
+        <v>831700</v>
       </c>
       <c r="H23" s="3">
-        <v>958300</v>
+        <v>918300</v>
       </c>
       <c r="I23" s="3">
-        <v>952400</v>
+        <v>912700</v>
       </c>
       <c r="J23" s="3">
-        <v>776600</v>
+        <v>744200</v>
       </c>
       <c r="K23" s="3">
         <v>807200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>426300</v>
+        <v>408500</v>
       </c>
       <c r="E24" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F24" s="3">
-        <v>303100</v>
+        <v>290500</v>
       </c>
       <c r="G24" s="3">
-        <v>199100</v>
+        <v>190800</v>
       </c>
       <c r="H24" s="3">
-        <v>297300</v>
+        <v>284900</v>
       </c>
       <c r="I24" s="3">
-        <v>282400</v>
+        <v>270700</v>
       </c>
       <c r="J24" s="3">
-        <v>155800</v>
+        <v>149300</v>
       </c>
       <c r="K24" s="3">
         <v>191800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1009900</v>
+        <v>967800</v>
       </c>
       <c r="E26" s="3">
-        <v>75700</v>
+        <v>72500</v>
       </c>
       <c r="F26" s="3">
-        <v>771500</v>
+        <v>739400</v>
       </c>
       <c r="G26" s="3">
-        <v>668700</v>
+        <v>640900</v>
       </c>
       <c r="H26" s="3">
-        <v>661000</v>
+        <v>633500</v>
       </c>
       <c r="I26" s="3">
-        <v>669900</v>
+        <v>642000</v>
       </c>
       <c r="J26" s="3">
-        <v>620700</v>
+        <v>594900</v>
       </c>
       <c r="K26" s="3">
         <v>615400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>980800</v>
+        <v>940000</v>
       </c>
       <c r="E27" s="3">
-        <v>66200</v>
+        <v>63500</v>
       </c>
       <c r="F27" s="3">
-        <v>748200</v>
+        <v>717000</v>
       </c>
       <c r="G27" s="3">
-        <v>638100</v>
+        <v>611500</v>
       </c>
       <c r="H27" s="3">
-        <v>627600</v>
+        <v>601500</v>
       </c>
       <c r="I27" s="3">
-        <v>648400</v>
+        <v>621400</v>
       </c>
       <c r="J27" s="3">
-        <v>599100</v>
+        <v>574200</v>
       </c>
       <c r="K27" s="3">
         <v>414900</v>
@@ -1488,10 +1488,10 @@
         <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="J29" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="K29" s="3">
         <v>16300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>803000</v>
+        <v>769600</v>
       </c>
       <c r="E32" s="3">
-        <v>798800</v>
+        <v>765500</v>
       </c>
       <c r="F32" s="3">
-        <v>838800</v>
+        <v>803900</v>
       </c>
       <c r="G32" s="3">
-        <v>721700</v>
+        <v>691600</v>
       </c>
       <c r="H32" s="3">
-        <v>735300</v>
+        <v>704600</v>
       </c>
       <c r="I32" s="3">
-        <v>720200</v>
+        <v>690200</v>
       </c>
       <c r="J32" s="3">
-        <v>551200</v>
+        <v>528200</v>
       </c>
       <c r="K32" s="3">
         <v>559300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>980800</v>
+        <v>940000</v>
       </c>
       <c r="E33" s="3">
-        <v>66200</v>
+        <v>63500</v>
       </c>
       <c r="F33" s="3">
-        <v>748200</v>
+        <v>717000</v>
       </c>
       <c r="G33" s="3">
-        <v>638100</v>
+        <v>611500</v>
       </c>
       <c r="H33" s="3">
-        <v>627600</v>
+        <v>601500</v>
       </c>
       <c r="I33" s="3">
-        <v>687700</v>
+        <v>659000</v>
       </c>
       <c r="J33" s="3">
-        <v>604500</v>
+        <v>579300</v>
       </c>
       <c r="K33" s="3">
         <v>431300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>980800</v>
+        <v>940000</v>
       </c>
       <c r="E35" s="3">
-        <v>66200</v>
+        <v>63500</v>
       </c>
       <c r="F35" s="3">
-        <v>748200</v>
+        <v>717000</v>
       </c>
       <c r="G35" s="3">
-        <v>638100</v>
+        <v>611500</v>
       </c>
       <c r="H35" s="3">
-        <v>627600</v>
+        <v>601500</v>
       </c>
       <c r="I35" s="3">
-        <v>687700</v>
+        <v>659000</v>
       </c>
       <c r="J35" s="3">
-        <v>604500</v>
+        <v>579300</v>
       </c>
       <c r="K35" s="3">
         <v>431300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5555400</v>
+        <v>5324000</v>
       </c>
       <c r="E41" s="3">
-        <v>4844400</v>
+        <v>4642600</v>
       </c>
       <c r="F41" s="3">
-        <v>4381500</v>
+        <v>4198900</v>
       </c>
       <c r="G41" s="3">
-        <v>3799900</v>
+        <v>3641600</v>
       </c>
       <c r="H41" s="3">
-        <v>3725500</v>
+        <v>3570300</v>
       </c>
       <c r="I41" s="3">
-        <v>3892100</v>
+        <v>3729900</v>
       </c>
       <c r="J41" s="3">
-        <v>3430800</v>
+        <v>3287900</v>
       </c>
       <c r="K41" s="3">
         <v>5820800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2280900</v>
+        <v>2185800</v>
       </c>
       <c r="E42" s="3">
-        <v>2591400</v>
+        <v>2483500</v>
       </c>
       <c r="F42" s="3">
-        <v>2771300</v>
+        <v>2655800</v>
       </c>
       <c r="G42" s="3">
-        <v>2078000</v>
+        <v>1991400</v>
       </c>
       <c r="H42" s="3">
-        <v>1836600</v>
+        <v>1760100</v>
       </c>
       <c r="I42" s="3">
-        <v>2188600</v>
+        <v>2097400</v>
       </c>
       <c r="J42" s="3">
-        <v>2437800</v>
+        <v>2336200</v>
       </c>
       <c r="K42" s="3">
         <v>4265100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>652900</v>
+        <v>625700</v>
       </c>
       <c r="E47" s="3">
-        <v>601500</v>
+        <v>576500</v>
       </c>
       <c r="F47" s="3">
-        <v>568300</v>
+        <v>544600</v>
       </c>
       <c r="G47" s="3">
-        <v>515900</v>
+        <v>494400</v>
       </c>
       <c r="H47" s="3">
-        <v>375600</v>
+        <v>360000</v>
       </c>
       <c r="I47" s="3">
-        <v>311600</v>
+        <v>298600</v>
       </c>
       <c r="J47" s="3">
-        <v>131200</v>
+        <v>125700</v>
       </c>
       <c r="K47" s="3">
         <v>350900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2382900</v>
+        <v>2283600</v>
       </c>
       <c r="E48" s="3">
-        <v>2112600</v>
+        <v>2024600</v>
       </c>
       <c r="F48" s="3">
-        <v>1803100</v>
+        <v>1728000</v>
       </c>
       <c r="G48" s="3">
-        <v>1224400</v>
+        <v>1173300</v>
       </c>
       <c r="H48" s="3">
-        <v>1148400</v>
+        <v>1100500</v>
       </c>
       <c r="I48" s="3">
-        <v>1127400</v>
+        <v>1080400</v>
       </c>
       <c r="J48" s="3">
-        <v>1139200</v>
+        <v>1091700</v>
       </c>
       <c r="K48" s="3">
         <v>1611800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2070900</v>
+        <v>1984600</v>
       </c>
       <c r="E49" s="3">
-        <v>1801800</v>
+        <v>1726700</v>
       </c>
       <c r="F49" s="3">
-        <v>1736000</v>
+        <v>1663700</v>
       </c>
       <c r="G49" s="3">
-        <v>1728400</v>
+        <v>1656400</v>
       </c>
       <c r="H49" s="3">
-        <v>1591500</v>
+        <v>1525200</v>
       </c>
       <c r="I49" s="3">
-        <v>1606600</v>
+        <v>1539600</v>
       </c>
       <c r="J49" s="3">
-        <v>1702100</v>
+        <v>1631200</v>
       </c>
       <c r="K49" s="3">
         <v>2224700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>179100</v>
+        <v>171700</v>
       </c>
       <c r="E52" s="3">
-        <v>162100</v>
+        <v>155300</v>
       </c>
       <c r="F52" s="3">
-        <v>96200</v>
+        <v>92200</v>
       </c>
       <c r="G52" s="3">
-        <v>65100</v>
+        <v>62400</v>
       </c>
       <c r="H52" s="3">
-        <v>35700</v>
+        <v>34200</v>
       </c>
       <c r="I52" s="3">
-        <v>53500</v>
+        <v>51300</v>
       </c>
       <c r="J52" s="3">
-        <v>40900</v>
+        <v>39200</v>
       </c>
       <c r="K52" s="3">
         <v>48800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69565200</v>
+        <v>66666700</v>
       </c>
       <c r="E54" s="3">
-        <v>61336400</v>
+        <v>58780800</v>
       </c>
       <c r="F54" s="3">
-        <v>56661100</v>
+        <v>54300300</v>
       </c>
       <c r="G54" s="3">
-        <v>52827300</v>
+        <v>50626100</v>
       </c>
       <c r="H54" s="3">
-        <v>48938000</v>
+        <v>46898900</v>
       </c>
       <c r="I54" s="3">
-        <v>47102700</v>
+        <v>45140000</v>
       </c>
       <c r="J54" s="3">
-        <v>46313500</v>
+        <v>44383800</v>
       </c>
       <c r="K54" s="3">
         <v>38903800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>942400</v>
+        <v>903100</v>
       </c>
       <c r="E57" s="3">
-        <v>740900</v>
+        <v>710100</v>
       </c>
       <c r="F57" s="3">
-        <v>821600</v>
+        <v>787400</v>
       </c>
       <c r="G57" s="3">
-        <v>726000</v>
+        <v>695700</v>
       </c>
       <c r="H57" s="3">
-        <v>742400</v>
+        <v>711500</v>
       </c>
       <c r="I57" s="3">
-        <v>693000</v>
+        <v>664100</v>
       </c>
       <c r="J57" s="3">
-        <v>492400</v>
+        <v>471900</v>
       </c>
       <c r="K57" s="3">
         <v>1233800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1881200</v>
+        <v>1802800</v>
       </c>
       <c r="E58" s="3">
-        <v>1783100</v>
+        <v>1708800</v>
       </c>
       <c r="F58" s="3">
-        <v>2682200</v>
+        <v>2570400</v>
       </c>
       <c r="G58" s="3">
-        <v>3633600</v>
+        <v>3482200</v>
       </c>
       <c r="H58" s="3">
-        <v>3205000</v>
+        <v>3071500</v>
       </c>
       <c r="I58" s="3">
-        <v>3332400</v>
+        <v>3193500</v>
       </c>
       <c r="J58" s="3">
-        <v>2966900</v>
+        <v>2843200</v>
       </c>
       <c r="K58" s="3">
         <v>3286400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166100</v>
+        <v>159200</v>
       </c>
       <c r="E59" s="3">
-        <v>217800</v>
+        <v>208700</v>
       </c>
       <c r="F59" s="3">
-        <v>184200</v>
+        <v>176500</v>
       </c>
       <c r="G59" s="3">
-        <v>167800</v>
+        <v>160800</v>
       </c>
       <c r="H59" s="3">
-        <v>106800</v>
+        <v>102400</v>
       </c>
       <c r="I59" s="3">
-        <v>162000</v>
+        <v>155200</v>
       </c>
       <c r="J59" s="3">
-        <v>183500</v>
+        <v>175800</v>
       </c>
       <c r="K59" s="3">
         <v>420200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5810500</v>
+        <v>5568400</v>
       </c>
       <c r="E61" s="3">
-        <v>6604300</v>
+        <v>6329100</v>
       </c>
       <c r="F61" s="3">
-        <v>6344300</v>
+        <v>6079900</v>
       </c>
       <c r="G61" s="3">
-        <v>5852300</v>
+        <v>5608500</v>
       </c>
       <c r="H61" s="3">
-        <v>5744600</v>
+        <v>5505200</v>
       </c>
       <c r="I61" s="3">
-        <v>6295600</v>
+        <v>6033300</v>
       </c>
       <c r="J61" s="3">
-        <v>6866000</v>
+        <v>6580000</v>
       </c>
       <c r="K61" s="3">
         <v>5284900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>514300</v>
+        <v>492900</v>
       </c>
       <c r="E62" s="3">
-        <v>534400</v>
+        <v>512100</v>
       </c>
       <c r="F62" s="3">
-        <v>595600</v>
+        <v>570800</v>
       </c>
       <c r="G62" s="3">
-        <v>504200</v>
+        <v>483200</v>
       </c>
       <c r="H62" s="3">
-        <v>533300</v>
+        <v>511000</v>
       </c>
       <c r="I62" s="3">
-        <v>500200</v>
+        <v>479300</v>
       </c>
       <c r="J62" s="3">
-        <v>348700</v>
+        <v>334200</v>
       </c>
       <c r="K62" s="3">
         <v>275100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61829000</v>
+        <v>59252800</v>
       </c>
       <c r="E66" s="3">
-        <v>54965600</v>
+        <v>52675400</v>
       </c>
       <c r="F66" s="3">
-        <v>50209000</v>
+        <v>48117000</v>
       </c>
       <c r="G66" s="3">
-        <v>46863500</v>
+        <v>44910900</v>
       </c>
       <c r="H66" s="3">
-        <v>43390900</v>
+        <v>41582900</v>
       </c>
       <c r="I66" s="3">
-        <v>41998400</v>
+        <v>40248500</v>
       </c>
       <c r="J66" s="3">
-        <v>41686400</v>
+        <v>39949500</v>
       </c>
       <c r="K66" s="3">
         <v>34517100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5288500</v>
+        <v>5068200</v>
       </c>
       <c r="E72" s="3">
-        <v>4327100</v>
+        <v>4146900</v>
       </c>
       <c r="F72" s="3">
-        <v>4375800</v>
+        <v>4193500</v>
       </c>
       <c r="G72" s="3">
-        <v>3913600</v>
+        <v>3750500</v>
       </c>
       <c r="H72" s="3">
-        <v>3654100</v>
+        <v>3501800</v>
       </c>
       <c r="I72" s="3">
-        <v>3326800</v>
+        <v>3188200</v>
       </c>
       <c r="J72" s="3">
-        <v>2817200</v>
+        <v>2699800</v>
       </c>
       <c r="K72" s="3">
         <v>6803400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7736200</v>
+        <v>7413900</v>
       </c>
       <c r="E76" s="3">
-        <v>6370900</v>
+        <v>6105400</v>
       </c>
       <c r="F76" s="3">
-        <v>6452100</v>
+        <v>6183300</v>
       </c>
       <c r="G76" s="3">
-        <v>5963700</v>
+        <v>5715300</v>
       </c>
       <c r="H76" s="3">
-        <v>5547100</v>
+        <v>5316000</v>
       </c>
       <c r="I76" s="3">
-        <v>5104200</v>
+        <v>4891500</v>
       </c>
       <c r="J76" s="3">
-        <v>4627100</v>
+        <v>4434300</v>
       </c>
       <c r="K76" s="3">
         <v>4386700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>980800</v>
+        <v>940000</v>
       </c>
       <c r="E81" s="3">
-        <v>66200</v>
+        <v>63500</v>
       </c>
       <c r="F81" s="3">
-        <v>748200</v>
+        <v>717000</v>
       </c>
       <c r="G81" s="3">
-        <v>638100</v>
+        <v>611500</v>
       </c>
       <c r="H81" s="3">
-        <v>627600</v>
+        <v>601500</v>
       </c>
       <c r="I81" s="3">
-        <v>687700</v>
+        <v>659000</v>
       </c>
       <c r="J81" s="3">
-        <v>604500</v>
+        <v>579300</v>
       </c>
       <c r="K81" s="3">
         <v>431300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>205200</v>
+        <v>196700</v>
       </c>
       <c r="E83" s="3">
-        <v>176700</v>
+        <v>169400</v>
       </c>
       <c r="F83" s="3">
-        <v>162500</v>
+        <v>155800</v>
       </c>
       <c r="G83" s="3">
-        <v>112300</v>
+        <v>107600</v>
       </c>
       <c r="H83" s="3">
-        <v>103900</v>
+        <v>99600</v>
       </c>
       <c r="I83" s="3">
-        <v>115900</v>
+        <v>111100</v>
       </c>
       <c r="J83" s="3">
-        <v>115600</v>
+        <v>110800</v>
       </c>
       <c r="K83" s="3">
         <v>113200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1462900</v>
+        <v>1401900</v>
       </c>
       <c r="E89" s="3">
-        <v>2695300</v>
+        <v>2583000</v>
       </c>
       <c r="F89" s="3">
-        <v>2955700</v>
+        <v>2832600</v>
       </c>
       <c r="G89" s="3">
-        <v>250300</v>
+        <v>239900</v>
       </c>
       <c r="H89" s="3">
-        <v>705500</v>
+        <v>676100</v>
       </c>
       <c r="I89" s="3">
-        <v>864300</v>
+        <v>828300</v>
       </c>
       <c r="J89" s="3">
-        <v>445600</v>
+        <v>427000</v>
       </c>
       <c r="K89" s="3">
         <v>-1733500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-524600</v>
+        <v>-502700</v>
       </c>
       <c r="E91" s="3">
-        <v>-367200</v>
+        <v>-351900</v>
       </c>
       <c r="F91" s="3">
-        <v>-373300</v>
+        <v>-357800</v>
       </c>
       <c r="G91" s="3">
-        <v>-243400</v>
+        <v>-233200</v>
       </c>
       <c r="H91" s="3">
-        <v>-271700</v>
+        <v>-260400</v>
       </c>
       <c r="I91" s="3">
-        <v>-259800</v>
+        <v>-249000</v>
       </c>
       <c r="J91" s="3">
-        <v>-230800</v>
+        <v>-221200</v>
       </c>
       <c r="K91" s="3">
         <v>-691300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-156100</v>
+        <v>-149600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1805300</v>
+        <v>-1730100</v>
       </c>
       <c r="F94" s="3">
-        <v>-525800</v>
+        <v>-503900</v>
       </c>
       <c r="G94" s="3">
-        <v>-331600</v>
+        <v>-317800</v>
       </c>
       <c r="H94" s="3">
-        <v>-457900</v>
+        <v>-438900</v>
       </c>
       <c r="I94" s="3">
-        <v>-246600</v>
+        <v>-236400</v>
       </c>
       <c r="J94" s="3">
-        <v>34100</v>
+        <v>32700</v>
       </c>
       <c r="K94" s="3">
         <v>242900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-112100</v>
+        <v>-107500</v>
       </c>
       <c r="E96" s="3">
-        <v>-373400</v>
+        <v>-357800</v>
       </c>
       <c r="F96" s="3">
-        <v>-247800</v>
+        <v>-237500</v>
       </c>
       <c r="G96" s="3">
-        <v>-176600</v>
+        <v>-169200</v>
       </c>
       <c r="H96" s="3">
-        <v>-270300</v>
+        <v>-259000</v>
       </c>
       <c r="I96" s="3">
-        <v>-201700</v>
+        <v>-193300</v>
       </c>
       <c r="J96" s="3">
-        <v>-188500</v>
+        <v>-180600</v>
       </c>
       <c r="K96" s="3">
         <v>-185600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1634400</v>
+        <v>-1566300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1179700</v>
+        <v>-1130600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1262600</v>
+        <v>-1210000</v>
       </c>
       <c r="G100" s="3">
-        <v>-175900</v>
+        <v>-168500</v>
       </c>
       <c r="H100" s="3">
-        <v>-869000</v>
+        <v>-832800</v>
       </c>
       <c r="I100" s="3">
-        <v>-82500</v>
+        <v>-79100</v>
       </c>
       <c r="J100" s="3">
-        <v>-55600</v>
+        <v>-53200</v>
       </c>
       <c r="K100" s="3">
         <v>423800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>718500</v>
+        <v>688600</v>
       </c>
       <c r="E101" s="3">
-        <v>280900</v>
+        <v>269200</v>
       </c>
       <c r="F101" s="3">
-        <v>34400</v>
+        <v>32900</v>
       </c>
       <c r="G101" s="3">
-        <v>392800</v>
+        <v>376500</v>
       </c>
       <c r="H101" s="3">
-        <v>70800</v>
+        <v>67800</v>
       </c>
       <c r="I101" s="3">
-        <v>-138100</v>
+        <v>-132300</v>
       </c>
       <c r="J101" s="3">
-        <v>857200</v>
+        <v>821500</v>
       </c>
       <c r="K101" s="3">
         <v>552200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>390900</v>
+        <v>374600</v>
       </c>
       <c r="E102" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="F102" s="3">
-        <v>1201700</v>
+        <v>1151700</v>
       </c>
       <c r="G102" s="3">
-        <v>135600</v>
+        <v>130000</v>
       </c>
       <c r="H102" s="3">
-        <v>-550700</v>
+        <v>-527800</v>
       </c>
       <c r="I102" s="3">
-        <v>397100</v>
+        <v>380600</v>
       </c>
       <c r="J102" s="3">
-        <v>1281300</v>
+        <v>1227900</v>
       </c>
       <c r="K102" s="3">
         <v>-514600</v>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3703500</v>
+        <v>3381400</v>
       </c>
       <c r="E8" s="3">
-        <v>3916100</v>
+        <v>3575600</v>
       </c>
       <c r="F8" s="3">
-        <v>4039600</v>
+        <v>3688300</v>
       </c>
       <c r="G8" s="3">
-        <v>3712000</v>
+        <v>3389200</v>
       </c>
       <c r="H8" s="3">
-        <v>3854400</v>
+        <v>3519200</v>
       </c>
       <c r="I8" s="3">
-        <v>3623300</v>
+        <v>3308200</v>
       </c>
       <c r="J8" s="3">
-        <v>2584700</v>
+        <v>2359900</v>
       </c>
       <c r="K8" s="3">
         <v>2408700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-196700</v>
+        <v>-179600</v>
       </c>
       <c r="E15" s="3">
-        <v>-169400</v>
+        <v>-154600</v>
       </c>
       <c r="F15" s="3">
-        <v>-155800</v>
+        <v>-142200</v>
       </c>
       <c r="G15" s="3">
-        <v>-107200</v>
+        <v>-97900</v>
       </c>
       <c r="H15" s="3">
-        <v>-99600</v>
+        <v>-90900</v>
       </c>
       <c r="I15" s="3">
-        <v>-110200</v>
+        <v>-100600</v>
       </c>
       <c r="J15" s="3">
-        <v>-106000</v>
+        <v>-96800</v>
       </c>
       <c r="K15" s="3">
         <v>-355400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1557600</v>
+        <v>1422100</v>
       </c>
       <c r="E17" s="3">
-        <v>3079600</v>
+        <v>2811800</v>
       </c>
       <c r="F17" s="3">
-        <v>2205900</v>
+        <v>2014100</v>
       </c>
       <c r="G17" s="3">
-        <v>2188700</v>
+        <v>1998400</v>
       </c>
       <c r="H17" s="3">
-        <v>2231400</v>
+        <v>2037400</v>
       </c>
       <c r="I17" s="3">
-        <v>2020400</v>
+        <v>1844700</v>
       </c>
       <c r="J17" s="3">
-        <v>1312300</v>
+        <v>1198200</v>
       </c>
       <c r="K17" s="3">
         <v>1042100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2145900</v>
+        <v>1959300</v>
       </c>
       <c r="E18" s="3">
-        <v>836500</v>
+        <v>763800</v>
       </c>
       <c r="F18" s="3">
-        <v>1833700</v>
+        <v>1674200</v>
       </c>
       <c r="G18" s="3">
-        <v>1523300</v>
+        <v>1390800</v>
       </c>
       <c r="H18" s="3">
-        <v>1623000</v>
+        <v>1481800</v>
       </c>
       <c r="I18" s="3">
-        <v>1602900</v>
+        <v>1463600</v>
       </c>
       <c r="J18" s="3">
-        <v>1272400</v>
+        <v>1161800</v>
       </c>
       <c r="K18" s="3">
         <v>1366500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-769600</v>
+        <v>-702700</v>
       </c>
       <c r="E20" s="3">
-        <v>-765500</v>
+        <v>-698900</v>
       </c>
       <c r="F20" s="3">
-        <v>-803900</v>
+        <v>-734000</v>
       </c>
       <c r="G20" s="3">
-        <v>-691600</v>
+        <v>-631500</v>
       </c>
       <c r="H20" s="3">
-        <v>-704600</v>
+        <v>-643400</v>
       </c>
       <c r="I20" s="3">
-        <v>-690200</v>
+        <v>-630200</v>
       </c>
       <c r="J20" s="3">
-        <v>-528200</v>
+        <v>-482300</v>
       </c>
       <c r="K20" s="3">
         <v>-559300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1573000</v>
+        <v>1427700</v>
       </c>
       <c r="E21" s="3">
-        <v>240400</v>
+        <v>212100</v>
       </c>
       <c r="F21" s="3">
-        <v>1185600</v>
+        <v>1075700</v>
       </c>
       <c r="G21" s="3">
-        <v>939200</v>
+        <v>852900</v>
       </c>
       <c r="H21" s="3">
-        <v>1017900</v>
+        <v>925100</v>
       </c>
       <c r="I21" s="3">
-        <v>1023800</v>
+        <v>929900</v>
       </c>
       <c r="J21" s="3">
-        <v>855000</v>
+        <v>775800</v>
       </c>
       <c r="K21" s="3">
         <v>924700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1376300</v>
+        <v>1256600</v>
       </c>
       <c r="E23" s="3">
-        <v>71000</v>
+        <v>64800</v>
       </c>
       <c r="F23" s="3">
-        <v>1029800</v>
+        <v>940300</v>
       </c>
       <c r="G23" s="3">
-        <v>831700</v>
+        <v>759300</v>
       </c>
       <c r="H23" s="3">
-        <v>918300</v>
+        <v>838500</v>
       </c>
       <c r="I23" s="3">
-        <v>912700</v>
+        <v>833300</v>
       </c>
       <c r="J23" s="3">
-        <v>744200</v>
+        <v>679500</v>
       </c>
       <c r="K23" s="3">
         <v>807200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>408500</v>
+        <v>373000</v>
       </c>
       <c r="E24" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F24" s="3">
-        <v>290500</v>
+        <v>265200</v>
       </c>
       <c r="G24" s="3">
-        <v>190800</v>
+        <v>174200</v>
       </c>
       <c r="H24" s="3">
-        <v>284900</v>
+        <v>260100</v>
       </c>
       <c r="I24" s="3">
-        <v>270700</v>
+        <v>247100</v>
       </c>
       <c r="J24" s="3">
-        <v>149300</v>
+        <v>136300</v>
       </c>
       <c r="K24" s="3">
         <v>191800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>967800</v>
+        <v>883600</v>
       </c>
       <c r="E26" s="3">
-        <v>72500</v>
+        <v>66200</v>
       </c>
       <c r="F26" s="3">
-        <v>739400</v>
+        <v>675100</v>
       </c>
       <c r="G26" s="3">
-        <v>640900</v>
+        <v>585200</v>
       </c>
       <c r="H26" s="3">
-        <v>633500</v>
+        <v>578400</v>
       </c>
       <c r="I26" s="3">
-        <v>642000</v>
+        <v>586200</v>
       </c>
       <c r="J26" s="3">
-        <v>594900</v>
+        <v>543100</v>
       </c>
       <c r="K26" s="3">
         <v>615400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>940000</v>
+        <v>858200</v>
       </c>
       <c r="E27" s="3">
-        <v>63500</v>
+        <v>58000</v>
       </c>
       <c r="F27" s="3">
-        <v>717000</v>
+        <v>654600</v>
       </c>
       <c r="G27" s="3">
-        <v>611500</v>
+        <v>558400</v>
       </c>
       <c r="H27" s="3">
-        <v>601500</v>
+        <v>549200</v>
       </c>
       <c r="I27" s="3">
-        <v>621400</v>
+        <v>567400</v>
       </c>
       <c r="J27" s="3">
-        <v>574200</v>
+        <v>524200</v>
       </c>
       <c r="K27" s="3">
         <v>414900</v>
@@ -1488,10 +1488,10 @@
         <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>37600</v>
+        <v>34300</v>
       </c>
       <c r="J29" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="K29" s="3">
         <v>16300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>769600</v>
+        <v>702700</v>
       </c>
       <c r="E32" s="3">
-        <v>765500</v>
+        <v>698900</v>
       </c>
       <c r="F32" s="3">
-        <v>803900</v>
+        <v>734000</v>
       </c>
       <c r="G32" s="3">
-        <v>691600</v>
+        <v>631500</v>
       </c>
       <c r="H32" s="3">
-        <v>704600</v>
+        <v>643400</v>
       </c>
       <c r="I32" s="3">
-        <v>690200</v>
+        <v>630200</v>
       </c>
       <c r="J32" s="3">
-        <v>528200</v>
+        <v>482300</v>
       </c>
       <c r="K32" s="3">
         <v>559300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>940000</v>
+        <v>858200</v>
       </c>
       <c r="E33" s="3">
-        <v>63500</v>
+        <v>58000</v>
       </c>
       <c r="F33" s="3">
-        <v>717000</v>
+        <v>654600</v>
       </c>
       <c r="G33" s="3">
-        <v>611500</v>
+        <v>558400</v>
       </c>
       <c r="H33" s="3">
-        <v>601500</v>
+        <v>549200</v>
       </c>
       <c r="I33" s="3">
-        <v>659000</v>
+        <v>601700</v>
       </c>
       <c r="J33" s="3">
-        <v>579300</v>
+        <v>529000</v>
       </c>
       <c r="K33" s="3">
         <v>431300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>940000</v>
+        <v>858200</v>
       </c>
       <c r="E35" s="3">
-        <v>63500</v>
+        <v>58000</v>
       </c>
       <c r="F35" s="3">
-        <v>717000</v>
+        <v>654600</v>
       </c>
       <c r="G35" s="3">
-        <v>611500</v>
+        <v>558400</v>
       </c>
       <c r="H35" s="3">
-        <v>601500</v>
+        <v>549200</v>
       </c>
       <c r="I35" s="3">
-        <v>659000</v>
+        <v>601700</v>
       </c>
       <c r="J35" s="3">
-        <v>579300</v>
+        <v>529000</v>
       </c>
       <c r="K35" s="3">
         <v>431300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5324000</v>
+        <v>4861000</v>
       </c>
       <c r="E41" s="3">
-        <v>4642600</v>
+        <v>4238900</v>
       </c>
       <c r="F41" s="3">
-        <v>4198900</v>
+        <v>3833800</v>
       </c>
       <c r="G41" s="3">
-        <v>3641600</v>
+        <v>3324900</v>
       </c>
       <c r="H41" s="3">
-        <v>3570300</v>
+        <v>3259900</v>
       </c>
       <c r="I41" s="3">
-        <v>3729900</v>
+        <v>3405600</v>
       </c>
       <c r="J41" s="3">
-        <v>3287900</v>
+        <v>3002000</v>
       </c>
       <c r="K41" s="3">
         <v>5820800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2185800</v>
+        <v>1995800</v>
       </c>
       <c r="E42" s="3">
-        <v>2483500</v>
+        <v>2267500</v>
       </c>
       <c r="F42" s="3">
-        <v>2655800</v>
+        <v>2424900</v>
       </c>
       <c r="G42" s="3">
-        <v>1991400</v>
+        <v>1818200</v>
       </c>
       <c r="H42" s="3">
-        <v>1760100</v>
+        <v>1607000</v>
       </c>
       <c r="I42" s="3">
-        <v>2097400</v>
+        <v>1915000</v>
       </c>
       <c r="J42" s="3">
-        <v>2336200</v>
+        <v>2133100</v>
       </c>
       <c r="K42" s="3">
         <v>4265100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>625700</v>
+        <v>571300</v>
       </c>
       <c r="E47" s="3">
-        <v>576500</v>
+        <v>526300</v>
       </c>
       <c r="F47" s="3">
-        <v>544600</v>
+        <v>497200</v>
       </c>
       <c r="G47" s="3">
-        <v>494400</v>
+        <v>451400</v>
       </c>
       <c r="H47" s="3">
-        <v>360000</v>
+        <v>328700</v>
       </c>
       <c r="I47" s="3">
-        <v>298600</v>
+        <v>272600</v>
       </c>
       <c r="J47" s="3">
-        <v>125700</v>
+        <v>114800</v>
       </c>
       <c r="K47" s="3">
         <v>350900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2283600</v>
+        <v>2085000</v>
       </c>
       <c r="E48" s="3">
-        <v>2024600</v>
+        <v>1848600</v>
       </c>
       <c r="F48" s="3">
-        <v>1728000</v>
+        <v>1577700</v>
       </c>
       <c r="G48" s="3">
-        <v>1173300</v>
+        <v>1071300</v>
       </c>
       <c r="H48" s="3">
-        <v>1100500</v>
+        <v>1004800</v>
       </c>
       <c r="I48" s="3">
-        <v>1080400</v>
+        <v>986500</v>
       </c>
       <c r="J48" s="3">
-        <v>1091700</v>
+        <v>996800</v>
       </c>
       <c r="K48" s="3">
         <v>1611800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1984600</v>
+        <v>1812000</v>
       </c>
       <c r="E49" s="3">
-        <v>1726700</v>
+        <v>1576500</v>
       </c>
       <c r="F49" s="3">
-        <v>1663700</v>
+        <v>1519000</v>
       </c>
       <c r="G49" s="3">
-        <v>1656400</v>
+        <v>1512400</v>
       </c>
       <c r="H49" s="3">
-        <v>1525200</v>
+        <v>1392600</v>
       </c>
       <c r="I49" s="3">
-        <v>1539600</v>
+        <v>1405700</v>
       </c>
       <c r="J49" s="3">
-        <v>1631200</v>
+        <v>1489400</v>
       </c>
       <c r="K49" s="3">
         <v>2224700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>171700</v>
+        <v>156700</v>
       </c>
       <c r="E52" s="3">
-        <v>155300</v>
+        <v>141800</v>
       </c>
       <c r="F52" s="3">
-        <v>92200</v>
+        <v>84200</v>
       </c>
       <c r="G52" s="3">
-        <v>62400</v>
+        <v>56900</v>
       </c>
       <c r="H52" s="3">
-        <v>34200</v>
+        <v>31200</v>
       </c>
       <c r="I52" s="3">
-        <v>51300</v>
+        <v>46800</v>
       </c>
       <c r="J52" s="3">
-        <v>39200</v>
+        <v>35800</v>
       </c>
       <c r="K52" s="3">
         <v>48800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66666700</v>
+        <v>60869600</v>
       </c>
       <c r="E54" s="3">
-        <v>58780800</v>
+        <v>53669400</v>
       </c>
       <c r="F54" s="3">
-        <v>54300300</v>
+        <v>49578500</v>
       </c>
       <c r="G54" s="3">
-        <v>50626100</v>
+        <v>46223900</v>
       </c>
       <c r="H54" s="3">
-        <v>46898900</v>
+        <v>42820700</v>
       </c>
       <c r="I54" s="3">
-        <v>45140000</v>
+        <v>41214800</v>
       </c>
       <c r="J54" s="3">
-        <v>44383800</v>
+        <v>40524300</v>
       </c>
       <c r="K54" s="3">
         <v>38903800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>903100</v>
+        <v>824600</v>
       </c>
       <c r="E57" s="3">
-        <v>710100</v>
+        <v>648300</v>
       </c>
       <c r="F57" s="3">
-        <v>787400</v>
+        <v>718900</v>
       </c>
       <c r="G57" s="3">
-        <v>695700</v>
+        <v>635200</v>
       </c>
       <c r="H57" s="3">
-        <v>711500</v>
+        <v>649600</v>
       </c>
       <c r="I57" s="3">
-        <v>664100</v>
+        <v>606400</v>
       </c>
       <c r="J57" s="3">
-        <v>471900</v>
+        <v>430900</v>
       </c>
       <c r="K57" s="3">
         <v>1233800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1802800</v>
+        <v>1646000</v>
       </c>
       <c r="E58" s="3">
-        <v>1708800</v>
+        <v>1560200</v>
       </c>
       <c r="F58" s="3">
-        <v>2570400</v>
+        <v>2346900</v>
       </c>
       <c r="G58" s="3">
-        <v>3482200</v>
+        <v>3179400</v>
       </c>
       <c r="H58" s="3">
-        <v>3071500</v>
+        <v>2804400</v>
       </c>
       <c r="I58" s="3">
-        <v>3193500</v>
+        <v>2915800</v>
       </c>
       <c r="J58" s="3">
-        <v>2843200</v>
+        <v>2596000</v>
       </c>
       <c r="K58" s="3">
         <v>3286400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>159200</v>
+        <v>145400</v>
       </c>
       <c r="E59" s="3">
-        <v>208700</v>
+        <v>190600</v>
       </c>
       <c r="F59" s="3">
-        <v>176500</v>
+        <v>161200</v>
       </c>
       <c r="G59" s="3">
-        <v>160800</v>
+        <v>146800</v>
       </c>
       <c r="H59" s="3">
-        <v>102400</v>
+        <v>93500</v>
       </c>
       <c r="I59" s="3">
-        <v>155200</v>
+        <v>141700</v>
       </c>
       <c r="J59" s="3">
-        <v>175800</v>
+        <v>160500</v>
       </c>
       <c r="K59" s="3">
         <v>420200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5568400</v>
+        <v>5084200</v>
       </c>
       <c r="E61" s="3">
-        <v>6329100</v>
+        <v>5778800</v>
       </c>
       <c r="F61" s="3">
-        <v>6079900</v>
+        <v>5551300</v>
       </c>
       <c r="G61" s="3">
-        <v>5608500</v>
+        <v>5120800</v>
       </c>
       <c r="H61" s="3">
-        <v>5505200</v>
+        <v>5026500</v>
       </c>
       <c r="I61" s="3">
-        <v>6033300</v>
+        <v>5508700</v>
       </c>
       <c r="J61" s="3">
-        <v>6580000</v>
+        <v>6007800</v>
       </c>
       <c r="K61" s="3">
         <v>5284900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>492900</v>
+        <v>450000</v>
       </c>
       <c r="E62" s="3">
-        <v>512100</v>
+        <v>467600</v>
       </c>
       <c r="F62" s="3">
-        <v>570800</v>
+        <v>521100</v>
       </c>
       <c r="G62" s="3">
-        <v>483200</v>
+        <v>441200</v>
       </c>
       <c r="H62" s="3">
-        <v>511000</v>
+        <v>466600</v>
       </c>
       <c r="I62" s="3">
-        <v>479300</v>
+        <v>437600</v>
       </c>
       <c r="J62" s="3">
-        <v>334200</v>
+        <v>305100</v>
       </c>
       <c r="K62" s="3">
         <v>275100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59252800</v>
+        <v>54100300</v>
       </c>
       <c r="E66" s="3">
-        <v>52675400</v>
+        <v>48094900</v>
       </c>
       <c r="F66" s="3">
-        <v>48117000</v>
+        <v>43932900</v>
       </c>
       <c r="G66" s="3">
-        <v>44910900</v>
+        <v>41005600</v>
       </c>
       <c r="H66" s="3">
-        <v>41582900</v>
+        <v>37967000</v>
       </c>
       <c r="I66" s="3">
-        <v>40248500</v>
+        <v>36748600</v>
       </c>
       <c r="J66" s="3">
-        <v>39949500</v>
+        <v>36475600</v>
       </c>
       <c r="K66" s="3">
         <v>34517100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5068200</v>
+        <v>4627400</v>
       </c>
       <c r="E72" s="3">
-        <v>4146900</v>
+        <v>3786300</v>
       </c>
       <c r="F72" s="3">
-        <v>4193500</v>
+        <v>3828800</v>
       </c>
       <c r="G72" s="3">
-        <v>3750500</v>
+        <v>3424400</v>
       </c>
       <c r="H72" s="3">
-        <v>3501800</v>
+        <v>3197300</v>
       </c>
       <c r="I72" s="3">
-        <v>3188200</v>
+        <v>2910900</v>
       </c>
       <c r="J72" s="3">
-        <v>2699800</v>
+        <v>2465000</v>
       </c>
       <c r="K72" s="3">
         <v>6803400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7413900</v>
+        <v>6769200</v>
       </c>
       <c r="E76" s="3">
-        <v>6105400</v>
+        <v>5574500</v>
       </c>
       <c r="F76" s="3">
-        <v>6183300</v>
+        <v>5645600</v>
       </c>
       <c r="G76" s="3">
-        <v>5715300</v>
+        <v>5218300</v>
       </c>
       <c r="H76" s="3">
-        <v>5316000</v>
+        <v>4853700</v>
       </c>
       <c r="I76" s="3">
-        <v>4891500</v>
+        <v>4466200</v>
       </c>
       <c r="J76" s="3">
-        <v>4434300</v>
+        <v>4048700</v>
       </c>
       <c r="K76" s="3">
         <v>4386700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>940000</v>
+        <v>858200</v>
       </c>
       <c r="E81" s="3">
-        <v>63500</v>
+        <v>58000</v>
       </c>
       <c r="F81" s="3">
-        <v>717000</v>
+        <v>654600</v>
       </c>
       <c r="G81" s="3">
-        <v>611500</v>
+        <v>558400</v>
       </c>
       <c r="H81" s="3">
-        <v>601500</v>
+        <v>549200</v>
       </c>
       <c r="I81" s="3">
-        <v>659000</v>
+        <v>601700</v>
       </c>
       <c r="J81" s="3">
-        <v>579300</v>
+        <v>529000</v>
       </c>
       <c r="K81" s="3">
         <v>431300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>196700</v>
+        <v>179600</v>
       </c>
       <c r="E83" s="3">
-        <v>169400</v>
+        <v>154600</v>
       </c>
       <c r="F83" s="3">
-        <v>155800</v>
+        <v>142200</v>
       </c>
       <c r="G83" s="3">
-        <v>107600</v>
+        <v>98200</v>
       </c>
       <c r="H83" s="3">
-        <v>99600</v>
+        <v>90900</v>
       </c>
       <c r="I83" s="3">
-        <v>111100</v>
+        <v>101400</v>
       </c>
       <c r="J83" s="3">
-        <v>110800</v>
+        <v>101100</v>
       </c>
       <c r="K83" s="3">
         <v>113200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1401900</v>
+        <v>1280000</v>
       </c>
       <c r="E89" s="3">
-        <v>2583000</v>
+        <v>2358400</v>
       </c>
       <c r="F89" s="3">
-        <v>2832600</v>
+        <v>2586300</v>
       </c>
       <c r="G89" s="3">
-        <v>239900</v>
+        <v>219000</v>
       </c>
       <c r="H89" s="3">
-        <v>676100</v>
+        <v>617300</v>
       </c>
       <c r="I89" s="3">
-        <v>828300</v>
+        <v>756300</v>
       </c>
       <c r="J89" s="3">
-        <v>427000</v>
+        <v>389900</v>
       </c>
       <c r="K89" s="3">
         <v>-1733500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-502700</v>
+        <v>-459000</v>
       </c>
       <c r="E91" s="3">
-        <v>-351900</v>
+        <v>-321300</v>
       </c>
       <c r="F91" s="3">
-        <v>-357800</v>
+        <v>-326600</v>
       </c>
       <c r="G91" s="3">
-        <v>-233200</v>
+        <v>-213000</v>
       </c>
       <c r="H91" s="3">
-        <v>-260400</v>
+        <v>-237700</v>
       </c>
       <c r="I91" s="3">
-        <v>-249000</v>
+        <v>-227300</v>
       </c>
       <c r="J91" s="3">
-        <v>-221200</v>
+        <v>-202000</v>
       </c>
       <c r="K91" s="3">
         <v>-691300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-149600</v>
+        <v>-136600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1730100</v>
+        <v>-1579600</v>
       </c>
       <c r="F94" s="3">
-        <v>-503900</v>
+        <v>-460100</v>
       </c>
       <c r="G94" s="3">
-        <v>-317800</v>
+        <v>-290200</v>
       </c>
       <c r="H94" s="3">
-        <v>-438900</v>
+        <v>-400700</v>
       </c>
       <c r="I94" s="3">
-        <v>-236400</v>
+        <v>-215800</v>
       </c>
       <c r="J94" s="3">
-        <v>32700</v>
+        <v>29800</v>
       </c>
       <c r="K94" s="3">
         <v>242900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-107500</v>
+        <v>-98100</v>
       </c>
       <c r="E96" s="3">
-        <v>-357800</v>
+        <v>-326700</v>
       </c>
       <c r="F96" s="3">
-        <v>-237500</v>
+        <v>-216800</v>
       </c>
       <c r="G96" s="3">
-        <v>-169200</v>
+        <v>-154500</v>
       </c>
       <c r="H96" s="3">
-        <v>-259000</v>
+        <v>-236500</v>
       </c>
       <c r="I96" s="3">
-        <v>-193300</v>
+        <v>-176500</v>
       </c>
       <c r="J96" s="3">
-        <v>-180600</v>
+        <v>-164900</v>
       </c>
       <c r="K96" s="3">
         <v>-185600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1566300</v>
+        <v>-1430100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1130600</v>
+        <v>-1032200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1210000</v>
+        <v>-1104700</v>
       </c>
       <c r="G100" s="3">
-        <v>-168500</v>
+        <v>-153900</v>
       </c>
       <c r="H100" s="3">
-        <v>-832800</v>
+        <v>-760400</v>
       </c>
       <c r="I100" s="3">
-        <v>-79100</v>
+        <v>-72200</v>
       </c>
       <c r="J100" s="3">
-        <v>-53200</v>
+        <v>-48600</v>
       </c>
       <c r="K100" s="3">
         <v>423800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>688600</v>
+        <v>628700</v>
       </c>
       <c r="E101" s="3">
-        <v>269200</v>
+        <v>245800</v>
       </c>
       <c r="F101" s="3">
-        <v>32900</v>
+        <v>30100</v>
       </c>
       <c r="G101" s="3">
-        <v>376500</v>
+        <v>343700</v>
       </c>
       <c r="H101" s="3">
-        <v>67800</v>
+        <v>61900</v>
       </c>
       <c r="I101" s="3">
-        <v>-132300</v>
+        <v>-120800</v>
       </c>
       <c r="J101" s="3">
-        <v>821500</v>
+        <v>750000</v>
       </c>
       <c r="K101" s="3">
         <v>552200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>374600</v>
+        <v>342000</v>
       </c>
       <c r="E102" s="3">
-        <v>-8500</v>
+        <v>-7700</v>
       </c>
       <c r="F102" s="3">
-        <v>1151700</v>
+        <v>1051500</v>
       </c>
       <c r="G102" s="3">
-        <v>130000</v>
+        <v>118700</v>
       </c>
       <c r="H102" s="3">
-        <v>-527800</v>
+        <v>-481900</v>
       </c>
       <c r="I102" s="3">
-        <v>380600</v>
+        <v>347500</v>
       </c>
       <c r="J102" s="3">
-        <v>1227900</v>
+        <v>1121100</v>
       </c>
       <c r="K102" s="3">
         <v>-514600</v>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1427700</v>
+        <v>1436200</v>
       </c>
       <c r="E21" s="3">
-        <v>212100</v>
+        <v>219500</v>
       </c>
       <c r="F21" s="3">
-        <v>1075700</v>
+        <v>1082500</v>
       </c>
       <c r="G21" s="3">
-        <v>852900</v>
+        <v>857600</v>
       </c>
       <c r="H21" s="3">
-        <v>925100</v>
+        <v>929400</v>
       </c>
       <c r="I21" s="3">
-        <v>929900</v>
+        <v>934700</v>
       </c>
       <c r="J21" s="3">
-        <v>775800</v>
+        <v>780600</v>
       </c>
       <c r="K21" s="3">
         <v>924700</v>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>CIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3381400</v>
+        <v>5857600</v>
       </c>
       <c r="E8" s="3">
-        <v>3575600</v>
+        <v>3542500</v>
       </c>
       <c r="F8" s="3">
-        <v>3688300</v>
+        <v>3745800</v>
       </c>
       <c r="G8" s="3">
-        <v>3389200</v>
+        <v>3864000</v>
       </c>
       <c r="H8" s="3">
-        <v>3519200</v>
+        <v>3550600</v>
       </c>
       <c r="I8" s="3">
-        <v>3308200</v>
+        <v>3686800</v>
       </c>
       <c r="J8" s="3">
+        <v>3465800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2359900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2408700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2195300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2298600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1962000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-179600</v>
+        <v>-208900</v>
       </c>
       <c r="E15" s="3">
-        <v>-154600</v>
+        <v>-188100</v>
       </c>
       <c r="F15" s="3">
-        <v>-142200</v>
+        <v>-162000</v>
       </c>
       <c r="G15" s="3">
-        <v>-97900</v>
+        <v>-149000</v>
       </c>
       <c r="H15" s="3">
-        <v>-90900</v>
+        <v>-102600</v>
       </c>
       <c r="I15" s="3">
-        <v>-100600</v>
+        <v>-95300</v>
       </c>
       <c r="J15" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-96800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-355400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-137100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-109600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-90500</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1422100</v>
+        <v>2691500</v>
       </c>
       <c r="E17" s="3">
-        <v>2811800</v>
+        <v>1489900</v>
       </c>
       <c r="F17" s="3">
-        <v>2014100</v>
+        <v>2945700</v>
       </c>
       <c r="G17" s="3">
-        <v>1998400</v>
+        <v>2110000</v>
       </c>
       <c r="H17" s="3">
-        <v>2037400</v>
+        <v>2093600</v>
       </c>
       <c r="I17" s="3">
-        <v>1844700</v>
+        <v>2134400</v>
       </c>
       <c r="J17" s="3">
+        <v>1932500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1198200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1042100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1219400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1240600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>951200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1959300</v>
+        <v>3166100</v>
       </c>
       <c r="E18" s="3">
-        <v>763800</v>
+        <v>2052600</v>
       </c>
       <c r="F18" s="3">
-        <v>1674200</v>
+        <v>800100</v>
       </c>
       <c r="G18" s="3">
-        <v>1390800</v>
+        <v>1754000</v>
       </c>
       <c r="H18" s="3">
-        <v>1481800</v>
+        <v>1457000</v>
       </c>
       <c r="I18" s="3">
-        <v>1463600</v>
+        <v>1552400</v>
       </c>
       <c r="J18" s="3">
+        <v>1533200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1161800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1366500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>975900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1058000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1010800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-702700</v>
+        <v>-1022300</v>
       </c>
       <c r="E20" s="3">
-        <v>-698900</v>
+        <v>-736100</v>
       </c>
       <c r="F20" s="3">
-        <v>-734000</v>
+        <v>-732200</v>
       </c>
       <c r="G20" s="3">
-        <v>-631500</v>
+        <v>-768900</v>
       </c>
       <c r="H20" s="3">
-        <v>-643400</v>
+        <v>-661500</v>
       </c>
       <c r="I20" s="3">
-        <v>-630200</v>
+        <v>-674000</v>
       </c>
       <c r="J20" s="3">
+        <v>-660200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-482300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-559300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-454200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-405600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-302700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1436200</v>
+        <v>2352700</v>
       </c>
       <c r="E21" s="3">
-        <v>219500</v>
+        <v>1504600</v>
       </c>
       <c r="F21" s="3">
-        <v>1082500</v>
+        <v>229900</v>
       </c>
       <c r="G21" s="3">
-        <v>857600</v>
+        <v>1134100</v>
       </c>
       <c r="H21" s="3">
-        <v>929400</v>
+        <v>898400</v>
       </c>
       <c r="I21" s="3">
-        <v>934700</v>
+        <v>973700</v>
       </c>
       <c r="J21" s="3">
+        <v>979300</v>
+      </c>
+      <c r="K21" s="3">
         <v>780600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>924700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>730100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>814700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>838300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1256600</v>
+        <v>2143900</v>
       </c>
       <c r="E23" s="3">
-        <v>64800</v>
+        <v>1316500</v>
       </c>
       <c r="F23" s="3">
-        <v>940300</v>
+        <v>67900</v>
       </c>
       <c r="G23" s="3">
-        <v>759300</v>
+        <v>985100</v>
       </c>
       <c r="H23" s="3">
-        <v>838500</v>
+        <v>795500</v>
       </c>
       <c r="I23" s="3">
-        <v>833300</v>
+        <v>878400</v>
       </c>
       <c r="J23" s="3">
+        <v>873000</v>
+      </c>
+      <c r="K23" s="3">
         <v>679500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>807200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>521700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>652500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>708100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>373000</v>
+        <v>604700</v>
       </c>
       <c r="E24" s="3">
+        <v>390800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1400</v>
       </c>
-      <c r="F24" s="3">
-        <v>265200</v>
-      </c>
       <c r="G24" s="3">
-        <v>174200</v>
+        <v>277900</v>
       </c>
       <c r="H24" s="3">
-        <v>260100</v>
+        <v>182500</v>
       </c>
       <c r="I24" s="3">
-        <v>247100</v>
+        <v>272500</v>
       </c>
       <c r="J24" s="3">
+        <v>258900</v>
+      </c>
+      <c r="K24" s="3">
         <v>136300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>191800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>112600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>140100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>155300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>883600</v>
+        <v>1539200</v>
       </c>
       <c r="E26" s="3">
-        <v>66200</v>
+        <v>925700</v>
       </c>
       <c r="F26" s="3">
-        <v>675100</v>
+        <v>69400</v>
       </c>
       <c r="G26" s="3">
-        <v>585200</v>
+        <v>707200</v>
       </c>
       <c r="H26" s="3">
-        <v>578400</v>
+        <v>613000</v>
       </c>
       <c r="I26" s="3">
-        <v>586200</v>
+        <v>605900</v>
       </c>
       <c r="J26" s="3">
+        <v>614100</v>
+      </c>
+      <c r="K26" s="3">
         <v>543100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>615400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>409100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>512300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>552800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>858200</v>
+        <v>1492400</v>
       </c>
       <c r="E27" s="3">
-        <v>58000</v>
+        <v>899100</v>
       </c>
       <c r="F27" s="3">
-        <v>654600</v>
+        <v>60700</v>
       </c>
       <c r="G27" s="3">
-        <v>558400</v>
+        <v>685800</v>
       </c>
       <c r="H27" s="3">
-        <v>549200</v>
+        <v>585000</v>
       </c>
       <c r="I27" s="3">
-        <v>567400</v>
+        <v>575300</v>
       </c>
       <c r="J27" s="3">
+        <v>594400</v>
+      </c>
+      <c r="K27" s="3">
         <v>524200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>414900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>255600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>286600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>194100</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,27 +1547,30 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>34300</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K29" s="3">
         <v>4700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>16300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>8800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>28700</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>702700</v>
+        <v>1022300</v>
       </c>
       <c r="E32" s="3">
-        <v>698900</v>
+        <v>736100</v>
       </c>
       <c r="F32" s="3">
-        <v>734000</v>
+        <v>732200</v>
       </c>
       <c r="G32" s="3">
-        <v>631500</v>
+        <v>768900</v>
       </c>
       <c r="H32" s="3">
-        <v>643400</v>
+        <v>661500</v>
       </c>
       <c r="I32" s="3">
-        <v>630200</v>
+        <v>674000</v>
       </c>
       <c r="J32" s="3">
+        <v>660200</v>
+      </c>
+      <c r="K32" s="3">
         <v>482300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>559300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>454200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>405600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>302700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>858200</v>
+        <v>1492400</v>
       </c>
       <c r="E33" s="3">
-        <v>58000</v>
+        <v>899100</v>
       </c>
       <c r="F33" s="3">
-        <v>654600</v>
+        <v>60700</v>
       </c>
       <c r="G33" s="3">
-        <v>558400</v>
+        <v>685800</v>
       </c>
       <c r="H33" s="3">
-        <v>549200</v>
+        <v>585000</v>
       </c>
       <c r="I33" s="3">
-        <v>601700</v>
+        <v>575300</v>
       </c>
       <c r="J33" s="3">
+        <v>630400</v>
+      </c>
+      <c r="K33" s="3">
         <v>529000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>431300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>255600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>295400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>222800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>858200</v>
+        <v>1492400</v>
       </c>
       <c r="E35" s="3">
-        <v>58000</v>
+        <v>899100</v>
       </c>
       <c r="F35" s="3">
-        <v>654600</v>
+        <v>60700</v>
       </c>
       <c r="G35" s="3">
-        <v>558400</v>
+        <v>685800</v>
       </c>
       <c r="H35" s="3">
-        <v>549200</v>
+        <v>585000</v>
       </c>
       <c r="I35" s="3">
-        <v>601700</v>
+        <v>575300</v>
       </c>
       <c r="J35" s="3">
+        <v>630400</v>
+      </c>
+      <c r="K35" s="3">
         <v>529000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>431300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>255600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>295400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>222800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4861000</v>
+        <v>5438700</v>
       </c>
       <c r="E41" s="3">
-        <v>4238900</v>
+        <v>5092500</v>
       </c>
       <c r="F41" s="3">
-        <v>3833800</v>
+        <v>4440700</v>
       </c>
       <c r="G41" s="3">
-        <v>3324900</v>
+        <v>4016300</v>
       </c>
       <c r="H41" s="3">
-        <v>3259900</v>
+        <v>3483300</v>
       </c>
       <c r="I41" s="3">
-        <v>3405600</v>
+        <v>3415100</v>
       </c>
       <c r="J41" s="3">
+        <v>3567700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3002000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5820800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3085400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2143200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2250000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1995800</v>
+        <v>4006600</v>
       </c>
       <c r="E42" s="3">
-        <v>2267500</v>
+        <v>2090800</v>
       </c>
       <c r="F42" s="3">
-        <v>2424900</v>
+        <v>2375500</v>
       </c>
       <c r="G42" s="3">
-        <v>1818200</v>
+        <v>2540300</v>
       </c>
       <c r="H42" s="3">
-        <v>1607000</v>
+        <v>1904800</v>
       </c>
       <c r="I42" s="3">
-        <v>1915000</v>
+        <v>1683600</v>
       </c>
       <c r="J42" s="3">
+        <v>2006200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2133100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4265100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2951300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2353500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1624400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>571300</v>
+        <v>641400</v>
       </c>
       <c r="E47" s="3">
-        <v>526300</v>
+        <v>598500</v>
       </c>
       <c r="F47" s="3">
-        <v>497200</v>
+        <v>551400</v>
       </c>
       <c r="G47" s="3">
-        <v>451400</v>
+        <v>520900</v>
       </c>
       <c r="H47" s="3">
-        <v>328700</v>
+        <v>472900</v>
       </c>
       <c r="I47" s="3">
-        <v>272600</v>
+        <v>344300</v>
       </c>
       <c r="J47" s="3">
+        <v>285600</v>
+      </c>
+      <c r="K47" s="3">
         <v>114800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>350900</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2085000</v>
+        <v>2760600</v>
       </c>
       <c r="E48" s="3">
-        <v>1848600</v>
+        <v>2184300</v>
       </c>
       <c r="F48" s="3">
-        <v>1577700</v>
+        <v>1936600</v>
       </c>
       <c r="G48" s="3">
-        <v>1071300</v>
+        <v>1652800</v>
       </c>
       <c r="H48" s="3">
-        <v>1004800</v>
+        <v>1122300</v>
       </c>
       <c r="I48" s="3">
-        <v>986500</v>
+        <v>1052700</v>
       </c>
       <c r="J48" s="3">
+        <v>1033400</v>
+      </c>
+      <c r="K48" s="3">
         <v>996800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1611800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>591800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>905700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>886300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1812000</v>
+        <v>2296600</v>
       </c>
       <c r="E49" s="3">
-        <v>1576500</v>
+        <v>1898300</v>
       </c>
       <c r="F49" s="3">
-        <v>1519000</v>
+        <v>1651600</v>
       </c>
       <c r="G49" s="3">
-        <v>1512400</v>
+        <v>1591300</v>
       </c>
       <c r="H49" s="3">
-        <v>1392600</v>
+        <v>1584400</v>
       </c>
       <c r="I49" s="3">
-        <v>1405700</v>
+        <v>1458900</v>
       </c>
       <c r="J49" s="3">
+        <v>1472700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1489400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2224700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>969100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>171400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>224400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>156700</v>
+        <v>168200</v>
       </c>
       <c r="E52" s="3">
-        <v>141800</v>
+        <v>164200</v>
       </c>
       <c r="F52" s="3">
-        <v>84200</v>
+        <v>148600</v>
       </c>
       <c r="G52" s="3">
-        <v>56900</v>
+        <v>88200</v>
       </c>
       <c r="H52" s="3">
-        <v>31200</v>
+        <v>59700</v>
       </c>
       <c r="I52" s="3">
-        <v>46800</v>
+        <v>32700</v>
       </c>
       <c r="J52" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K52" s="3">
         <v>35800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60869600</v>
+        <v>77619200</v>
       </c>
       <c r="E54" s="3">
-        <v>53669400</v>
+        <v>63768100</v>
       </c>
       <c r="F54" s="3">
-        <v>49578500</v>
+        <v>56225100</v>
       </c>
       <c r="G54" s="3">
-        <v>46223900</v>
+        <v>51939400</v>
       </c>
       <c r="H54" s="3">
-        <v>42820700</v>
+        <v>48425000</v>
       </c>
       <c r="I54" s="3">
-        <v>41214800</v>
+        <v>44859800</v>
       </c>
       <c r="J54" s="3">
+        <v>43177400</v>
+      </c>
+      <c r="K54" s="3">
         <v>40524300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38903800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35320400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29374900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28202800</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,125 +2527,135 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>824600</v>
+        <v>1311800</v>
       </c>
       <c r="E57" s="3">
-        <v>648300</v>
+        <v>863900</v>
       </c>
       <c r="F57" s="3">
-        <v>718900</v>
+        <v>679200</v>
       </c>
       <c r="G57" s="3">
+        <v>753100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>665500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>680500</v>
+      </c>
+      <c r="J57" s="3">
         <v>635200</v>
       </c>
-      <c r="H57" s="3">
-        <v>649600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>606400</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>430900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1233800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>705000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>850500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>848300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1646000</v>
+        <v>2469300</v>
       </c>
       <c r="E58" s="3">
-        <v>1560200</v>
+        <v>1724400</v>
       </c>
       <c r="F58" s="3">
-        <v>2346900</v>
+        <v>1634500</v>
       </c>
       <c r="G58" s="3">
-        <v>3179400</v>
+        <v>2458700</v>
       </c>
       <c r="H58" s="3">
-        <v>2804400</v>
+        <v>3330800</v>
       </c>
       <c r="I58" s="3">
-        <v>2915800</v>
+        <v>2938000</v>
       </c>
       <c r="J58" s="3">
+        <v>3054700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2596000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3286400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>145400</v>
+        <v>460700</v>
       </c>
       <c r="E59" s="3">
-        <v>190600</v>
+        <v>152300</v>
       </c>
       <c r="F59" s="3">
-        <v>161200</v>
+        <v>199700</v>
       </c>
       <c r="G59" s="3">
-        <v>146800</v>
+        <v>168800</v>
       </c>
       <c r="H59" s="3">
-        <v>93500</v>
+        <v>153800</v>
       </c>
       <c r="I59" s="3">
-        <v>141700</v>
+        <v>97900</v>
       </c>
       <c r="J59" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K59" s="3">
         <v>160500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>420200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>279100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>103500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>92500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5084200</v>
+        <v>6716400</v>
       </c>
       <c r="E61" s="3">
-        <v>5778800</v>
+        <v>5326300</v>
       </c>
       <c r="F61" s="3">
-        <v>5551300</v>
+        <v>6053900</v>
       </c>
       <c r="G61" s="3">
-        <v>5120800</v>
+        <v>5815600</v>
       </c>
       <c r="H61" s="3">
-        <v>5026500</v>
+        <v>5364600</v>
       </c>
       <c r="I61" s="3">
-        <v>5508700</v>
+        <v>5265800</v>
       </c>
       <c r="J61" s="3">
+        <v>5771000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6007800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5284900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6705800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3617800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3402000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>450000</v>
+        <v>399500</v>
       </c>
       <c r="E62" s="3">
-        <v>467600</v>
+        <v>471400</v>
       </c>
       <c r="F62" s="3">
-        <v>521100</v>
+        <v>489900</v>
       </c>
       <c r="G62" s="3">
-        <v>441200</v>
+        <v>546000</v>
       </c>
       <c r="H62" s="3">
-        <v>466600</v>
+        <v>462200</v>
       </c>
       <c r="I62" s="3">
-        <v>437600</v>
+        <v>488800</v>
       </c>
       <c r="J62" s="3">
+        <v>458500</v>
+      </c>
+      <c r="K62" s="3">
         <v>305100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>275100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>40100</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54100300</v>
+        <v>69019700</v>
       </c>
       <c r="E66" s="3">
-        <v>48094900</v>
+        <v>56676600</v>
       </c>
       <c r="F66" s="3">
-        <v>43932900</v>
+        <v>50385100</v>
       </c>
       <c r="G66" s="3">
-        <v>41005600</v>
+        <v>46024900</v>
       </c>
       <c r="H66" s="3">
-        <v>37967000</v>
+        <v>42958200</v>
       </c>
       <c r="I66" s="3">
-        <v>36748600</v>
+        <v>39775000</v>
       </c>
       <c r="J66" s="3">
+        <v>38498600</v>
+      </c>
+      <c r="K66" s="3">
         <v>36475600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34517100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31947300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25892800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25235000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2916,14 +3083,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>55000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>50000</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4627400</v>
+        <v>5720800</v>
       </c>
       <c r="E72" s="3">
-        <v>3786300</v>
+        <v>4847800</v>
       </c>
       <c r="F72" s="3">
-        <v>3828800</v>
+        <v>3966600</v>
       </c>
       <c r="G72" s="3">
-        <v>3424400</v>
+        <v>4011100</v>
       </c>
       <c r="H72" s="3">
-        <v>3197300</v>
+        <v>3587400</v>
       </c>
       <c r="I72" s="3">
-        <v>2910900</v>
+        <v>3349600</v>
       </c>
       <c r="J72" s="3">
+        <v>3049500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2465000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6803400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3027200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2283500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2217600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6769200</v>
+        <v>8599600</v>
       </c>
       <c r="E76" s="3">
-        <v>5574500</v>
+        <v>7091600</v>
       </c>
       <c r="F76" s="3">
-        <v>5645600</v>
+        <v>5840000</v>
       </c>
       <c r="G76" s="3">
-        <v>5218300</v>
+        <v>5914500</v>
       </c>
       <c r="H76" s="3">
-        <v>4853700</v>
+        <v>5466800</v>
       </c>
       <c r="I76" s="3">
-        <v>4466200</v>
+        <v>5084900</v>
       </c>
       <c r="J76" s="3">
+        <v>4678900</v>
+      </c>
+      <c r="K76" s="3">
         <v>4048700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4386700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3373100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3427100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2917800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>858200</v>
+        <v>1492400</v>
       </c>
       <c r="E81" s="3">
-        <v>58000</v>
+        <v>899100</v>
       </c>
       <c r="F81" s="3">
-        <v>654600</v>
+        <v>60700</v>
       </c>
       <c r="G81" s="3">
-        <v>558400</v>
+        <v>685800</v>
       </c>
       <c r="H81" s="3">
-        <v>549200</v>
+        <v>585000</v>
       </c>
       <c r="I81" s="3">
-        <v>601700</v>
+        <v>575300</v>
       </c>
       <c r="J81" s="3">
+        <v>630400</v>
+      </c>
+      <c r="K81" s="3">
         <v>529000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>431300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>255600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>295400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>222800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>179600</v>
+        <v>208900</v>
       </c>
       <c r="E83" s="3">
-        <v>154600</v>
+        <v>188100</v>
       </c>
       <c r="F83" s="3">
-        <v>142200</v>
+        <v>162000</v>
       </c>
       <c r="G83" s="3">
-        <v>98200</v>
+        <v>149000</v>
       </c>
       <c r="H83" s="3">
-        <v>90900</v>
+        <v>102900</v>
       </c>
       <c r="I83" s="3">
-        <v>101400</v>
+        <v>95300</v>
       </c>
       <c r="J83" s="3">
+        <v>106200</v>
+      </c>
+      <c r="K83" s="3">
         <v>101100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>113200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>208400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>162200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>130200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1280000</v>
+        <v>1444100</v>
       </c>
       <c r="E89" s="3">
-        <v>2358400</v>
+        <v>1341000</v>
       </c>
       <c r="F89" s="3">
-        <v>2586300</v>
+        <v>2470700</v>
       </c>
       <c r="G89" s="3">
-        <v>219000</v>
+        <v>2709400</v>
       </c>
       <c r="H89" s="3">
-        <v>617300</v>
+        <v>229400</v>
       </c>
       <c r="I89" s="3">
-        <v>756300</v>
+        <v>646700</v>
       </c>
       <c r="J89" s="3">
+        <v>792300</v>
+      </c>
+      <c r="K89" s="3">
         <v>389900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1733500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1421800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>541900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1299900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-459000</v>
+        <v>-778500</v>
       </c>
       <c r="E91" s="3">
-        <v>-321300</v>
+        <v>-480900</v>
       </c>
       <c r="F91" s="3">
-        <v>-326600</v>
+        <v>-336600</v>
       </c>
       <c r="G91" s="3">
-        <v>-213000</v>
+        <v>-342200</v>
       </c>
       <c r="H91" s="3">
-        <v>-237700</v>
+        <v>-223100</v>
       </c>
       <c r="I91" s="3">
-        <v>-227300</v>
+        <v>-249000</v>
       </c>
       <c r="J91" s="3">
+        <v>-238200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-202000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-691300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-497200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-339700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-463200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-136600</v>
+        <v>-1024000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1579600</v>
+        <v>-143100</v>
       </c>
       <c r="F94" s="3">
-        <v>-460100</v>
+        <v>-1654900</v>
       </c>
       <c r="G94" s="3">
-        <v>-290200</v>
+        <v>-482000</v>
       </c>
       <c r="H94" s="3">
-        <v>-400700</v>
+        <v>-304000</v>
       </c>
       <c r="I94" s="3">
-        <v>-215800</v>
+        <v>-419800</v>
       </c>
       <c r="J94" s="3">
+        <v>-226100</v>
+      </c>
+      <c r="K94" s="3">
         <v>29800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>242900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-898400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-178300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-171500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-98100</v>
+        <v>-508300</v>
       </c>
       <c r="E96" s="3">
-        <v>-326700</v>
+        <v>-102800</v>
       </c>
       <c r="F96" s="3">
-        <v>-216800</v>
+        <v>-342300</v>
       </c>
       <c r="G96" s="3">
-        <v>-154500</v>
+        <v>-227100</v>
       </c>
       <c r="H96" s="3">
-        <v>-236500</v>
+        <v>-161900</v>
       </c>
       <c r="I96" s="3">
-        <v>-176500</v>
+        <v>-247800</v>
       </c>
       <c r="J96" s="3">
+        <v>-184900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-164900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-185600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-170600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-175000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-173800</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1430100</v>
+        <v>187800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1032200</v>
+        <v>-1498200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1104700</v>
+        <v>-1081400</v>
       </c>
       <c r="G100" s="3">
-        <v>-153900</v>
+        <v>-1157400</v>
       </c>
       <c r="H100" s="3">
-        <v>-760400</v>
+        <v>-161200</v>
       </c>
       <c r="I100" s="3">
-        <v>-72200</v>
+        <v>-796600</v>
       </c>
       <c r="J100" s="3">
+        <v>-75600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-48600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>423800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1337800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-150800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1946500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>628700</v>
+        <v>781500</v>
       </c>
       <c r="E101" s="3">
-        <v>245800</v>
+        <v>658600</v>
       </c>
       <c r="F101" s="3">
-        <v>30100</v>
+        <v>257500</v>
       </c>
       <c r="G101" s="3">
-        <v>343700</v>
+        <v>31500</v>
       </c>
       <c r="H101" s="3">
-        <v>61900</v>
+        <v>360100</v>
       </c>
       <c r="I101" s="3">
-        <v>-120800</v>
+        <v>64900</v>
       </c>
       <c r="J101" s="3">
+        <v>-126600</v>
+      </c>
+      <c r="K101" s="3">
         <v>750000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>552200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>93400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-80800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>44300</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>342000</v>
+        <v>1389400</v>
       </c>
       <c r="E102" s="3">
-        <v>-7700</v>
+        <v>358300</v>
       </c>
       <c r="F102" s="3">
-        <v>1051500</v>
+        <v>-8100</v>
       </c>
       <c r="G102" s="3">
-        <v>118700</v>
+        <v>1101600</v>
       </c>
       <c r="H102" s="3">
-        <v>-481900</v>
+        <v>124300</v>
       </c>
       <c r="I102" s="3">
-        <v>347500</v>
+        <v>-504800</v>
       </c>
       <c r="J102" s="3">
+        <v>364000</v>
+      </c>
+      <c r="K102" s="3">
         <v>1121100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-514600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1954700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>132000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>519400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5857600</v>
+        <v>6390100</v>
       </c>
       <c r="E8" s="3">
-        <v>3542500</v>
+        <v>3864500</v>
       </c>
       <c r="F8" s="3">
-        <v>3745800</v>
+        <v>4086300</v>
       </c>
       <c r="G8" s="3">
-        <v>3864000</v>
+        <v>4215200</v>
       </c>
       <c r="H8" s="3">
-        <v>3550600</v>
+        <v>3873400</v>
       </c>
       <c r="I8" s="3">
-        <v>3686800</v>
+        <v>4021900</v>
       </c>
       <c r="J8" s="3">
-        <v>3465800</v>
+        <v>3780900</v>
       </c>
       <c r="K8" s="3">
         <v>2359900</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-208900</v>
+        <v>-227900</v>
       </c>
       <c r="E15" s="3">
-        <v>-188100</v>
+        <v>-205200</v>
       </c>
       <c r="F15" s="3">
-        <v>-162000</v>
+        <v>-176700</v>
       </c>
       <c r="G15" s="3">
-        <v>-149000</v>
+        <v>-162500</v>
       </c>
       <c r="H15" s="3">
-        <v>-102600</v>
+        <v>-111900</v>
       </c>
       <c r="I15" s="3">
-        <v>-95300</v>
+        <v>-103900</v>
       </c>
       <c r="J15" s="3">
-        <v>-105400</v>
+        <v>-115000</v>
       </c>
       <c r="K15" s="3">
         <v>-96800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2691500</v>
+        <v>2936200</v>
       </c>
       <c r="E17" s="3">
-        <v>1489900</v>
+        <v>1625300</v>
       </c>
       <c r="F17" s="3">
-        <v>2945700</v>
+        <v>3213500</v>
       </c>
       <c r="G17" s="3">
-        <v>2110000</v>
+        <v>2301800</v>
       </c>
       <c r="H17" s="3">
-        <v>2093600</v>
+        <v>2283900</v>
       </c>
       <c r="I17" s="3">
-        <v>2134400</v>
+        <v>2328400</v>
       </c>
       <c r="J17" s="3">
-        <v>1932500</v>
+        <v>2108200</v>
       </c>
       <c r="K17" s="3">
         <v>1198200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3166100</v>
+        <v>3453900</v>
       </c>
       <c r="E18" s="3">
-        <v>2052600</v>
+        <v>2239200</v>
       </c>
       <c r="F18" s="3">
-        <v>800100</v>
+        <v>872900</v>
       </c>
       <c r="G18" s="3">
-        <v>1754000</v>
+        <v>1913400</v>
       </c>
       <c r="H18" s="3">
-        <v>1457000</v>
+        <v>1589500</v>
       </c>
       <c r="I18" s="3">
-        <v>1552400</v>
+        <v>1693500</v>
       </c>
       <c r="J18" s="3">
-        <v>1533200</v>
+        <v>1672600</v>
       </c>
       <c r="K18" s="3">
         <v>1161800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1022300</v>
+        <v>-1115200</v>
       </c>
       <c r="E20" s="3">
-        <v>-736100</v>
+        <v>-803000</v>
       </c>
       <c r="F20" s="3">
-        <v>-732200</v>
+        <v>-798800</v>
       </c>
       <c r="G20" s="3">
-        <v>-768900</v>
+        <v>-838800</v>
       </c>
       <c r="H20" s="3">
-        <v>-661500</v>
+        <v>-721700</v>
       </c>
       <c r="I20" s="3">
-        <v>-674000</v>
+        <v>-735300</v>
       </c>
       <c r="J20" s="3">
-        <v>-660200</v>
+        <v>-720200</v>
       </c>
       <c r="K20" s="3">
         <v>-482300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2352700</v>
+        <v>2566600</v>
       </c>
       <c r="E21" s="3">
-        <v>1504600</v>
+        <v>1641400</v>
       </c>
       <c r="F21" s="3">
-        <v>229900</v>
+        <v>250800</v>
       </c>
       <c r="G21" s="3">
-        <v>1134100</v>
+        <v>1237100</v>
       </c>
       <c r="H21" s="3">
-        <v>898400</v>
+        <v>980100</v>
       </c>
       <c r="I21" s="3">
-        <v>973700</v>
+        <v>1062200</v>
       </c>
       <c r="J21" s="3">
-        <v>979300</v>
+        <v>1068300</v>
       </c>
       <c r="K21" s="3">
         <v>780600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2143900</v>
+        <v>2338700</v>
       </c>
       <c r="E23" s="3">
-        <v>1316500</v>
+        <v>1436200</v>
       </c>
       <c r="F23" s="3">
-        <v>67900</v>
+        <v>74100</v>
       </c>
       <c r="G23" s="3">
-        <v>985100</v>
+        <v>1074600</v>
       </c>
       <c r="H23" s="3">
-        <v>795500</v>
+        <v>867800</v>
       </c>
       <c r="I23" s="3">
-        <v>878400</v>
+        <v>958300</v>
       </c>
       <c r="J23" s="3">
-        <v>873000</v>
+        <v>952400</v>
       </c>
       <c r="K23" s="3">
         <v>679500</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>604700</v>
+        <v>659600</v>
       </c>
       <c r="E24" s="3">
-        <v>390800</v>
+        <v>426300</v>
       </c>
       <c r="F24" s="3">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="G24" s="3">
-        <v>277900</v>
+        <v>303100</v>
       </c>
       <c r="H24" s="3">
-        <v>182500</v>
+        <v>199100</v>
       </c>
       <c r="I24" s="3">
-        <v>272500</v>
+        <v>297300</v>
       </c>
       <c r="J24" s="3">
-        <v>258900</v>
+        <v>282400</v>
       </c>
       <c r="K24" s="3">
         <v>136300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1539200</v>
+        <v>1679100</v>
       </c>
       <c r="E26" s="3">
-        <v>925700</v>
+        <v>1009900</v>
       </c>
       <c r="F26" s="3">
-        <v>69400</v>
+        <v>75700</v>
       </c>
       <c r="G26" s="3">
-        <v>707200</v>
+        <v>771500</v>
       </c>
       <c r="H26" s="3">
-        <v>613000</v>
+        <v>668700</v>
       </c>
       <c r="I26" s="3">
-        <v>605900</v>
+        <v>661000</v>
       </c>
       <c r="J26" s="3">
-        <v>614100</v>
+        <v>669900</v>
       </c>
       <c r="K26" s="3">
         <v>543100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1492400</v>
+        <v>1628000</v>
       </c>
       <c r="E27" s="3">
-        <v>899100</v>
+        <v>980800</v>
       </c>
       <c r="F27" s="3">
-        <v>60700</v>
+        <v>66200</v>
       </c>
       <c r="G27" s="3">
-        <v>685800</v>
+        <v>748200</v>
       </c>
       <c r="H27" s="3">
-        <v>585000</v>
+        <v>638100</v>
       </c>
       <c r="I27" s="3">
-        <v>575300</v>
+        <v>627600</v>
       </c>
       <c r="J27" s="3">
-        <v>594400</v>
+        <v>648400</v>
       </c>
       <c r="K27" s="3">
         <v>524200</v>
@@ -1551,7 +1551,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="3">
-        <v>36000</v>
+        <v>39200</v>
       </c>
       <c r="K29" s="3">
         <v>4700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1022300</v>
+        <v>1115200</v>
       </c>
       <c r="E32" s="3">
-        <v>736100</v>
+        <v>803000</v>
       </c>
       <c r="F32" s="3">
-        <v>732200</v>
+        <v>798800</v>
       </c>
       <c r="G32" s="3">
-        <v>768900</v>
+        <v>838800</v>
       </c>
       <c r="H32" s="3">
-        <v>661500</v>
+        <v>721700</v>
       </c>
       <c r="I32" s="3">
-        <v>674000</v>
+        <v>735300</v>
       </c>
       <c r="J32" s="3">
-        <v>660200</v>
+        <v>720200</v>
       </c>
       <c r="K32" s="3">
         <v>482300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1492400</v>
+        <v>1628000</v>
       </c>
       <c r="E33" s="3">
-        <v>899100</v>
+        <v>980800</v>
       </c>
       <c r="F33" s="3">
-        <v>60700</v>
+        <v>66200</v>
       </c>
       <c r="G33" s="3">
-        <v>685800</v>
+        <v>748200</v>
       </c>
       <c r="H33" s="3">
-        <v>585000</v>
+        <v>638100</v>
       </c>
       <c r="I33" s="3">
-        <v>575300</v>
+        <v>627600</v>
       </c>
       <c r="J33" s="3">
-        <v>630400</v>
+        <v>687700</v>
       </c>
       <c r="K33" s="3">
         <v>529000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1492400</v>
+        <v>1628000</v>
       </c>
       <c r="E35" s="3">
-        <v>899100</v>
+        <v>980800</v>
       </c>
       <c r="F35" s="3">
-        <v>60700</v>
+        <v>66200</v>
       </c>
       <c r="G35" s="3">
-        <v>685800</v>
+        <v>748200</v>
       </c>
       <c r="H35" s="3">
-        <v>585000</v>
+        <v>638100</v>
       </c>
       <c r="I35" s="3">
-        <v>575300</v>
+        <v>627600</v>
       </c>
       <c r="J35" s="3">
-        <v>630400</v>
+        <v>687700</v>
       </c>
       <c r="K35" s="3">
         <v>529000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5438700</v>
+        <v>5933100</v>
       </c>
       <c r="E41" s="3">
-        <v>5092500</v>
+        <v>5555400</v>
       </c>
       <c r="F41" s="3">
-        <v>4440700</v>
+        <v>4844400</v>
       </c>
       <c r="G41" s="3">
-        <v>4016300</v>
+        <v>4381500</v>
       </c>
       <c r="H41" s="3">
-        <v>3483300</v>
+        <v>3799900</v>
       </c>
       <c r="I41" s="3">
-        <v>3415100</v>
+        <v>3725500</v>
       </c>
       <c r="J41" s="3">
-        <v>3567700</v>
+        <v>3892100</v>
       </c>
       <c r="K41" s="3">
         <v>3002000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4006600</v>
+        <v>4370800</v>
       </c>
       <c r="E42" s="3">
-        <v>2090800</v>
+        <v>2280900</v>
       </c>
       <c r="F42" s="3">
-        <v>2375500</v>
+        <v>2591400</v>
       </c>
       <c r="G42" s="3">
-        <v>2540300</v>
+        <v>2771300</v>
       </c>
       <c r="H42" s="3">
-        <v>1904800</v>
+        <v>2078000</v>
       </c>
       <c r="I42" s="3">
-        <v>1683600</v>
+        <v>1836600</v>
       </c>
       <c r="J42" s="3">
-        <v>2006200</v>
+        <v>2188600</v>
       </c>
       <c r="K42" s="3">
         <v>2133100</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>641400</v>
+        <v>699800</v>
       </c>
       <c r="E47" s="3">
-        <v>598500</v>
+        <v>652900</v>
       </c>
       <c r="F47" s="3">
-        <v>551400</v>
+        <v>601500</v>
       </c>
       <c r="G47" s="3">
-        <v>520900</v>
+        <v>568300</v>
       </c>
       <c r="H47" s="3">
-        <v>472900</v>
+        <v>515900</v>
       </c>
       <c r="I47" s="3">
-        <v>344300</v>
+        <v>375600</v>
       </c>
       <c r="J47" s="3">
-        <v>285600</v>
+        <v>311600</v>
       </c>
       <c r="K47" s="3">
         <v>114800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2760600</v>
+        <v>3011600</v>
       </c>
       <c r="E48" s="3">
-        <v>2184300</v>
+        <v>2382900</v>
       </c>
       <c r="F48" s="3">
-        <v>1936600</v>
+        <v>2112600</v>
       </c>
       <c r="G48" s="3">
-        <v>1652800</v>
+        <v>1803100</v>
       </c>
       <c r="H48" s="3">
-        <v>1122300</v>
+        <v>1224400</v>
       </c>
       <c r="I48" s="3">
-        <v>1052700</v>
+        <v>1148400</v>
       </c>
       <c r="J48" s="3">
-        <v>1033400</v>
+        <v>1127400</v>
       </c>
       <c r="K48" s="3">
         <v>996800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2296600</v>
+        <v>2505400</v>
       </c>
       <c r="E49" s="3">
-        <v>1898300</v>
+        <v>2070900</v>
       </c>
       <c r="F49" s="3">
-        <v>1651600</v>
+        <v>1801800</v>
       </c>
       <c r="G49" s="3">
-        <v>1591300</v>
+        <v>1736000</v>
       </c>
       <c r="H49" s="3">
-        <v>1584400</v>
+        <v>1728400</v>
       </c>
       <c r="I49" s="3">
-        <v>1458900</v>
+        <v>1591500</v>
       </c>
       <c r="J49" s="3">
-        <v>1472700</v>
+        <v>1606600</v>
       </c>
       <c r="K49" s="3">
         <v>1489400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>168200</v>
+        <v>183500</v>
       </c>
       <c r="E52" s="3">
-        <v>164200</v>
+        <v>179100</v>
       </c>
       <c r="F52" s="3">
-        <v>148600</v>
+        <v>162100</v>
       </c>
       <c r="G52" s="3">
-        <v>88200</v>
+        <v>96200</v>
       </c>
       <c r="H52" s="3">
-        <v>59700</v>
+        <v>65100</v>
       </c>
       <c r="I52" s="3">
-        <v>32700</v>
+        <v>35700</v>
       </c>
       <c r="J52" s="3">
-        <v>49000</v>
+        <v>53500</v>
       </c>
       <c r="K52" s="3">
         <v>35800</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77619200</v>
+        <v>84675500</v>
       </c>
       <c r="E54" s="3">
-        <v>63768100</v>
+        <v>69565200</v>
       </c>
       <c r="F54" s="3">
-        <v>56225100</v>
+        <v>61336400</v>
       </c>
       <c r="G54" s="3">
-        <v>51939400</v>
+        <v>56661100</v>
       </c>
       <c r="H54" s="3">
-        <v>48425000</v>
+        <v>52827300</v>
       </c>
       <c r="I54" s="3">
-        <v>44859800</v>
+        <v>48938000</v>
       </c>
       <c r="J54" s="3">
-        <v>43177400</v>
+        <v>47102700</v>
       </c>
       <c r="K54" s="3">
         <v>40524300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1311800</v>
+        <v>1431100</v>
       </c>
       <c r="E57" s="3">
-        <v>863900</v>
+        <v>942400</v>
       </c>
       <c r="F57" s="3">
-        <v>679200</v>
+        <v>740900</v>
       </c>
       <c r="G57" s="3">
-        <v>753100</v>
+        <v>821600</v>
       </c>
       <c r="H57" s="3">
-        <v>665500</v>
+        <v>726000</v>
       </c>
       <c r="I57" s="3">
-        <v>680500</v>
+        <v>742400</v>
       </c>
       <c r="J57" s="3">
-        <v>635200</v>
+        <v>693000</v>
       </c>
       <c r="K57" s="3">
         <v>430900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2469300</v>
+        <v>2693800</v>
       </c>
       <c r="E58" s="3">
-        <v>1724400</v>
+        <v>1881200</v>
       </c>
       <c r="F58" s="3">
-        <v>1634500</v>
+        <v>1783100</v>
       </c>
       <c r="G58" s="3">
-        <v>2458700</v>
+        <v>2682200</v>
       </c>
       <c r="H58" s="3">
-        <v>3330800</v>
+        <v>3633600</v>
       </c>
       <c r="I58" s="3">
-        <v>2938000</v>
+        <v>3205000</v>
       </c>
       <c r="J58" s="3">
-        <v>3054700</v>
+        <v>3332400</v>
       </c>
       <c r="K58" s="3">
         <v>2596000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>460700</v>
+        <v>502600</v>
       </c>
       <c r="E59" s="3">
-        <v>152300</v>
+        <v>166100</v>
       </c>
       <c r="F59" s="3">
-        <v>199700</v>
+        <v>217800</v>
       </c>
       <c r="G59" s="3">
-        <v>168800</v>
+        <v>184200</v>
       </c>
       <c r="H59" s="3">
-        <v>153800</v>
+        <v>167800</v>
       </c>
       <c r="I59" s="3">
-        <v>97900</v>
+        <v>106800</v>
       </c>
       <c r="J59" s="3">
-        <v>148500</v>
+        <v>162000</v>
       </c>
       <c r="K59" s="3">
         <v>160500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6716400</v>
+        <v>7327000</v>
       </c>
       <c r="E61" s="3">
-        <v>5326300</v>
+        <v>5810500</v>
       </c>
       <c r="F61" s="3">
-        <v>6053900</v>
+        <v>6604300</v>
       </c>
       <c r="G61" s="3">
-        <v>5815600</v>
+        <v>6344300</v>
       </c>
       <c r="H61" s="3">
-        <v>5364600</v>
+        <v>5852300</v>
       </c>
       <c r="I61" s="3">
-        <v>5265800</v>
+        <v>5744600</v>
       </c>
       <c r="J61" s="3">
-        <v>5771000</v>
+        <v>6295600</v>
       </c>
       <c r="K61" s="3">
         <v>6007800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>399500</v>
+        <v>435800</v>
       </c>
       <c r="E62" s="3">
-        <v>471400</v>
+        <v>514300</v>
       </c>
       <c r="F62" s="3">
-        <v>489900</v>
+        <v>534400</v>
       </c>
       <c r="G62" s="3">
-        <v>546000</v>
+        <v>595600</v>
       </c>
       <c r="H62" s="3">
-        <v>462200</v>
+        <v>504200</v>
       </c>
       <c r="I62" s="3">
-        <v>488800</v>
+        <v>533300</v>
       </c>
       <c r="J62" s="3">
-        <v>458500</v>
+        <v>500200</v>
       </c>
       <c r="K62" s="3">
         <v>305100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69019700</v>
+        <v>75294200</v>
       </c>
       <c r="E66" s="3">
-        <v>56676600</v>
+        <v>61829000</v>
       </c>
       <c r="F66" s="3">
-        <v>50385100</v>
+        <v>54965600</v>
       </c>
       <c r="G66" s="3">
-        <v>46024900</v>
+        <v>50209000</v>
       </c>
       <c r="H66" s="3">
-        <v>42958200</v>
+        <v>46863500</v>
       </c>
       <c r="I66" s="3">
-        <v>39775000</v>
+        <v>43390900</v>
       </c>
       <c r="J66" s="3">
-        <v>38498600</v>
+        <v>41998400</v>
       </c>
       <c r="K66" s="3">
         <v>36475600</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5720800</v>
+        <v>6240900</v>
       </c>
       <c r="E72" s="3">
-        <v>4847800</v>
+        <v>5288500</v>
       </c>
       <c r="F72" s="3">
-        <v>3966600</v>
+        <v>4327100</v>
       </c>
       <c r="G72" s="3">
-        <v>4011100</v>
+        <v>4375800</v>
       </c>
       <c r="H72" s="3">
-        <v>3587400</v>
+        <v>3913600</v>
       </c>
       <c r="I72" s="3">
-        <v>3349600</v>
+        <v>3654100</v>
       </c>
       <c r="J72" s="3">
-        <v>3049500</v>
+        <v>3326800</v>
       </c>
       <c r="K72" s="3">
         <v>2465000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8599600</v>
+        <v>9381300</v>
       </c>
       <c r="E76" s="3">
-        <v>7091600</v>
+        <v>7736200</v>
       </c>
       <c r="F76" s="3">
-        <v>5840000</v>
+        <v>6370900</v>
       </c>
       <c r="G76" s="3">
-        <v>5914500</v>
+        <v>6452100</v>
       </c>
       <c r="H76" s="3">
-        <v>5466800</v>
+        <v>5963700</v>
       </c>
       <c r="I76" s="3">
-        <v>5084900</v>
+        <v>5547100</v>
       </c>
       <c r="J76" s="3">
-        <v>4678900</v>
+        <v>5104200</v>
       </c>
       <c r="K76" s="3">
         <v>4048700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1492400</v>
+        <v>1628000</v>
       </c>
       <c r="E81" s="3">
-        <v>899100</v>
+        <v>980800</v>
       </c>
       <c r="F81" s="3">
-        <v>60700</v>
+        <v>66200</v>
       </c>
       <c r="G81" s="3">
-        <v>685800</v>
+        <v>748200</v>
       </c>
       <c r="H81" s="3">
-        <v>585000</v>
+        <v>638100</v>
       </c>
       <c r="I81" s="3">
-        <v>575300</v>
+        <v>627600</v>
       </c>
       <c r="J81" s="3">
-        <v>630400</v>
+        <v>687700</v>
       </c>
       <c r="K81" s="3">
         <v>529000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>208900</v>
+        <v>227900</v>
       </c>
       <c r="E83" s="3">
-        <v>188100</v>
+        <v>205200</v>
       </c>
       <c r="F83" s="3">
-        <v>162000</v>
+        <v>176700</v>
       </c>
       <c r="G83" s="3">
-        <v>149000</v>
+        <v>162500</v>
       </c>
       <c r="H83" s="3">
-        <v>102900</v>
+        <v>112300</v>
       </c>
       <c r="I83" s="3">
-        <v>95300</v>
+        <v>103900</v>
       </c>
       <c r="J83" s="3">
-        <v>106200</v>
+        <v>115900</v>
       </c>
       <c r="K83" s="3">
         <v>101100</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1444100</v>
+        <v>1575400</v>
       </c>
       <c r="E89" s="3">
-        <v>1341000</v>
+        <v>1462900</v>
       </c>
       <c r="F89" s="3">
-        <v>2470700</v>
+        <v>2695300</v>
       </c>
       <c r="G89" s="3">
-        <v>2709400</v>
+        <v>2955700</v>
       </c>
       <c r="H89" s="3">
-        <v>229400</v>
+        <v>250300</v>
       </c>
       <c r="I89" s="3">
-        <v>646700</v>
+        <v>705500</v>
       </c>
       <c r="J89" s="3">
-        <v>792300</v>
+        <v>864300</v>
       </c>
       <c r="K89" s="3">
         <v>389900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-778500</v>
+        <v>-849300</v>
       </c>
       <c r="E91" s="3">
-        <v>-480900</v>
+        <v>-524600</v>
       </c>
       <c r="F91" s="3">
-        <v>-336600</v>
+        <v>-367200</v>
       </c>
       <c r="G91" s="3">
-        <v>-342200</v>
+        <v>-373300</v>
       </c>
       <c r="H91" s="3">
-        <v>-223100</v>
+        <v>-243400</v>
       </c>
       <c r="I91" s="3">
-        <v>-249000</v>
+        <v>-271700</v>
       </c>
       <c r="J91" s="3">
-        <v>-238200</v>
+        <v>-259800</v>
       </c>
       <c r="K91" s="3">
         <v>-202000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1024000</v>
+        <v>-1117100</v>
       </c>
       <c r="E94" s="3">
-        <v>-143100</v>
+        <v>-156100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1654900</v>
+        <v>-1805300</v>
       </c>
       <c r="G94" s="3">
-        <v>-482000</v>
+        <v>-525800</v>
       </c>
       <c r="H94" s="3">
-        <v>-304000</v>
+        <v>-331600</v>
       </c>
       <c r="I94" s="3">
-        <v>-419800</v>
+        <v>-457900</v>
       </c>
       <c r="J94" s="3">
-        <v>-226100</v>
+        <v>-246600</v>
       </c>
       <c r="K94" s="3">
         <v>29800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-508300</v>
+        <v>-554600</v>
       </c>
       <c r="E96" s="3">
-        <v>-102800</v>
+        <v>-112100</v>
       </c>
       <c r="F96" s="3">
-        <v>-342300</v>
+        <v>-373400</v>
       </c>
       <c r="G96" s="3">
-        <v>-227100</v>
+        <v>-247800</v>
       </c>
       <c r="H96" s="3">
-        <v>-161900</v>
+        <v>-176600</v>
       </c>
       <c r="I96" s="3">
-        <v>-247800</v>
+        <v>-270300</v>
       </c>
       <c r="J96" s="3">
-        <v>-184900</v>
+        <v>-201700</v>
       </c>
       <c r="K96" s="3">
         <v>-164900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>187800</v>
+        <v>204800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1498200</v>
+        <v>-1634400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1081400</v>
+        <v>-1179700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1157400</v>
+        <v>-1262600</v>
       </c>
       <c r="H100" s="3">
-        <v>-161200</v>
+        <v>-175900</v>
       </c>
       <c r="I100" s="3">
-        <v>-796600</v>
+        <v>-869000</v>
       </c>
       <c r="J100" s="3">
-        <v>-75600</v>
+        <v>-82500</v>
       </c>
       <c r="K100" s="3">
         <v>-48600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>781500</v>
+        <v>852500</v>
       </c>
       <c r="E101" s="3">
-        <v>658600</v>
+        <v>718500</v>
       </c>
       <c r="F101" s="3">
-        <v>257500</v>
+        <v>280900</v>
       </c>
       <c r="G101" s="3">
-        <v>31500</v>
+        <v>34400</v>
       </c>
       <c r="H101" s="3">
-        <v>360100</v>
+        <v>392800</v>
       </c>
       <c r="I101" s="3">
-        <v>64900</v>
+        <v>70800</v>
       </c>
       <c r="J101" s="3">
-        <v>-126600</v>
+        <v>-138100</v>
       </c>
       <c r="K101" s="3">
         <v>750000</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1389400</v>
+        <v>1515700</v>
       </c>
       <c r="E102" s="3">
-        <v>358300</v>
+        <v>390900</v>
       </c>
       <c r="F102" s="3">
-        <v>-8100</v>
+        <v>-8900</v>
       </c>
       <c r="G102" s="3">
-        <v>1101600</v>
+        <v>1201700</v>
       </c>
       <c r="H102" s="3">
-        <v>124300</v>
+        <v>135600</v>
       </c>
       <c r="I102" s="3">
-        <v>-504800</v>
+        <v>-550700</v>
       </c>
       <c r="J102" s="3">
-        <v>364000</v>
+        <v>397100</v>
       </c>
       <c r="K102" s="3">
         <v>1121100</v>

--- a/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CIB_YR_FIN.xlsx
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2566600</v>
+        <v>2576100</v>
       </c>
       <c r="E21" s="3">
-        <v>1641400</v>
+        <v>1650000</v>
       </c>
       <c r="F21" s="3">
-        <v>250800</v>
+        <v>258200</v>
       </c>
       <c r="G21" s="3">
-        <v>1237100</v>
+        <v>1243900</v>
       </c>
       <c r="H21" s="3">
-        <v>980100</v>
+        <v>984800</v>
       </c>
       <c r="I21" s="3">
-        <v>1062200</v>
+        <v>1066500</v>
       </c>
       <c r="J21" s="3">
-        <v>1068300</v>
+        <v>1073100</v>
       </c>
       <c r="K21" s="3">
         <v>780600</v>
